--- a/src/СКУД.xlsx
+++ b/src/СКУД.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="708">
   <si>
     <t>ID УБИ</t>
   </si>
@@ -211,7 +211,10 @@
     <t>Метаданные, системное программное обеспечение</t>
   </si>
   <si>
-    <t>Актуальная</t>
+    <t>Неактуальная</t>
+  </si>
+  <si>
+    <t>Недостаточно мотивации</t>
   </si>
   <si>
     <t>Угроза аппаратного сброса пароля BIOS</t>
@@ -330,6 +333,9 @@
   </si>
   <si>
     <t>Системное программное обеспечение, прикладное программное обеспечение, сетевое программное обеспечение, микропрограммное обеспечение, метаданные, объекты файловой системы, реестр</t>
+  </si>
+  <si>
+    <t>Актуальная</t>
   </si>
   <si>
     <t>Угроза деструктивного использования декларированного функционала BIOS</t>
@@ -2868,13 +2874,13 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
     <font>
       <sz val="8.0"/>
       <color rgb="FF000000"/>
@@ -2941,9 +2947,11 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="12.0"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3266,130 +3274,130 @@
     <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="7" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="7" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="7" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="7" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="7" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -3970,7 +3978,9 @@
       <c r="O4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="7"/>
+      <c r="P4" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="Q4" s="11"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
@@ -3987,16 +3997,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14" t="s">
@@ -4041,16 +4051,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>20</v>
@@ -4099,16 +4109,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>20</v>
@@ -4140,7 +4150,9 @@
       <c r="O7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="14"/>
+      <c r="P7" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="Q7" s="18"/>
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
@@ -4157,16 +4169,16 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>20</v>
@@ -4196,7 +4208,9 @@
       <c r="O8" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="7"/>
+      <c r="P8" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
@@ -4213,16 +4227,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>20</v>
@@ -4267,16 +4281,16 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>20</v>
@@ -4325,16 +4339,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F11" s="14" t="s">
         <v>20</v>
@@ -4383,16 +4397,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -4437,16 +4451,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>20</v>
@@ -4476,7 +4490,7 @@
         <v>20</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="18"/>
@@ -4495,16 +4509,16 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7" t="s">
@@ -4549,16 +4563,16 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="14"/>
@@ -4603,16 +4617,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>20</v>
@@ -4640,7 +4654,9 @@
       <c r="O16" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="P16" s="7"/>
+      <c r="P16" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
@@ -4657,16 +4673,16 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>20</v>
@@ -4711,16 +4727,16 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>20</v>
@@ -4767,16 +4783,16 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F19" s="14" t="s">
         <v>20</v>
@@ -4806,7 +4822,7 @@
         <v>20</v>
       </c>
       <c r="O19" s="21" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P19" s="14"/>
       <c r="Q19" s="18"/>
@@ -4825,16 +4841,16 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>20</v>
@@ -4879,16 +4895,16 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F21" s="14" t="s">
         <v>20</v>
@@ -4937,16 +4953,16 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>20</v>
@@ -4993,16 +5009,16 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
@@ -5047,16 +5063,16 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7" t="s">
@@ -5084,7 +5100,7 @@
         <v>20</v>
       </c>
       <c r="O24" s="20" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="11"/>
@@ -5103,16 +5119,16 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14" t="s">
@@ -5140,7 +5156,7 @@
         <v>20</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P25" s="14"/>
       <c r="Q25" s="18"/>
@@ -5159,16 +5175,16 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
@@ -5217,16 +5233,16 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F27" s="14"/>
       <c r="G27" s="14" t="s">
@@ -5273,16 +5289,16 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7" t="s">
@@ -5310,7 +5326,9 @@
       <c r="O28" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="7"/>
+      <c r="P28" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="Q28" s="11"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12"/>
@@ -5327,16 +5345,16 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F29" s="14" t="s">
         <v>20</v>
@@ -5362,7 +5380,7 @@
         <v>20</v>
       </c>
       <c r="O29" s="21" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P29" s="14"/>
       <c r="Q29" s="18"/>
@@ -5381,16 +5399,16 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -5435,16 +5453,16 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F31" s="14" t="s">
         <v>20</v>
@@ -5493,16 +5511,16 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>20</v>
@@ -5547,16 +5565,16 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D33" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14" t="s">
@@ -5601,16 +5619,16 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="7" t="s">
@@ -5657,16 +5675,16 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F35" s="14" t="s">
         <v>20</v>
@@ -5692,7 +5710,7 @@
         <v>20</v>
       </c>
       <c r="O35" s="21" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P35" s="14"/>
       <c r="Q35" s="18"/>
@@ -5711,16 +5729,16 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>20</v>
@@ -5769,16 +5787,16 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F37" s="14" t="s">
         <v>20</v>
@@ -5825,16 +5843,16 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>20</v>
@@ -5879,16 +5897,16 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F39" s="14"/>
       <c r="G39" s="14"/>
@@ -5933,16 +5951,16 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D40" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
@@ -5987,16 +6005,16 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
@@ -6041,16 +6059,16 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>20</v>
@@ -6099,16 +6117,16 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>20</v>
@@ -6157,16 +6175,16 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -6211,16 +6229,16 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>20</v>
@@ -6269,16 +6287,16 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>20</v>
@@ -6327,16 +6345,16 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>20</v>
@@ -6383,16 +6401,16 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -6437,16 +6455,16 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>20</v>
@@ -6495,16 +6513,16 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F50" s="7"/>
       <c r="G50" s="7" t="s">
@@ -6551,16 +6569,16 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E51" s="14" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F51" s="14"/>
       <c r="G51" s="14" t="s">
@@ -6605,16 +6623,16 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F52" s="7"/>
       <c r="G52" s="7" t="s">
@@ -6661,16 +6679,16 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E53" s="14" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="14" t="s">
@@ -6717,16 +6735,16 @@
         <v>53.0</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>20</v>
@@ -6775,16 +6793,16 @@
         <v>54.0</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E55" s="14" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F55" s="14" t="s">
         <v>20</v>
@@ -6833,16 +6851,16 @@
         <v>55.0</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>20</v>
@@ -6891,16 +6909,16 @@
         <v>56.0</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F57" s="14" t="s">
         <v>20</v>
@@ -6949,16 +6967,16 @@
         <v>57.0</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>20</v>
@@ -7003,16 +7021,16 @@
         <v>58.0</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F59" s="14"/>
       <c r="G59" s="14"/>
@@ -7057,16 +7075,16 @@
         <v>59.0</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
@@ -7111,16 +7129,16 @@
         <v>60.0</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E61" s="14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F61" s="14"/>
       <c r="G61" s="14" t="s">
@@ -7167,16 +7185,16 @@
         <v>61.0</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F62" s="7"/>
       <c r="G62" s="7" t="s">
@@ -7223,16 +7241,16 @@
         <v>62.0</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E63" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F63" s="14" t="s">
         <v>20</v>
@@ -7277,16 +7295,16 @@
         <v>63.0</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D64" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>20</v>
@@ -7335,16 +7353,16 @@
         <v>64.0</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" s="14"/>
       <c r="G65" s="14"/>
@@ -7389,16 +7407,16 @@
         <v>65.0</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>20</v>
@@ -7447,16 +7465,16 @@
         <v>66.0</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E67" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F67" s="14" t="s">
         <v>20</v>
@@ -7505,16 +7523,16 @@
         <v>67.0</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>20</v>
@@ -7559,16 +7577,16 @@
         <v>68.0</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E69" s="14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F69" s="14" t="s">
         <v>20</v>
@@ -7617,13 +7635,13 @@
         <v>69.0</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>28</v>
@@ -7654,7 +7672,7 @@
         <v>20</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P70" s="7"/>
       <c r="Q70" s="11"/>
@@ -7673,16 +7691,16 @@
         <v>70.0</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F71" s="14"/>
       <c r="G71" s="14" t="s">
@@ -7729,16 +7747,16 @@
         <v>71.0</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>20</v>
@@ -7783,16 +7801,16 @@
         <v>72.0</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E73" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F73" s="14" t="s">
         <v>20</v>
@@ -7819,10 +7837,10 @@
         <v>20</v>
       </c>
       <c r="N73" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O73" s="21" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="O73" s="17" t="s">
+        <v>24</v>
       </c>
       <c r="P73" s="14"/>
       <c r="Q73" s="18"/>
@@ -7841,16 +7859,16 @@
         <v>73.0</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D74" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>20</v>
@@ -7880,7 +7898,7 @@
         <v>20</v>
       </c>
       <c r="O74" s="20" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P74" s="7"/>
       <c r="Q74" s="11"/>
@@ -7899,16 +7917,16 @@
         <v>74.0</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F75" s="14" t="s">
         <v>20</v>
@@ -7936,7 +7954,9 @@
       <c r="O75" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="P75" s="14"/>
+      <c r="P75" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="Q75" s="18"/>
       <c r="R75" s="19"/>
       <c r="S75" s="19"/>
@@ -7953,16 +7973,16 @@
         <v>75.0</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>20</v>
@@ -8007,16 +8027,16 @@
         <v>76.0</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E77" s="14" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="14"/>
@@ -8061,16 +8081,16 @@
         <v>77.0</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D78" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F78" s="7"/>
       <c r="G78" s="7" t="s">
@@ -8117,16 +8137,16 @@
         <v>78.0</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E79" s="14" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F79" s="14" t="s">
         <v>20</v>
@@ -8175,16 +8195,16 @@
         <v>79.0</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C80" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>20</v>
@@ -8233,16 +8253,16 @@
         <v>80.0</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E81" s="14" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F81" s="14" t="s">
         <v>20</v>
@@ -8291,16 +8311,16 @@
         <v>81.0</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D82" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>20</v>
@@ -8349,16 +8369,16 @@
         <v>82.0</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E83" s="14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F83" s="14" t="s">
         <v>20</v>
@@ -8405,16 +8425,16 @@
         <v>83.0</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>20</v>
@@ -8459,16 +8479,16 @@
         <v>84.0</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E85" s="14" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F85" s="14" t="s">
         <v>20</v>
@@ -8517,16 +8537,16 @@
         <v>85.0</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D86" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>20</v>
@@ -8571,16 +8591,16 @@
         <v>86.0</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E87" s="14" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F87" s="14"/>
       <c r="G87" s="14" t="s">
@@ -8627,16 +8647,16 @@
         <v>87.0</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>20</v>
@@ -8685,16 +8705,16 @@
         <v>88.0</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E89" s="14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F89" s="14" t="s">
         <v>20</v>
@@ -8739,16 +8759,16 @@
         <v>89.0</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>20</v>
@@ -8797,16 +8817,16 @@
         <v>90.0</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E91" s="14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F91" s="14" t="s">
         <v>20</v>
@@ -8855,16 +8875,16 @@
         <v>91.0</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
@@ -8909,16 +8929,16 @@
         <v>92.0</v>
       </c>
       <c r="B93" s="14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E93" s="14" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F93" s="14" t="s">
         <v>20</v>
@@ -8967,16 +8987,16 @@
         <v>93.0</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>20</v>
@@ -9025,16 +9045,16 @@
         <v>94.0</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D95" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E95" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F95" s="14"/>
       <c r="G95" s="14" t="s">
@@ -9081,16 +9101,16 @@
         <v>95.0</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D96" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>20</v>
@@ -9139,16 +9159,16 @@
         <v>96.0</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E97" s="14" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F97" s="14" t="s">
         <v>20</v>
@@ -9197,16 +9217,16 @@
         <v>97.0</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F98" s="7" t="s">
         <v>20</v>
@@ -9253,16 +9273,16 @@
         <v>98.0</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E99" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F99" s="14" t="s">
         <v>20</v>
@@ -9307,16 +9327,16 @@
         <v>99.0</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>20</v>
@@ -9361,16 +9381,16 @@
         <v>100.0</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E101" s="14" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F101" s="14" t="s">
         <v>20</v>
@@ -9419,16 +9439,16 @@
         <v>101.0</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D102" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>20</v>
@@ -9477,16 +9497,16 @@
         <v>102.0</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="D103" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E103" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F103" s="14"/>
       <c r="G103" s="14" t="s">
@@ -9533,16 +9553,16 @@
         <v>103.0</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>20</v>
@@ -9587,16 +9607,16 @@
         <v>104.0</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E105" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F105" s="14" t="s">
         <v>20</v>
@@ -9641,16 +9661,16 @@
         <v>105.0</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F106" s="7"/>
       <c r="G106" s="7" t="s">
@@ -9697,16 +9717,16 @@
         <v>106.0</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="F107" s="14"/>
       <c r="G107" s="14"/>
@@ -9751,16 +9771,16 @@
         <v>107.0</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F108" s="7"/>
       <c r="G108" s="7" t="s">
@@ -9807,16 +9827,16 @@
         <v>108.0</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E109" s="14" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F109" s="14" t="s">
         <v>20</v>
@@ -9865,16 +9885,16 @@
         <v>109.0</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D110" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F110" s="7"/>
       <c r="G110" s="7" t="s">
@@ -9921,13 +9941,13 @@
         <v>110.0</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E111" s="14" t="s">
         <v>19</v>
@@ -9975,16 +9995,16 @@
         <v>111.0</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D112" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F112" s="7" t="s">
         <v>20</v>
@@ -10029,16 +10049,16 @@
         <v>112.0</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E113" s="14" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="14" t="s">
@@ -10083,16 +10103,16 @@
         <v>113.0</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F114" s="7"/>
       <c r="G114" s="7" t="s">
@@ -10139,16 +10159,16 @@
         <v>114.0</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E115" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F115" s="14" t="s">
         <v>20</v>
@@ -10197,16 +10217,16 @@
         <v>115.0</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F116" s="7" t="s">
         <v>20</v>
@@ -10232,7 +10252,7 @@
         <v>20</v>
       </c>
       <c r="O116" s="20" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P116" s="7"/>
       <c r="Q116" s="11"/>
@@ -10251,16 +10271,16 @@
         <v>116.0</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E117" s="14" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F117" s="14" t="s">
         <v>20</v>
@@ -10286,7 +10306,7 @@
         <v>20</v>
       </c>
       <c r="O117" s="21" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P117" s="14"/>
       <c r="Q117" s="18"/>
@@ -10305,16 +10325,16 @@
         <v>117.0</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D118" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F118" s="7" t="s">
         <v>20</v>
@@ -10363,16 +10383,16 @@
         <v>118.0</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D119" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E119" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F119" s="14" t="s">
         <v>20</v>
@@ -10421,16 +10441,16 @@
         <v>119.0</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D120" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F120" s="7" t="s">
         <v>20</v>
@@ -10479,16 +10499,16 @@
         <v>120.0</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E121" s="14" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F121" s="14" t="s">
         <v>20</v>
@@ -10537,16 +10557,16 @@
         <v>121.0</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F122" s="7"/>
       <c r="G122" s="7" t="s">
@@ -10593,16 +10613,16 @@
         <v>122.0</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E123" s="14" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F123" s="14" t="s">
         <v>20</v>
@@ -10651,16 +10671,16 @@
         <v>123.0</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F124" s="7" t="s">
         <v>20</v>
@@ -10707,16 +10727,16 @@
         <v>124.0</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E125" s="14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F125" s="14"/>
       <c r="G125" s="14" t="s">
@@ -10761,16 +10781,16 @@
         <v>125.0</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F126" s="7" t="s">
         <v>20</v>
@@ -10819,16 +10839,16 @@
         <v>126.0</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E127" s="14" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F127" s="14" t="s">
         <v>20</v>
@@ -10875,16 +10895,16 @@
         <v>127.0</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D128" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F128" s="7" t="s">
         <v>20</v>
@@ -10916,7 +10936,9 @@
       <c r="O128" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="P128" s="7"/>
+      <c r="P128" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="Q128" s="11"/>
       <c r="R128" s="12"/>
       <c r="S128" s="12"/>
@@ -10933,16 +10955,16 @@
         <v>128.0</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E129" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F129" s="14" t="s">
         <v>20</v>
@@ -10968,7 +10990,7 @@
         <v>20</v>
       </c>
       <c r="O129" s="21" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P129" s="14"/>
       <c r="Q129" s="18"/>
@@ -10987,16 +11009,16 @@
         <v>129.0</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C130" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F130" s="7"/>
       <c r="G130" s="7" t="s">
@@ -11041,16 +11063,16 @@
         <v>130.0</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E131" s="14" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F131" s="14" t="s">
         <v>20</v>
@@ -11095,16 +11117,16 @@
         <v>131.0</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D132" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F132" s="7" t="s">
         <v>20</v>
@@ -11151,16 +11173,16 @@
         <v>132.0</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="D133" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E133" s="14" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F133" s="14" t="s">
         <v>20</v>
@@ -11205,16 +11227,16 @@
         <v>133.0</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F134" s="7" t="s">
         <v>20</v>
@@ -11259,16 +11281,16 @@
         <v>134.0</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E135" s="14" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F135" s="14" t="s">
         <v>20</v>
@@ -11317,16 +11339,16 @@
         <v>135.0</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C136" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>20</v>
@@ -11375,16 +11397,16 @@
         <v>136.0</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E137" s="14" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F137" s="14"/>
       <c r="G137" s="14" t="s">
@@ -11431,16 +11453,16 @@
         <v>137.0</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C138" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F138" s="7" t="s">
         <v>20</v>
@@ -11489,16 +11511,16 @@
         <v>138.0</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E139" s="14" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F139" s="14" t="s">
         <v>20</v>
@@ -11547,16 +11569,16 @@
         <v>139.0</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D140" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>20</v>
@@ -11586,7 +11608,7 @@
         <v>20</v>
       </c>
       <c r="O140" s="20" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P140" s="7"/>
       <c r="Q140" s="11"/>
@@ -11605,16 +11627,16 @@
         <v>140.0</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E141" s="14" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F141" s="14"/>
       <c r="G141" s="14"/>
@@ -11659,16 +11681,16 @@
         <v>141.0</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
@@ -11713,16 +11735,16 @@
         <v>142.0</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E143" s="14" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F143" s="14"/>
       <c r="G143" s="14"/>
@@ -11767,16 +11789,16 @@
         <v>143.0</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D144" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
@@ -11821,16 +11843,16 @@
         <v>144.0</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E145" s="14" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F145" s="14" t="s">
         <v>20</v>
@@ -11877,16 +11899,16 @@
         <v>145.0</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C146" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F146" s="7"/>
       <c r="G146" s="7" t="s">
@@ -11933,16 +11955,16 @@
         <v>146.0</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D147" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E147" s="14" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F147" s="14" t="s">
         <v>20</v>
@@ -11987,16 +12009,16 @@
         <v>147.0</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C148" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>20</v>
@@ -12043,16 +12065,16 @@
         <v>148.0</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E149" s="14" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F149" s="14" t="s">
         <v>20</v>
@@ -12099,16 +12121,16 @@
         <v>149.0</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C150" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D150" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F150" s="7" t="s">
         <v>20</v>
@@ -12157,16 +12179,16 @@
         <v>150.0</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E151" s="14" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F151" s="14"/>
       <c r="G151" s="14"/>
@@ -12211,16 +12233,16 @@
         <v>151.0</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F152" s="7" t="s">
         <v>20</v>
@@ -12265,16 +12287,16 @@
         <v>152.0</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E153" s="14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F153" s="14" t="s">
         <v>20</v>
@@ -12323,16 +12345,16 @@
         <v>153.0</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
@@ -12377,16 +12399,16 @@
         <v>154.0</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D155" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E155" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F155" s="14" t="s">
         <v>20</v>
@@ -12435,16 +12457,16 @@
         <v>155.0</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F156" s="7"/>
       <c r="G156" s="7"/>
@@ -12470,7 +12492,7 @@
         <v>20</v>
       </c>
       <c r="O156" s="20" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P156" s="7"/>
       <c r="Q156" s="11"/>
@@ -12489,16 +12511,16 @@
         <v>156.0</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E157" s="14" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F157" s="14" t="s">
         <v>20</v>
@@ -12545,16 +12567,16 @@
         <v>157.0</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F158" s="7"/>
       <c r="G158" s="7" t="s">
@@ -12601,16 +12623,16 @@
         <v>158.0</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E159" s="14" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F159" s="14"/>
       <c r="G159" s="14" t="s">
@@ -12657,16 +12679,16 @@
         <v>159.0</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F160" s="7" t="s">
         <v>20</v>
@@ -12711,16 +12733,16 @@
         <v>160.0</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E161" s="14" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F161" s="14" t="s">
         <v>20</v>
@@ -12767,16 +12789,16 @@
         <v>161.0</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E162" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F162" s="7"/>
       <c r="G162" s="7"/>
@@ -12821,16 +12843,16 @@
         <v>162.0</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E163" s="14" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="F163" s="14" t="s">
         <v>20</v>
@@ -12879,16 +12901,16 @@
         <v>163.0</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D164" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F164" s="7" t="s">
         <v>20</v>
@@ -12937,16 +12959,16 @@
         <v>164.0</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E165" s="14" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F165" s="14" t="s">
         <v>20</v>
@@ -12995,16 +13017,16 @@
         <v>165.0</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F166" s="7" t="s">
         <v>20</v>
@@ -13034,7 +13056,7 @@
         <v>20</v>
       </c>
       <c r="O166" s="20" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P166" s="7"/>
       <c r="Q166" s="11"/>
@@ -13053,16 +13075,16 @@
         <v>166.0</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E167" s="14" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F167" s="14"/>
       <c r="G167" s="14"/>
@@ -13107,16 +13129,16 @@
         <v>167.0</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E168" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F168" s="7" t="s">
         <v>20</v>
@@ -13165,16 +13187,16 @@
         <v>168.0</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E169" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F169" s="14" t="s">
         <v>20</v>
@@ -13221,16 +13243,16 @@
         <v>169.0</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E170" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F170" s="7" t="s">
         <v>20</v>
@@ -13262,7 +13284,9 @@
       <c r="O170" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="P170" s="7"/>
+      <c r="P170" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="Q170" s="11"/>
       <c r="R170" s="12"/>
       <c r="S170" s="12"/>
@@ -13279,16 +13303,16 @@
         <v>170.0</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E171" s="14" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F171" s="14"/>
       <c r="G171" s="14"/>
@@ -13316,7 +13340,9 @@
       <c r="O171" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="P171" s="14"/>
+      <c r="P171" s="17" t="s">
+        <v>33</v>
+      </c>
       <c r="Q171" s="18"/>
       <c r="R171" s="19"/>
       <c r="S171" s="19"/>
@@ -13333,16 +13359,16 @@
         <v>171.0</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E172" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F172" s="7"/>
       <c r="G172" s="7"/>
@@ -13387,16 +13413,16 @@
         <v>172.0</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E173" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F173" s="14" t="s">
         <v>20</v>
@@ -13445,16 +13471,16 @@
         <v>173.0</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E174" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F174" s="7"/>
       <c r="G174" s="7"/>
@@ -13499,16 +13525,16 @@
         <v>174.0</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E175" s="14" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F175" s="14" t="s">
         <v>20</v>
@@ -13553,16 +13579,16 @@
         <v>175.0</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C176" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E176" s="7" t="s">
         <v>491</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="F176" s="7" t="s">
         <v>20</v>
@@ -13607,16 +13633,16 @@
         <v>176.0</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E177" s="14" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F177" s="14"/>
       <c r="G177" s="14"/>
@@ -13661,16 +13687,16 @@
         <v>177.0</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E178" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F178" s="7"/>
       <c r="G178" s="7" t="s">
@@ -13717,16 +13743,16 @@
         <v>178.0</v>
       </c>
       <c r="B179" s="14" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E179" s="14" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F179" s="14" t="s">
         <v>20</v>
@@ -13775,16 +13801,16 @@
         <v>179.0</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E180" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F180" s="7"/>
       <c r="G180" s="7" t="s">
@@ -13829,16 +13855,16 @@
         <v>180.0</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E181" s="14" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F181" s="14"/>
       <c r="G181" s="14"/>
@@ -13864,7 +13890,7 @@
         <v>20</v>
       </c>
       <c r="O181" s="21" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P181" s="14"/>
       <c r="Q181" s="18"/>
@@ -13883,16 +13909,16 @@
         <v>181.0</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E182" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F182" s="7"/>
       <c r="G182" s="7" t="s">
@@ -13937,16 +13963,16 @@
         <v>182.0</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E183" s="14" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F183" s="14"/>
       <c r="G183" s="14"/>
@@ -13972,7 +13998,7 @@
         <v>20</v>
       </c>
       <c r="O183" s="21" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P183" s="14"/>
       <c r="Q183" s="18"/>
@@ -13991,16 +14017,16 @@
         <v>183.0</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D184" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E184" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F184" s="7"/>
       <c r="G184" s="7" t="s">
@@ -14047,16 +14073,16 @@
         <v>184.0</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E185" s="14" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F185" s="14" t="s">
         <v>20</v>
@@ -14101,16 +14127,16 @@
         <v>185.0</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E186" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F186" s="7" t="s">
         <v>20</v>
@@ -14159,16 +14185,16 @@
         <v>186.0</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E187" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F187" s="14"/>
       <c r="G187" s="14" t="s">
@@ -14215,16 +14241,16 @@
         <v>187.0</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D188" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>20</v>
@@ -14273,16 +14299,16 @@
         <v>188.0</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E189" s="14" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F189" s="14" t="s">
         <v>20</v>
@@ -14331,16 +14357,16 @@
         <v>189.0</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="D190" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E190" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F190" s="7"/>
       <c r="G190" s="7" t="s">
@@ -14387,16 +14413,16 @@
         <v>190.0</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="D191" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E191" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F191" s="14" t="s">
         <v>20</v>
@@ -14445,16 +14471,16 @@
         <v>191.0</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E192" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F192" s="7" t="s">
         <v>20</v>
@@ -14503,16 +14529,16 @@
         <v>192.0</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E193" s="14" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F193" s="14" t="s">
         <v>20</v>
@@ -14542,7 +14568,7 @@
         <v>20</v>
       </c>
       <c r="O193" s="21" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P193" s="14"/>
       <c r="Q193" s="18"/>
@@ -14561,16 +14587,16 @@
         <v>193.0</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="D194" s="7" t="s">
         <v>27</v>
       </c>
       <c r="E194" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F194" s="7" t="s">
         <v>20</v>
@@ -14615,16 +14641,16 @@
         <v>194.0</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E195" s="14" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F195" s="14" t="s">
         <v>20</v>
@@ -14673,16 +14699,16 @@
         <v>195.0</v>
       </c>
       <c r="B196" s="10" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F196" s="7"/>
       <c r="G196" s="7" t="s">
@@ -14727,16 +14753,16 @@
         <v>196.0</v>
       </c>
       <c r="B197" s="17" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D197" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E197" s="17" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F197" s="14"/>
       <c r="G197" s="14" t="s">
@@ -14783,16 +14809,16 @@
         <v>197.0</v>
       </c>
       <c r="B198" s="10" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C198" s="10" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D198" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F198" s="7" t="s">
         <v>20</v>
@@ -14837,16 +14863,16 @@
         <v>198.0</v>
       </c>
       <c r="B199" s="17" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C199" s="17" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D199" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E199" s="17" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F199" s="14"/>
       <c r="G199" s="14" t="s">
@@ -14891,16 +14917,16 @@
         <v>199.0</v>
       </c>
       <c r="B200" s="10" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="D200" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F200" s="7" t="s">
         <v>20</v>
@@ -14947,16 +14973,16 @@
         <v>200.0</v>
       </c>
       <c r="B201" s="17" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="C201" s="17" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="D201" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E201" s="17" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F201" s="14" t="s">
         <v>20</v>
@@ -15001,16 +15027,16 @@
         <v>201.0</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C202" s="10" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D202" s="10" t="s">
         <v>27</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F202" s="7" t="s">
         <v>20</v>
@@ -15055,16 +15081,16 @@
         <v>202.0</v>
       </c>
       <c r="B203" s="17" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C203" s="17" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D203" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E203" s="17" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F203" s="14" t="s">
         <v>20</v>
@@ -15109,16 +15135,16 @@
         <v>203.0</v>
       </c>
       <c r="B204" s="10" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D204" s="10" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="F204" s="7" t="s">
         <v>20</v>
@@ -15163,16 +15189,16 @@
         <v>204.0</v>
       </c>
       <c r="B205" s="17" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C205" s="17" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="D205" s="17" t="s">
         <v>27</v>
       </c>
       <c r="E205" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F205" s="14"/>
       <c r="G205" s="14" t="s">
@@ -15217,16 +15243,16 @@
         <v>205.0</v>
       </c>
       <c r="B206" s="10" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="C206" s="10" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="D206" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
@@ -15271,16 +15297,16 @@
         <v>206.0</v>
       </c>
       <c r="B207" s="17" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C207" s="17" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="D207" s="24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E207" s="17" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F207" s="14" t="s">
         <v>20</v>
@@ -15327,16 +15353,16 @@
         <v>207.0</v>
       </c>
       <c r="B208" s="10" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C208" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="D208" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="E208" s="27" t="s">
         <v>574</v>
-      </c>
-      <c r="D208" s="26" t="s">
-        <v>576</v>
-      </c>
-      <c r="E208" s="27" t="s">
-        <v>572</v>
       </c>
       <c r="F208" s="7" t="s">
         <v>20</v>
@@ -15385,16 +15411,16 @@
         <v>208.0</v>
       </c>
       <c r="B209" s="30" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C209" s="31" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D209" s="30" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E209" s="30" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F209" s="32"/>
       <c r="G209" s="32"/>
@@ -15439,16 +15465,16 @@
         <v>209.0</v>
       </c>
       <c r="B210" s="27" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C210" s="33" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D210" s="34" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E210" s="27" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="F210" s="7" t="s">
         <v>20</v>
@@ -15497,16 +15523,16 @@
         <v>210.0</v>
       </c>
       <c r="B211" s="30" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C211" s="31" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D211" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E211" s="30" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F211" s="32"/>
       <c r="G211" s="14" t="s">
@@ -15534,7 +15560,7 @@
         <v>20</v>
       </c>
       <c r="O211" s="21" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="P211" s="32"/>
       <c r="Q211" s="18"/>
@@ -15553,16 +15579,16 @@
         <v>211.0</v>
       </c>
       <c r="B212" s="33" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C212" s="33" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D212" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E212" s="33" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F212" s="7" t="s">
         <v>20</v>
@@ -15609,16 +15635,16 @@
         <v>212.0</v>
       </c>
       <c r="B213" s="31" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C213" s="31" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="D213" s="31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E213" s="31" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F213" s="14" t="s">
         <v>20</v>
@@ -15667,16 +15693,16 @@
         <v>213.0</v>
       </c>
       <c r="B214" s="33" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C214" s="33" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D214" s="33" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E214" s="33" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="F214" s="7" t="s">
         <v>20</v>
@@ -15725,16 +15751,16 @@
         <v>214.0</v>
       </c>
       <c r="B215" s="31" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C215" s="31" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D215" s="31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E215" s="31" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="F215" s="14"/>
       <c r="G215" s="14" t="s">
@@ -15781,16 +15807,16 @@
         <v>215.0</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C216" s="27" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D216" s="27" t="s">
         <v>27</v>
       </c>
       <c r="E216" s="27" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F216" s="7" t="s">
         <v>20</v>
@@ -15839,16 +15865,16 @@
         <v>216.0</v>
       </c>
       <c r="B217" s="30" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C217" s="30" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D217" s="30" t="s">
         <v>27</v>
       </c>
       <c r="E217" s="30" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="F217" s="14" t="s">
         <v>20</v>
@@ -15897,16 +15923,16 @@
         <v>217.0</v>
       </c>
       <c r="B218" s="35" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="C218" s="27" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="D218" s="27" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E218" s="27" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="F218" s="7" t="s">
         <v>20</v>
@@ -15955,16 +15981,16 @@
         <v>218.0</v>
       </c>
       <c r="B219" s="30" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C219" s="30" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D219" s="30" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E219" s="30" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F219" s="14" t="s">
         <v>20</v>
@@ -16009,16 +16035,16 @@
         <v>219.0</v>
       </c>
       <c r="B220" s="27" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="C220" s="27" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D220" s="27" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="E220" s="27" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="F220" s="7" t="s">
         <v>20</v>
@@ -16063,16 +16089,16 @@
         <v>220.0</v>
       </c>
       <c r="B221" s="30" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="C221" s="30" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D221" s="30" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E221" s="30" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="F221" s="14" t="s">
         <v>20</v>
@@ -16117,16 +16143,16 @@
         <v>221.0</v>
       </c>
       <c r="B222" s="27" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D222" s="27" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E222" s="27" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="F222" s="28"/>
       <c r="G222" s="7" t="s">
@@ -16171,16 +16197,16 @@
         <v>222.0</v>
       </c>
       <c r="B223" s="30" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C223" s="30" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D223" s="30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E223" s="31" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="F223" s="14" t="s">
         <v>20</v>
@@ -31110,25 +31136,25 @@
   <sheetData>
     <row r="1" ht="31.5" customHeight="1">
       <c r="A1" s="39" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E1" s="39" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="G1" s="39" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H1" s="40"/>
     </row>
@@ -31137,22 +31163,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C2" s="42" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D2" s="42" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="E2" s="43" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="F2" s="44" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="G2" s="45" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="H2" s="40"/>
     </row>
@@ -31161,22 +31187,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H3" s="40"/>
     </row>
@@ -31185,22 +31211,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F4" s="48" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H4" s="40"/>
     </row>
@@ -31209,22 +31235,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E5" s="52" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F5" s="53" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="H5" s="40"/>
     </row>
@@ -31233,22 +31259,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E6" s="43" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F6" s="44" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="G6" s="49" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H6" s="40"/>
     </row>
@@ -31257,22 +31283,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H7" s="40"/>
     </row>
@@ -31281,22 +31307,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G8" s="49" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H8" s="40"/>
     </row>
@@ -31305,22 +31331,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="F9" s="48" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G9" s="49" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="H9" s="40"/>
     </row>
@@ -31329,22 +31355,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="51" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F10" s="53" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H10" s="40"/>
     </row>
@@ -31420,10 +31446,10 @@
     </row>
     <row r="18" ht="30.0" customHeight="1">
       <c r="A18" s="59" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B18" s="60" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C18" s="61"/>
       <c r="D18" s="61"/>
@@ -31452,10 +31478,10 @@
     </row>
     <row r="19" ht="30.0" customHeight="1">
       <c r="A19" s="59" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B19" s="60" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="C19" s="61"/>
       <c r="D19" s="61"/>
@@ -41344,11 +41370,11 @@
   <sheetData>
     <row r="1" ht="21.0" customHeight="1">
       <c r="A1" s="68" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="70" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D1" s="71"/>
       <c r="E1" s="72"/>
@@ -41376,27 +41402,27 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="74" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B2" s="75" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="E2" s="77" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="78" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B3" s="79" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C3" s="80">
         <v>0.0</v>
@@ -41410,10 +41436,10 @@
     </row>
     <row r="4">
       <c r="A4" s="81" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C4" s="83">
         <v>0.0</v>
@@ -41427,10 +41453,10 @@
     </row>
     <row r="5">
       <c r="A5" s="78" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B5" s="79" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C5" s="80">
         <v>0.0</v>
@@ -41444,10 +41470,10 @@
     </row>
     <row r="6">
       <c r="A6" s="81" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B6" s="82" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C6" s="83">
         <v>0.0</v>
@@ -41461,10 +41487,10 @@
     </row>
     <row r="7">
       <c r="A7" s="78" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B7" s="79" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C7" s="80">
         <v>0.0</v>
@@ -41478,10 +41504,10 @@
     </row>
     <row r="8">
       <c r="A8" s="81" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B8" s="82" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C8" s="83">
         <v>0.0</v>
@@ -41495,10 +41521,10 @@
     </row>
     <row r="9">
       <c r="A9" s="78" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B9" s="79" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C9" s="80">
         <v>0.0</v>
@@ -41512,10 +41538,10 @@
     </row>
     <row r="10">
       <c r="A10" s="81" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="C10" s="83">
         <v>0.0</v>
@@ -41529,10 +41555,10 @@
     </row>
     <row r="11">
       <c r="A11" s="78" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C11" s="80">
         <v>0.0</v>
@@ -41546,10 +41572,10 @@
     </row>
     <row r="12">
       <c r="A12" s="81" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B12" s="82" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C12" s="83">
         <v>0.0</v>
@@ -41563,10 +41589,10 @@
     </row>
     <row r="13">
       <c r="A13" s="78" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B13" s="79" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C13" s="80">
         <v>0.0</v>
@@ -41580,10 +41606,10 @@
     </row>
     <row r="14">
       <c r="A14" s="81" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B14" s="82" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C14" s="83">
         <v>0.0</v>
@@ -41597,10 +41623,10 @@
     </row>
     <row r="15">
       <c r="A15" s="78" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C15" s="80">
         <v>0.0</v>
@@ -41614,10 +41640,10 @@
     </row>
     <row r="16">
       <c r="A16" s="81" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B16" s="82" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="C16" s="83">
         <v>0.0</v>
@@ -41631,10 +41657,10 @@
     </row>
     <row r="17">
       <c r="A17" s="78" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C17" s="87">
         <v>0.0</v>
@@ -41648,10 +41674,10 @@
     </row>
     <row r="18">
       <c r="A18" s="81" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B18" s="82" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C18" s="86">
         <v>0.0</v>
@@ -41665,10 +41691,10 @@
     </row>
     <row r="19">
       <c r="A19" s="78" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="C19" s="85">
         <v>0.0</v>
@@ -41682,10 +41708,10 @@
     </row>
     <row r="20">
       <c r="A20" s="81" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B20" s="82" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C20" s="86">
         <v>0.0</v>
@@ -41699,10 +41725,10 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="78" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B21" s="79" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C21" s="85">
         <v>0.0</v>
@@ -41717,7 +41743,7 @@
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="81"/>
       <c r="B22" s="82" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="C22" s="86">
         <v>0.0</v>
@@ -41732,7 +41758,7 @@
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="78"/>
       <c r="B23" s="79" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C23" s="90">
         <v>0.0</v>

--- a/src/СКУД.xlsx
+++ b/src/СКУД.xlsx
@@ -5,7 +5,6 @@
   <sheets>
     <sheet state="visible" name="Модель угроз" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Нарушители" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Уровень защищенности" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Модель угроз'!$A$1:$P$1</definedName>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2567" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2520" uniqueCount="670">
   <si>
     <t>ID УБИ</t>
   </si>
@@ -2730,127 +2729,12 @@
   <si>
     <t xml:space="preserve">Предполагаемый класс СКЗИ, в случае применения СКЗИ для защиты персональных данных, согласно Приказу ФСБ РФ №378 от 10 июля 2014 года, определенный на основании обобщенных возможностей нарушителя. </t>
   </si>
-  <si>
-    <t>Структурно-функциональные характеристики информационной системы, условия ее эксплуатации</t>
-  </si>
-  <si>
-    <t>Уровень проектной защищенности</t>
-  </si>
-  <si>
-    <t>Категория</t>
-  </si>
-  <si>
-    <t>Показатель</t>
-  </si>
-  <si>
-    <t>Высокий</t>
-  </si>
-  <si>
-    <t>Средний</t>
-  </si>
-  <si>
-    <t>Низкий</t>
-  </si>
-  <si>
-    <t>По структуре информационной системы</t>
-  </si>
-  <si>
-    <t>Распределенная информационная система</t>
-  </si>
-  <si>
-    <t>По используемым информационным технологиям</t>
-  </si>
-  <si>
-    <t>Системы на основе виртуализации</t>
-  </si>
-  <si>
-    <t>Системы, реализующие облачные вычисления</t>
-  </si>
-  <si>
-    <t>Системы с технологиями беспроводного доступа</t>
-  </si>
-  <si>
-    <t>Грид-системы</t>
-  </si>
-  <si>
-    <t>По архитектуре информационной системы</t>
-  </si>
-  <si>
-    <t>Системы на основе тонкого клиента</t>
-  </si>
-  <si>
-    <t>Файл-серверные системы</t>
-  </si>
-  <si>
-    <t>Центры обработки данных</t>
-  </si>
-  <si>
-    <t>Системы с удаленным доступом пользователей</t>
-  </si>
-  <si>
-    <t>Использование разных типов операционных систем</t>
-  </si>
-  <si>
-    <t>Использование прикладных программ, независимых от операционных систем</t>
-  </si>
-  <si>
-    <t>Использование выделенных каналов связи</t>
-  </si>
-  <si>
-    <t>По наличию (отсутствию) взаимосвязей с иными информационными системами</t>
-  </si>
-  <si>
-    <t>Взаимодействующая с системами</t>
-  </si>
-  <si>
-    <t>По наличию (отсутствию) взаимосвязей (подключений) к сетям связи
-общего пользования</t>
-  </si>
-  <si>
-    <t>Подключенная</t>
-  </si>
-  <si>
-    <t>По размещению технических средств</t>
-  </si>
-  <si>
-    <t>Расположенные в пределах нескольких контролируемых зон</t>
-  </si>
-  <si>
-    <t>По режимам обработки информации</t>
-  </si>
-  <si>
-    <t>Многопользовательский</t>
-  </si>
-  <si>
-    <t>По режимам разграничения прав доступа</t>
-  </si>
-  <si>
-    <t>С разграничением</t>
-  </si>
-  <si>
-    <t>По режимам разделения функций по управлению информационной системой</t>
-  </si>
-  <si>
-    <t>Использование различных сетевых адресов</t>
-  </si>
-  <si>
-    <t>По подходам к сегментированию информационной системы</t>
-  </si>
-  <si>
-    <t>С сегментированием</t>
-  </si>
-  <si>
-    <t>Итог</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+  <fonts count="17">
     <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -2941,20 +2825,8 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2991,20 +2863,8 @@
         <bgColor rgb="FFF2DBDB"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8989EB"/>
-        <bgColor rgb="FF8989EB"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE8E7FC"/>
-        <bgColor rgb="FFE8E7FC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="2">
     <border/>
     <border>
       <left style="thin">
@@ -3020,158 +2880,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF4D5D2C"/>
-      </left>
-      <top style="double">
-        <color rgb="FF4D5D2C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4D5D2C"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF4D5D2C"/>
-      </right>
-      <top style="double">
-        <color rgb="FF4D5D2C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4D5D2C"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF4D5D2C"/>
-      </left>
-      <top style="double">
-        <color rgb="FF4D5D2C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4D5D2C"/>
-      </bottom>
-    </border>
-    <border>
-      <top style="double">
-        <color rgb="FF4D5D2C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4D5D2C"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="double">
-        <color rgb="FF4D5D2C"/>
-      </right>
-      <top style="double">
-        <color rgb="FF4D5D2C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4D5D2C"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF4D5D2C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4D5D2C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4D5D2C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4D5D2C"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF4D5D2C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4D5D2C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4D5D2C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4D5D2C"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF4D5D2C"/>
-      </left>
-      <right style="double">
-        <color rgb="FF4D5D2C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4D5D2C"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4D5D2C"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF4D5D2C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4D5D2C"/>
-      </right>
-      <bottom style="thin">
-        <color rgb="FF4D5D2C"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF4D5D2C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4D5D2C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4D5D2C"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF4D5D2C"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF4D5D2C"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF4D5D2C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4D5D2C"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF4D5D2C"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF4D5D2C"/>
-      </left>
-      <right style="double">
-        <color rgb="FF4D5D2C"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF4D5D2C"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF4D5D2C"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3376,90 +3089,6 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="7" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="7" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="7" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="7" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="10" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="8" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="9" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="8" fontId="0" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="8" fontId="0" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="13" fillId="8" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3518,10 +3147,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -41347,5339 +40972,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="81.71"/>
-    <col customWidth="1" min="2" max="2" width="84.71"/>
-    <col customWidth="1" min="3" max="3" width="27.43"/>
-    <col customWidth="1" min="4" max="4" width="24.0"/>
-    <col customWidth="1" min="5" max="5" width="26.14"/>
-    <col customWidth="1" min="6" max="6" width="8.86"/>
-    <col customWidth="1" min="7" max="26" width="10.0"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="21.0" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>670</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="70" t="s">
-        <v>671</v>
-      </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="74" t="s">
-        <v>672</v>
-      </c>
-      <c r="B2" s="75" t="s">
-        <v>673</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>674</v>
-      </c>
-      <c r="D2" s="76" t="s">
-        <v>675</v>
-      </c>
-      <c r="E2" s="77" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="78" t="s">
-        <v>677</v>
-      </c>
-      <c r="B3" s="79" t="s">
-        <v>678</v>
-      </c>
-      <c r="C3" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="D3" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="E3" s="80">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="81" t="s">
-        <v>679</v>
-      </c>
-      <c r="B4" s="82" t="s">
-        <v>680</v>
-      </c>
-      <c r="C4" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="D4" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="E4" s="83">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="78" t="s">
-        <v>679</v>
-      </c>
-      <c r="B5" s="79" t="s">
-        <v>681</v>
-      </c>
-      <c r="C5" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="D5" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="E5" s="80">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="81" t="s">
-        <v>679</v>
-      </c>
-      <c r="B6" s="82" t="s">
-        <v>682</v>
-      </c>
-      <c r="C6" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="D6" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="E6" s="83">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="78" t="s">
-        <v>679</v>
-      </c>
-      <c r="B7" s="79" t="s">
-        <v>683</v>
-      </c>
-      <c r="C7" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="D7" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="E7" s="80">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="81" t="s">
-        <v>684</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>685</v>
-      </c>
-      <c r="C8" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="D8" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="E8" s="83">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="78" t="s">
-        <v>684</v>
-      </c>
-      <c r="B9" s="79" t="s">
-        <v>686</v>
-      </c>
-      <c r="C9" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="D9" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="E9" s="80">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="81" t="s">
-        <v>684</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>687</v>
-      </c>
-      <c r="C10" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="D10" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="83">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="78" t="s">
-        <v>684</v>
-      </c>
-      <c r="B11" s="79" t="s">
-        <v>688</v>
-      </c>
-      <c r="C11" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="E11" s="80">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="81" t="s">
-        <v>684</v>
-      </c>
-      <c r="B12" s="82" t="s">
-        <v>689</v>
-      </c>
-      <c r="C12" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="E12" s="84">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="78" t="s">
-        <v>684</v>
-      </c>
-      <c r="B13" s="79" t="s">
-        <v>690</v>
-      </c>
-      <c r="C13" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="D13" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="E13" s="85">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="81" t="s">
-        <v>684</v>
-      </c>
-      <c r="B14" s="82" t="s">
-        <v>691</v>
-      </c>
-      <c r="C14" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="D14" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="E14" s="86">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="78" t="s">
-        <v>692</v>
-      </c>
-      <c r="B15" s="79" t="s">
-        <v>693</v>
-      </c>
-      <c r="C15" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="D15" s="80">
-        <v>0.0</v>
-      </c>
-      <c r="E15" s="85">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="81" t="s">
-        <v>694</v>
-      </c>
-      <c r="B16" s="82" t="s">
-        <v>695</v>
-      </c>
-      <c r="C16" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="D16" s="83">
-        <v>0.0</v>
-      </c>
-      <c r="E16" s="86">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="78" t="s">
-        <v>696</v>
-      </c>
-      <c r="B17" s="79" t="s">
-        <v>697</v>
-      </c>
-      <c r="C17" s="87">
-        <v>0.0</v>
-      </c>
-      <c r="D17" s="87">
-        <v>0.0</v>
-      </c>
-      <c r="E17" s="80">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="81" t="s">
-        <v>698</v>
-      </c>
-      <c r="B18" s="82" t="s">
-        <v>699</v>
-      </c>
-      <c r="C18" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="D18" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="E18" s="88">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="78" t="s">
-        <v>700</v>
-      </c>
-      <c r="B19" s="79" t="s">
-        <v>701</v>
-      </c>
-      <c r="C19" s="85">
-        <v>0.0</v>
-      </c>
-      <c r="D19" s="85">
-        <v>0.0</v>
-      </c>
-      <c r="E19" s="89">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="81" t="s">
-        <v>702</v>
-      </c>
-      <c r="B20" s="82" t="s">
-        <v>703</v>
-      </c>
-      <c r="C20" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="D20" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="88">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="78" t="s">
-        <v>704</v>
-      </c>
-      <c r="B21" s="79" t="s">
-        <v>705</v>
-      </c>
-      <c r="C21" s="85">
-        <v>0.0</v>
-      </c>
-      <c r="D21" s="85">
-        <v>0.0</v>
-      </c>
-      <c r="E21" s="89">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="81"/>
-      <c r="B22" s="82" t="s">
-        <v>706</v>
-      </c>
-      <c r="C22" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="D22" s="86">
-        <v>0.0</v>
-      </c>
-      <c r="E22" s="86">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="78"/>
-      <c r="B23" s="79" t="s">
-        <v>707</v>
-      </c>
-      <c r="C23" s="90">
-        <v>0.0</v>
-      </c>
-      <c r="D23" s="90">
-        <v>0.0</v>
-      </c>
-      <c r="E23" s="91">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="81"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="88"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="78"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="89"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="81"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="88"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="78"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="89"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="81"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="88"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="78"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="89"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="81"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="88"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="92"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="94"/>
-      <c r="E31" s="95"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="96"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="C50" s="97"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="C52" s="97"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="97"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="C54" s="97"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="C57" s="97"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="97"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="C58" s="97"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="97"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="C59" s="97"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="97"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="97"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="C61" s="97"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="C63" s="97"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="97"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="C64" s="97"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="97"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="C65" s="97"/>
-      <c r="D65" s="97"/>
-      <c r="E65" s="97"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="C66" s="97"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="C68" s="97"/>
-      <c r="D68" s="97"/>
-      <c r="E68" s="97"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="C69" s="97"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="97"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="C70" s="97"/>
-      <c r="D70" s="97"/>
-      <c r="E70" s="97"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="C71" s="97"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="97"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="C72" s="97"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="97"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="C73" s="97"/>
-      <c r="D73" s="97"/>
-      <c r="E73" s="97"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="C74" s="97"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="97"/>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="97"/>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="C76" s="97"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="97"/>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="C77" s="97"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="97"/>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="C80" s="97"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="97"/>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="C81" s="97"/>
-      <c r="D81" s="97"/>
-      <c r="E81" s="97"/>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="C82" s="97"/>
-      <c r="D82" s="97"/>
-      <c r="E82" s="97"/>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="C83" s="97"/>
-      <c r="D83" s="97"/>
-      <c r="E83" s="97"/>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="C84" s="97"/>
-      <c r="D84" s="97"/>
-      <c r="E84" s="97"/>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="C85" s="97"/>
-      <c r="D85" s="97"/>
-      <c r="E85" s="97"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="C86" s="97"/>
-      <c r="D86" s="97"/>
-      <c r="E86" s="97"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="C87" s="97"/>
-      <c r="D87" s="97"/>
-      <c r="E87" s="97"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="C88" s="97"/>
-      <c r="D88" s="97"/>
-      <c r="E88" s="97"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="C89" s="97"/>
-      <c r="D89" s="97"/>
-      <c r="E89" s="97"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="C90" s="97"/>
-      <c r="D90" s="97"/>
-      <c r="E90" s="97"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="C91" s="97"/>
-      <c r="D91" s="97"/>
-      <c r="E91" s="97"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="C92" s="97"/>
-      <c r="D92" s="97"/>
-      <c r="E92" s="97"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="C93" s="97"/>
-      <c r="D93" s="97"/>
-      <c r="E93" s="97"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="C94" s="97"/>
-      <c r="D94" s="97"/>
-      <c r="E94" s="97"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="C95" s="97"/>
-      <c r="D95" s="97"/>
-      <c r="E95" s="97"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="C96" s="97"/>
-      <c r="D96" s="97"/>
-      <c r="E96" s="97"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="C97" s="97"/>
-      <c r="D97" s="97"/>
-      <c r="E97" s="97"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="C98" s="97"/>
-      <c r="D98" s="97"/>
-      <c r="E98" s="97"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="C99" s="97"/>
-      <c r="D99" s="97"/>
-      <c r="E99" s="97"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="C100" s="97"/>
-      <c r="D100" s="97"/>
-      <c r="E100" s="97"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="C101" s="97"/>
-      <c r="D101" s="97"/>
-      <c r="E101" s="97"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="C102" s="97"/>
-      <c r="D102" s="97"/>
-      <c r="E102" s="97"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="C103" s="97"/>
-      <c r="D103" s="97"/>
-      <c r="E103" s="97"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="C104" s="97"/>
-      <c r="D104" s="97"/>
-      <c r="E104" s="97"/>
-    </row>
-    <row r="105" ht="15.75" customHeight="1">
-      <c r="C105" s="97"/>
-      <c r="D105" s="97"/>
-      <c r="E105" s="97"/>
-    </row>
-    <row r="106" ht="15.75" customHeight="1">
-      <c r="C106" s="97"/>
-      <c r="D106" s="97"/>
-      <c r="E106" s="97"/>
-    </row>
-    <row r="107" ht="15.75" customHeight="1">
-      <c r="C107" s="97"/>
-      <c r="D107" s="97"/>
-      <c r="E107" s="97"/>
-    </row>
-    <row r="108" ht="15.75" customHeight="1">
-      <c r="C108" s="97"/>
-      <c r="D108" s="97"/>
-      <c r="E108" s="97"/>
-    </row>
-    <row r="109" ht="15.75" customHeight="1">
-      <c r="C109" s="97"/>
-      <c r="D109" s="97"/>
-      <c r="E109" s="97"/>
-    </row>
-    <row r="110" ht="15.75" customHeight="1">
-      <c r="C110" s="97"/>
-      <c r="D110" s="97"/>
-      <c r="E110" s="97"/>
-    </row>
-    <row r="111" ht="15.75" customHeight="1">
-      <c r="C111" s="97"/>
-      <c r="D111" s="97"/>
-      <c r="E111" s="97"/>
-    </row>
-    <row r="112" ht="15.75" customHeight="1">
-      <c r="C112" s="97"/>
-      <c r="D112" s="97"/>
-      <c r="E112" s="97"/>
-    </row>
-    <row r="113" ht="15.75" customHeight="1">
-      <c r="C113" s="97"/>
-      <c r="D113" s="97"/>
-      <c r="E113" s="97"/>
-    </row>
-    <row r="114" ht="15.75" customHeight="1">
-      <c r="C114" s="97"/>
-      <c r="D114" s="97"/>
-      <c r="E114" s="97"/>
-    </row>
-    <row r="115" ht="15.75" customHeight="1">
-      <c r="C115" s="97"/>
-      <c r="D115" s="97"/>
-      <c r="E115" s="97"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="C116" s="97"/>
-      <c r="D116" s="97"/>
-      <c r="E116" s="97"/>
-    </row>
-    <row r="117" ht="15.75" customHeight="1">
-      <c r="C117" s="97"/>
-      <c r="D117" s="97"/>
-      <c r="E117" s="97"/>
-    </row>
-    <row r="118" ht="15.75" customHeight="1">
-      <c r="C118" s="97"/>
-      <c r="D118" s="97"/>
-      <c r="E118" s="97"/>
-    </row>
-    <row r="119" ht="15.75" customHeight="1">
-      <c r="C119" s="97"/>
-      <c r="D119" s="97"/>
-      <c r="E119" s="97"/>
-    </row>
-    <row r="120" ht="15.75" customHeight="1">
-      <c r="C120" s="97"/>
-      <c r="D120" s="97"/>
-      <c r="E120" s="97"/>
-    </row>
-    <row r="121" ht="15.75" customHeight="1">
-      <c r="C121" s="97"/>
-      <c r="D121" s="97"/>
-      <c r="E121" s="97"/>
-    </row>
-    <row r="122" ht="15.75" customHeight="1">
-      <c r="C122" s="97"/>
-      <c r="D122" s="97"/>
-      <c r="E122" s="97"/>
-    </row>
-    <row r="123" ht="15.75" customHeight="1">
-      <c r="C123" s="97"/>
-      <c r="D123" s="97"/>
-      <c r="E123" s="97"/>
-    </row>
-    <row r="124" ht="15.75" customHeight="1">
-      <c r="C124" s="97"/>
-      <c r="D124" s="97"/>
-      <c r="E124" s="97"/>
-    </row>
-    <row r="125" ht="15.75" customHeight="1">
-      <c r="C125" s="97"/>
-      <c r="D125" s="97"/>
-      <c r="E125" s="97"/>
-    </row>
-    <row r="126" ht="15.75" customHeight="1">
-      <c r="C126" s="97"/>
-      <c r="D126" s="97"/>
-      <c r="E126" s="97"/>
-    </row>
-    <row r="127" ht="15.75" customHeight="1">
-      <c r="C127" s="97"/>
-      <c r="D127" s="97"/>
-      <c r="E127" s="97"/>
-    </row>
-    <row r="128" ht="15.75" customHeight="1">
-      <c r="C128" s="97"/>
-      <c r="D128" s="97"/>
-      <c r="E128" s="97"/>
-    </row>
-    <row r="129" ht="15.75" customHeight="1">
-      <c r="C129" s="97"/>
-      <c r="D129" s="97"/>
-      <c r="E129" s="97"/>
-    </row>
-    <row r="130" ht="15.75" customHeight="1">
-      <c r="C130" s="97"/>
-      <c r="D130" s="97"/>
-      <c r="E130" s="97"/>
-    </row>
-    <row r="131" ht="15.75" customHeight="1">
-      <c r="C131" s="97"/>
-      <c r="D131" s="97"/>
-      <c r="E131" s="97"/>
-    </row>
-    <row r="132" ht="15.75" customHeight="1">
-      <c r="C132" s="97"/>
-      <c r="D132" s="97"/>
-      <c r="E132" s="97"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="C133" s="97"/>
-      <c r="D133" s="97"/>
-      <c r="E133" s="97"/>
-    </row>
-    <row r="134" ht="15.75" customHeight="1">
-      <c r="C134" s="97"/>
-      <c r="D134" s="97"/>
-      <c r="E134" s="97"/>
-    </row>
-    <row r="135" ht="15.75" customHeight="1">
-      <c r="C135" s="97"/>
-      <c r="D135" s="97"/>
-      <c r="E135" s="97"/>
-    </row>
-    <row r="136" ht="15.75" customHeight="1">
-      <c r="C136" s="97"/>
-      <c r="D136" s="97"/>
-      <c r="E136" s="97"/>
-    </row>
-    <row r="137" ht="15.75" customHeight="1">
-      <c r="C137" s="97"/>
-      <c r="D137" s="97"/>
-      <c r="E137" s="97"/>
-    </row>
-    <row r="138" ht="15.75" customHeight="1">
-      <c r="C138" s="97"/>
-      <c r="D138" s="97"/>
-      <c r="E138" s="97"/>
-    </row>
-    <row r="139" ht="15.75" customHeight="1">
-      <c r="C139" s="97"/>
-      <c r="D139" s="97"/>
-      <c r="E139" s="97"/>
-    </row>
-    <row r="140" ht="15.75" customHeight="1">
-      <c r="C140" s="97"/>
-      <c r="D140" s="97"/>
-      <c r="E140" s="97"/>
-    </row>
-    <row r="141" ht="15.75" customHeight="1">
-      <c r="C141" s="97"/>
-      <c r="D141" s="97"/>
-      <c r="E141" s="97"/>
-    </row>
-    <row r="142" ht="15.75" customHeight="1">
-      <c r="C142" s="97"/>
-      <c r="D142" s="97"/>
-      <c r="E142" s="97"/>
-    </row>
-    <row r="143" ht="15.75" customHeight="1">
-      <c r="C143" s="97"/>
-      <c r="D143" s="97"/>
-      <c r="E143" s="97"/>
-    </row>
-    <row r="144" ht="15.75" customHeight="1">
-      <c r="C144" s="97"/>
-      <c r="D144" s="97"/>
-      <c r="E144" s="97"/>
-    </row>
-    <row r="145" ht="15.75" customHeight="1">
-      <c r="C145" s="97"/>
-      <c r="D145" s="97"/>
-      <c r="E145" s="97"/>
-    </row>
-    <row r="146" ht="15.75" customHeight="1">
-      <c r="C146" s="97"/>
-      <c r="D146" s="97"/>
-      <c r="E146" s="97"/>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="C147" s="97"/>
-      <c r="D147" s="97"/>
-      <c r="E147" s="97"/>
-    </row>
-    <row r="148" ht="15.75" customHeight="1">
-      <c r="C148" s="97"/>
-      <c r="D148" s="97"/>
-      <c r="E148" s="97"/>
-    </row>
-    <row r="149" ht="15.75" customHeight="1">
-      <c r="C149" s="97"/>
-      <c r="D149" s="97"/>
-      <c r="E149" s="97"/>
-    </row>
-    <row r="150" ht="15.75" customHeight="1">
-      <c r="C150" s="97"/>
-      <c r="D150" s="97"/>
-      <c r="E150" s="97"/>
-    </row>
-    <row r="151" ht="15.75" customHeight="1">
-      <c r="C151" s="97"/>
-      <c r="D151" s="97"/>
-      <c r="E151" s="97"/>
-    </row>
-    <row r="152" ht="15.75" customHeight="1">
-      <c r="C152" s="97"/>
-      <c r="D152" s="97"/>
-      <c r="E152" s="97"/>
-    </row>
-    <row r="153" ht="15.75" customHeight="1">
-      <c r="C153" s="97"/>
-      <c r="D153" s="97"/>
-      <c r="E153" s="97"/>
-    </row>
-    <row r="154" ht="15.75" customHeight="1">
-      <c r="C154" s="97"/>
-      <c r="D154" s="97"/>
-      <c r="E154" s="97"/>
-    </row>
-    <row r="155" ht="15.75" customHeight="1">
-      <c r="C155" s="97"/>
-      <c r="D155" s="97"/>
-      <c r="E155" s="97"/>
-    </row>
-    <row r="156" ht="15.75" customHeight="1">
-      <c r="C156" s="97"/>
-      <c r="D156" s="97"/>
-      <c r="E156" s="97"/>
-    </row>
-    <row r="157" ht="15.75" customHeight="1">
-      <c r="C157" s="97"/>
-      <c r="D157" s="97"/>
-      <c r="E157" s="97"/>
-    </row>
-    <row r="158" ht="15.75" customHeight="1">
-      <c r="C158" s="97"/>
-      <c r="D158" s="97"/>
-      <c r="E158" s="97"/>
-    </row>
-    <row r="159" ht="15.75" customHeight="1">
-      <c r="C159" s="97"/>
-      <c r="D159" s="97"/>
-      <c r="E159" s="97"/>
-    </row>
-    <row r="160" ht="15.75" customHeight="1">
-      <c r="C160" s="97"/>
-      <c r="D160" s="97"/>
-      <c r="E160" s="97"/>
-    </row>
-    <row r="161" ht="15.75" customHeight="1">
-      <c r="C161" s="97"/>
-      <c r="D161" s="97"/>
-      <c r="E161" s="97"/>
-    </row>
-    <row r="162" ht="15.75" customHeight="1">
-      <c r="C162" s="97"/>
-      <c r="D162" s="97"/>
-      <c r="E162" s="97"/>
-    </row>
-    <row r="163" ht="15.75" customHeight="1">
-      <c r="C163" s="97"/>
-      <c r="D163" s="97"/>
-      <c r="E163" s="97"/>
-    </row>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="C164" s="97"/>
-      <c r="D164" s="97"/>
-      <c r="E164" s="97"/>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="C165" s="97"/>
-      <c r="D165" s="97"/>
-      <c r="E165" s="97"/>
-    </row>
-    <row r="166" ht="15.75" customHeight="1">
-      <c r="C166" s="97"/>
-      <c r="D166" s="97"/>
-      <c r="E166" s="97"/>
-    </row>
-    <row r="167" ht="15.75" customHeight="1">
-      <c r="C167" s="97"/>
-      <c r="D167" s="97"/>
-      <c r="E167" s="97"/>
-    </row>
-    <row r="168" ht="15.75" customHeight="1">
-      <c r="C168" s="97"/>
-      <c r="D168" s="97"/>
-      <c r="E168" s="97"/>
-    </row>
-    <row r="169" ht="15.75" customHeight="1">
-      <c r="C169" s="97"/>
-      <c r="D169" s="97"/>
-      <c r="E169" s="97"/>
-    </row>
-    <row r="170" ht="15.75" customHeight="1">
-      <c r="C170" s="97"/>
-      <c r="D170" s="97"/>
-      <c r="E170" s="97"/>
-    </row>
-    <row r="171" ht="15.75" customHeight="1">
-      <c r="C171" s="97"/>
-      <c r="D171" s="97"/>
-      <c r="E171" s="97"/>
-    </row>
-    <row r="172" ht="15.75" customHeight="1">
-      <c r="C172" s="97"/>
-      <c r="D172" s="97"/>
-      <c r="E172" s="97"/>
-    </row>
-    <row r="173" ht="15.75" customHeight="1">
-      <c r="C173" s="97"/>
-      <c r="D173" s="97"/>
-      <c r="E173" s="97"/>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
-      <c r="C174" s="97"/>
-      <c r="D174" s="97"/>
-      <c r="E174" s="97"/>
-    </row>
-    <row r="175" ht="15.75" customHeight="1">
-      <c r="C175" s="97"/>
-      <c r="D175" s="97"/>
-      <c r="E175" s="97"/>
-    </row>
-    <row r="176" ht="15.75" customHeight="1">
-      <c r="C176" s="97"/>
-      <c r="D176" s="97"/>
-      <c r="E176" s="97"/>
-    </row>
-    <row r="177" ht="15.75" customHeight="1">
-      <c r="C177" s="97"/>
-      <c r="D177" s="97"/>
-      <c r="E177" s="97"/>
-    </row>
-    <row r="178" ht="15.75" customHeight="1">
-      <c r="C178" s="97"/>
-      <c r="D178" s="97"/>
-      <c r="E178" s="97"/>
-    </row>
-    <row r="179" ht="15.75" customHeight="1">
-      <c r="C179" s="97"/>
-      <c r="D179" s="97"/>
-      <c r="E179" s="97"/>
-    </row>
-    <row r="180" ht="15.75" customHeight="1">
-      <c r="C180" s="97"/>
-      <c r="D180" s="97"/>
-      <c r="E180" s="97"/>
-    </row>
-    <row r="181" ht="15.75" customHeight="1">
-      <c r="C181" s="97"/>
-      <c r="D181" s="97"/>
-      <c r="E181" s="97"/>
-    </row>
-    <row r="182" ht="15.75" customHeight="1">
-      <c r="C182" s="97"/>
-      <c r="D182" s="97"/>
-      <c r="E182" s="97"/>
-    </row>
-    <row r="183" ht="15.75" customHeight="1">
-      <c r="C183" s="97"/>
-      <c r="D183" s="97"/>
-      <c r="E183" s="97"/>
-    </row>
-    <row r="184" ht="15.75" customHeight="1">
-      <c r="C184" s="97"/>
-      <c r="D184" s="97"/>
-      <c r="E184" s="97"/>
-    </row>
-    <row r="185" ht="15.75" customHeight="1">
-      <c r="C185" s="97"/>
-      <c r="D185" s="97"/>
-      <c r="E185" s="97"/>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="C186" s="97"/>
-      <c r="D186" s="97"/>
-      <c r="E186" s="97"/>
-    </row>
-    <row r="187" ht="15.75" customHeight="1">
-      <c r="C187" s="97"/>
-      <c r="D187" s="97"/>
-      <c r="E187" s="97"/>
-    </row>
-    <row r="188" ht="15.75" customHeight="1">
-      <c r="C188" s="97"/>
-      <c r="D188" s="97"/>
-      <c r="E188" s="97"/>
-    </row>
-    <row r="189" ht="15.75" customHeight="1">
-      <c r="C189" s="97"/>
-      <c r="D189" s="97"/>
-      <c r="E189" s="97"/>
-    </row>
-    <row r="190" ht="15.75" customHeight="1">
-      <c r="C190" s="97"/>
-      <c r="D190" s="97"/>
-      <c r="E190" s="97"/>
-    </row>
-    <row r="191" ht="15.75" customHeight="1">
-      <c r="C191" s="97"/>
-      <c r="D191" s="97"/>
-      <c r="E191" s="97"/>
-    </row>
-    <row r="192" ht="15.75" customHeight="1">
-      <c r="C192" s="97"/>
-      <c r="D192" s="97"/>
-      <c r="E192" s="97"/>
-    </row>
-    <row r="193" ht="15.75" customHeight="1">
-      <c r="C193" s="97"/>
-      <c r="D193" s="97"/>
-      <c r="E193" s="97"/>
-    </row>
-    <row r="194" ht="15.75" customHeight="1">
-      <c r="C194" s="97"/>
-      <c r="D194" s="97"/>
-      <c r="E194" s="97"/>
-    </row>
-    <row r="195" ht="15.75" customHeight="1">
-      <c r="C195" s="97"/>
-      <c r="D195" s="97"/>
-      <c r="E195" s="97"/>
-    </row>
-    <row r="196" ht="15.75" customHeight="1">
-      <c r="C196" s="97"/>
-      <c r="D196" s="97"/>
-      <c r="E196" s="97"/>
-    </row>
-    <row r="197" ht="15.75" customHeight="1">
-      <c r="C197" s="97"/>
-      <c r="D197" s="97"/>
-      <c r="E197" s="97"/>
-    </row>
-    <row r="198" ht="15.75" customHeight="1">
-      <c r="C198" s="97"/>
-      <c r="D198" s="97"/>
-      <c r="E198" s="97"/>
-    </row>
-    <row r="199" ht="15.75" customHeight="1">
-      <c r="C199" s="97"/>
-      <c r="D199" s="97"/>
-      <c r="E199" s="97"/>
-    </row>
-    <row r="200" ht="15.75" customHeight="1">
-      <c r="C200" s="97"/>
-      <c r="D200" s="97"/>
-      <c r="E200" s="97"/>
-    </row>
-    <row r="201" ht="15.75" customHeight="1">
-      <c r="C201" s="97"/>
-      <c r="D201" s="97"/>
-      <c r="E201" s="97"/>
-    </row>
-    <row r="202" ht="15.75" customHeight="1">
-      <c r="C202" s="97"/>
-      <c r="D202" s="97"/>
-      <c r="E202" s="97"/>
-    </row>
-    <row r="203" ht="15.75" customHeight="1">
-      <c r="C203" s="97"/>
-      <c r="D203" s="97"/>
-      <c r="E203" s="97"/>
-    </row>
-    <row r="204" ht="15.75" customHeight="1">
-      <c r="C204" s="97"/>
-      <c r="D204" s="97"/>
-      <c r="E204" s="97"/>
-    </row>
-    <row r="205" ht="15.75" customHeight="1">
-      <c r="C205" s="97"/>
-      <c r="D205" s="97"/>
-      <c r="E205" s="97"/>
-    </row>
-    <row r="206" ht="15.75" customHeight="1">
-      <c r="C206" s="97"/>
-      <c r="D206" s="97"/>
-      <c r="E206" s="97"/>
-    </row>
-    <row r="207" ht="15.75" customHeight="1">
-      <c r="C207" s="97"/>
-      <c r="D207" s="97"/>
-      <c r="E207" s="97"/>
-    </row>
-    <row r="208" ht="15.75" customHeight="1">
-      <c r="C208" s="97"/>
-      <c r="D208" s="97"/>
-      <c r="E208" s="97"/>
-    </row>
-    <row r="209" ht="15.75" customHeight="1">
-      <c r="C209" s="97"/>
-      <c r="D209" s="97"/>
-      <c r="E209" s="97"/>
-    </row>
-    <row r="210" ht="15.75" customHeight="1">
-      <c r="C210" s="97"/>
-      <c r="D210" s="97"/>
-      <c r="E210" s="97"/>
-    </row>
-    <row r="211" ht="15.75" customHeight="1">
-      <c r="C211" s="97"/>
-      <c r="D211" s="97"/>
-      <c r="E211" s="97"/>
-    </row>
-    <row r="212" ht="15.75" customHeight="1">
-      <c r="C212" s="97"/>
-      <c r="D212" s="97"/>
-      <c r="E212" s="97"/>
-    </row>
-    <row r="213" ht="15.75" customHeight="1">
-      <c r="C213" s="97"/>
-      <c r="D213" s="97"/>
-      <c r="E213" s="97"/>
-    </row>
-    <row r="214" ht="15.75" customHeight="1">
-      <c r="C214" s="97"/>
-      <c r="D214" s="97"/>
-      <c r="E214" s="97"/>
-    </row>
-    <row r="215" ht="15.75" customHeight="1">
-      <c r="C215" s="97"/>
-      <c r="D215" s="97"/>
-      <c r="E215" s="97"/>
-    </row>
-    <row r="216" ht="15.75" customHeight="1">
-      <c r="C216" s="97"/>
-      <c r="D216" s="97"/>
-      <c r="E216" s="97"/>
-    </row>
-    <row r="217" ht="15.75" customHeight="1">
-      <c r="C217" s="97"/>
-      <c r="D217" s="97"/>
-      <c r="E217" s="97"/>
-    </row>
-    <row r="218" ht="15.75" customHeight="1">
-      <c r="C218" s="97"/>
-      <c r="D218" s="97"/>
-      <c r="E218" s="97"/>
-    </row>
-    <row r="219" ht="15.75" customHeight="1">
-      <c r="C219" s="97"/>
-      <c r="D219" s="97"/>
-      <c r="E219" s="97"/>
-    </row>
-    <row r="220" ht="15.75" customHeight="1">
-      <c r="C220" s="97"/>
-      <c r="D220" s="97"/>
-      <c r="E220" s="97"/>
-    </row>
-    <row r="221" ht="15.75" customHeight="1">
-      <c r="C221" s="97"/>
-      <c r="D221" s="97"/>
-      <c r="E221" s="97"/>
-    </row>
-    <row r="222" ht="15.75" customHeight="1">
-      <c r="C222" s="97"/>
-      <c r="D222" s="97"/>
-      <c r="E222" s="97"/>
-    </row>
-    <row r="223" ht="15.75" customHeight="1">
-      <c r="C223" s="97"/>
-      <c r="D223" s="97"/>
-      <c r="E223" s="97"/>
-    </row>
-    <row r="224" ht="15.75" customHeight="1">
-      <c r="C224" s="97"/>
-      <c r="D224" s="97"/>
-      <c r="E224" s="97"/>
-    </row>
-    <row r="225" ht="15.75" customHeight="1">
-      <c r="C225" s="97"/>
-      <c r="D225" s="97"/>
-      <c r="E225" s="97"/>
-    </row>
-    <row r="226" ht="15.75" customHeight="1">
-      <c r="C226" s="97"/>
-      <c r="D226" s="97"/>
-      <c r="E226" s="97"/>
-    </row>
-    <row r="227" ht="15.75" customHeight="1">
-      <c r="C227" s="97"/>
-      <c r="D227" s="97"/>
-      <c r="E227" s="97"/>
-    </row>
-    <row r="228" ht="15.75" customHeight="1">
-      <c r="C228" s="97"/>
-      <c r="D228" s="97"/>
-      <c r="E228" s="97"/>
-    </row>
-    <row r="229" ht="15.75" customHeight="1">
-      <c r="C229" s="97"/>
-      <c r="D229" s="97"/>
-      <c r="E229" s="97"/>
-    </row>
-    <row r="230" ht="15.75" customHeight="1">
-      <c r="C230" s="97"/>
-      <c r="D230" s="97"/>
-      <c r="E230" s="97"/>
-    </row>
-    <row r="231" ht="15.75" customHeight="1">
-      <c r="C231" s="97"/>
-      <c r="D231" s="97"/>
-      <c r="E231" s="97"/>
-    </row>
-    <row r="232" ht="15.75" customHeight="1">
-      <c r="C232" s="97"/>
-      <c r="D232" s="97"/>
-      <c r="E232" s="97"/>
-    </row>
-    <row r="233" ht="15.75" customHeight="1">
-      <c r="C233" s="97"/>
-      <c r="D233" s="97"/>
-      <c r="E233" s="97"/>
-    </row>
-    <row r="234" ht="15.75" customHeight="1">
-      <c r="C234" s="97"/>
-      <c r="D234" s="97"/>
-      <c r="E234" s="97"/>
-    </row>
-    <row r="235" ht="15.75" customHeight="1">
-      <c r="C235" s="97"/>
-      <c r="D235" s="97"/>
-      <c r="E235" s="97"/>
-    </row>
-    <row r="236" ht="15.75" customHeight="1">
-      <c r="C236" s="97"/>
-      <c r="D236" s="97"/>
-      <c r="E236" s="97"/>
-    </row>
-    <row r="237" ht="15.75" customHeight="1">
-      <c r="C237" s="97"/>
-      <c r="D237" s="97"/>
-      <c r="E237" s="97"/>
-    </row>
-    <row r="238" ht="15.75" customHeight="1">
-      <c r="C238" s="97"/>
-      <c r="D238" s="97"/>
-      <c r="E238" s="97"/>
-    </row>
-    <row r="239" ht="15.75" customHeight="1">
-      <c r="C239" s="97"/>
-      <c r="D239" s="97"/>
-      <c r="E239" s="97"/>
-    </row>
-    <row r="240" ht="15.75" customHeight="1">
-      <c r="C240" s="97"/>
-      <c r="D240" s="97"/>
-      <c r="E240" s="97"/>
-    </row>
-    <row r="241" ht="15.75" customHeight="1">
-      <c r="C241" s="97"/>
-      <c r="D241" s="97"/>
-      <c r="E241" s="97"/>
-    </row>
-    <row r="242" ht="15.75" customHeight="1">
-      <c r="C242" s="97"/>
-      <c r="D242" s="97"/>
-      <c r="E242" s="97"/>
-    </row>
-    <row r="243" ht="15.75" customHeight="1">
-      <c r="C243" s="97"/>
-      <c r="D243" s="97"/>
-      <c r="E243" s="97"/>
-    </row>
-    <row r="244" ht="15.75" customHeight="1">
-      <c r="C244" s="97"/>
-      <c r="D244" s="97"/>
-      <c r="E244" s="97"/>
-    </row>
-    <row r="245" ht="15.75" customHeight="1">
-      <c r="C245" s="97"/>
-      <c r="D245" s="97"/>
-      <c r="E245" s="97"/>
-    </row>
-    <row r="246" ht="15.75" customHeight="1">
-      <c r="C246" s="97"/>
-      <c r="D246" s="97"/>
-      <c r="E246" s="97"/>
-    </row>
-    <row r="247" ht="15.75" customHeight="1">
-      <c r="C247" s="97"/>
-      <c r="D247" s="97"/>
-      <c r="E247" s="97"/>
-    </row>
-    <row r="248" ht="15.75" customHeight="1">
-      <c r="C248" s="97"/>
-      <c r="D248" s="97"/>
-      <c r="E248" s="97"/>
-    </row>
-    <row r="249" ht="15.75" customHeight="1">
-      <c r="C249" s="97"/>
-      <c r="D249" s="97"/>
-      <c r="E249" s="97"/>
-    </row>
-    <row r="250" ht="15.75" customHeight="1">
-      <c r="C250" s="97"/>
-      <c r="D250" s="97"/>
-      <c r="E250" s="97"/>
-    </row>
-    <row r="251" ht="15.75" customHeight="1">
-      <c r="C251" s="97"/>
-      <c r="D251" s="97"/>
-      <c r="E251" s="97"/>
-    </row>
-    <row r="252" ht="15.75" customHeight="1">
-      <c r="C252" s="97"/>
-      <c r="D252" s="97"/>
-      <c r="E252" s="97"/>
-    </row>
-    <row r="253" ht="15.75" customHeight="1">
-      <c r="C253" s="97"/>
-      <c r="D253" s="97"/>
-      <c r="E253" s="97"/>
-    </row>
-    <row r="254" ht="15.75" customHeight="1">
-      <c r="C254" s="97"/>
-      <c r="D254" s="97"/>
-      <c r="E254" s="97"/>
-    </row>
-    <row r="255" ht="15.75" customHeight="1">
-      <c r="C255" s="97"/>
-      <c r="D255" s="97"/>
-      <c r="E255" s="97"/>
-    </row>
-    <row r="256" ht="15.75" customHeight="1">
-      <c r="C256" s="97"/>
-      <c r="D256" s="97"/>
-      <c r="E256" s="97"/>
-    </row>
-    <row r="257" ht="15.75" customHeight="1">
-      <c r="C257" s="97"/>
-      <c r="D257" s="97"/>
-      <c r="E257" s="97"/>
-    </row>
-    <row r="258" ht="15.75" customHeight="1">
-      <c r="C258" s="97"/>
-      <c r="D258" s="97"/>
-      <c r="E258" s="97"/>
-    </row>
-    <row r="259" ht="15.75" customHeight="1">
-      <c r="C259" s="97"/>
-      <c r="D259" s="97"/>
-      <c r="E259" s="97"/>
-    </row>
-    <row r="260" ht="15.75" customHeight="1">
-      <c r="C260" s="97"/>
-      <c r="D260" s="97"/>
-      <c r="E260" s="97"/>
-    </row>
-    <row r="261" ht="15.75" customHeight="1">
-      <c r="C261" s="97"/>
-      <c r="D261" s="97"/>
-      <c r="E261" s="97"/>
-    </row>
-    <row r="262" ht="15.75" customHeight="1">
-      <c r="C262" s="97"/>
-      <c r="D262" s="97"/>
-      <c r="E262" s="97"/>
-    </row>
-    <row r="263" ht="15.75" customHeight="1">
-      <c r="C263" s="97"/>
-      <c r="D263" s="97"/>
-      <c r="E263" s="97"/>
-    </row>
-    <row r="264" ht="15.75" customHeight="1">
-      <c r="C264" s="97"/>
-      <c r="D264" s="97"/>
-      <c r="E264" s="97"/>
-    </row>
-    <row r="265" ht="15.75" customHeight="1">
-      <c r="C265" s="97"/>
-      <c r="D265" s="97"/>
-      <c r="E265" s="97"/>
-    </row>
-    <row r="266" ht="15.75" customHeight="1">
-      <c r="C266" s="97"/>
-      <c r="D266" s="97"/>
-      <c r="E266" s="97"/>
-    </row>
-    <row r="267" ht="15.75" customHeight="1">
-      <c r="C267" s="97"/>
-      <c r="D267" s="97"/>
-      <c r="E267" s="97"/>
-    </row>
-    <row r="268" ht="15.75" customHeight="1">
-      <c r="C268" s="97"/>
-      <c r="D268" s="97"/>
-      <c r="E268" s="97"/>
-    </row>
-    <row r="269" ht="15.75" customHeight="1">
-      <c r="C269" s="97"/>
-      <c r="D269" s="97"/>
-      <c r="E269" s="97"/>
-    </row>
-    <row r="270" ht="15.75" customHeight="1">
-      <c r="C270" s="97"/>
-      <c r="D270" s="97"/>
-      <c r="E270" s="97"/>
-    </row>
-    <row r="271" ht="15.75" customHeight="1">
-      <c r="C271" s="97"/>
-      <c r="D271" s="97"/>
-      <c r="E271" s="97"/>
-    </row>
-    <row r="272" ht="15.75" customHeight="1">
-      <c r="C272" s="97"/>
-      <c r="D272" s="97"/>
-      <c r="E272" s="97"/>
-    </row>
-    <row r="273" ht="15.75" customHeight="1">
-      <c r="C273" s="97"/>
-      <c r="D273" s="97"/>
-      <c r="E273" s="97"/>
-    </row>
-    <row r="274" ht="15.75" customHeight="1">
-      <c r="C274" s="97"/>
-      <c r="D274" s="97"/>
-      <c r="E274" s="97"/>
-    </row>
-    <row r="275" ht="15.75" customHeight="1">
-      <c r="C275" s="97"/>
-      <c r="D275" s="97"/>
-      <c r="E275" s="97"/>
-    </row>
-    <row r="276" ht="15.75" customHeight="1">
-      <c r="C276" s="97"/>
-      <c r="D276" s="97"/>
-      <c r="E276" s="97"/>
-    </row>
-    <row r="277" ht="15.75" customHeight="1">
-      <c r="C277" s="97"/>
-      <c r="D277" s="97"/>
-      <c r="E277" s="97"/>
-    </row>
-    <row r="278" ht="15.75" customHeight="1">
-      <c r="C278" s="97"/>
-      <c r="D278" s="97"/>
-      <c r="E278" s="97"/>
-    </row>
-    <row r="279" ht="15.75" customHeight="1">
-      <c r="C279" s="97"/>
-      <c r="D279" s="97"/>
-      <c r="E279" s="97"/>
-    </row>
-    <row r="280" ht="15.75" customHeight="1">
-      <c r="C280" s="97"/>
-      <c r="D280" s="97"/>
-      <c r="E280" s="97"/>
-    </row>
-    <row r="281" ht="15.75" customHeight="1">
-      <c r="C281" s="97"/>
-      <c r="D281" s="97"/>
-      <c r="E281" s="97"/>
-    </row>
-    <row r="282" ht="15.75" customHeight="1">
-      <c r="C282" s="97"/>
-      <c r="D282" s="97"/>
-      <c r="E282" s="97"/>
-    </row>
-    <row r="283" ht="15.75" customHeight="1">
-      <c r="C283" s="97"/>
-      <c r="D283" s="97"/>
-      <c r="E283" s="97"/>
-    </row>
-    <row r="284" ht="15.75" customHeight="1">
-      <c r="C284" s="97"/>
-      <c r="D284" s="97"/>
-      <c r="E284" s="97"/>
-    </row>
-    <row r="285" ht="15.75" customHeight="1">
-      <c r="C285" s="97"/>
-      <c r="D285" s="97"/>
-      <c r="E285" s="97"/>
-    </row>
-    <row r="286" ht="15.75" customHeight="1">
-      <c r="C286" s="97"/>
-      <c r="D286" s="97"/>
-      <c r="E286" s="97"/>
-    </row>
-    <row r="287" ht="15.75" customHeight="1">
-      <c r="C287" s="97"/>
-      <c r="D287" s="97"/>
-      <c r="E287" s="97"/>
-    </row>
-    <row r="288" ht="15.75" customHeight="1">
-      <c r="C288" s="97"/>
-      <c r="D288" s="97"/>
-      <c r="E288" s="97"/>
-    </row>
-    <row r="289" ht="15.75" customHeight="1">
-      <c r="C289" s="97"/>
-      <c r="D289" s="97"/>
-      <c r="E289" s="97"/>
-    </row>
-    <row r="290" ht="15.75" customHeight="1">
-      <c r="C290" s="97"/>
-      <c r="D290" s="97"/>
-      <c r="E290" s="97"/>
-    </row>
-    <row r="291" ht="15.75" customHeight="1">
-      <c r="C291" s="97"/>
-      <c r="D291" s="97"/>
-      <c r="E291" s="97"/>
-    </row>
-    <row r="292" ht="15.75" customHeight="1">
-      <c r="C292" s="97"/>
-      <c r="D292" s="97"/>
-      <c r="E292" s="97"/>
-    </row>
-    <row r="293" ht="15.75" customHeight="1">
-      <c r="C293" s="97"/>
-      <c r="D293" s="97"/>
-      <c r="E293" s="97"/>
-    </row>
-    <row r="294" ht="15.75" customHeight="1">
-      <c r="C294" s="97"/>
-      <c r="D294" s="97"/>
-      <c r="E294" s="97"/>
-    </row>
-    <row r="295" ht="15.75" customHeight="1">
-      <c r="C295" s="97"/>
-      <c r="D295" s="97"/>
-      <c r="E295" s="97"/>
-    </row>
-    <row r="296" ht="15.75" customHeight="1">
-      <c r="C296" s="97"/>
-      <c r="D296" s="97"/>
-      <c r="E296" s="97"/>
-    </row>
-    <row r="297" ht="15.75" customHeight="1">
-      <c r="C297" s="97"/>
-      <c r="D297" s="97"/>
-      <c r="E297" s="97"/>
-    </row>
-    <row r="298" ht="15.75" customHeight="1">
-      <c r="C298" s="97"/>
-      <c r="D298" s="97"/>
-      <c r="E298" s="97"/>
-    </row>
-    <row r="299" ht="15.75" customHeight="1">
-      <c r="C299" s="97"/>
-      <c r="D299" s="97"/>
-      <c r="E299" s="97"/>
-    </row>
-    <row r="300" ht="15.75" customHeight="1">
-      <c r="C300" s="97"/>
-      <c r="D300" s="97"/>
-      <c r="E300" s="97"/>
-    </row>
-    <row r="301" ht="15.75" customHeight="1">
-      <c r="C301" s="97"/>
-      <c r="D301" s="97"/>
-      <c r="E301" s="97"/>
-    </row>
-    <row r="302" ht="15.75" customHeight="1">
-      <c r="C302" s="97"/>
-      <c r="D302" s="97"/>
-      <c r="E302" s="97"/>
-    </row>
-    <row r="303" ht="15.75" customHeight="1">
-      <c r="C303" s="97"/>
-      <c r="D303" s="97"/>
-      <c r="E303" s="97"/>
-    </row>
-    <row r="304" ht="15.75" customHeight="1">
-      <c r="C304" s="97"/>
-      <c r="D304" s="97"/>
-      <c r="E304" s="97"/>
-    </row>
-    <row r="305" ht="15.75" customHeight="1">
-      <c r="C305" s="97"/>
-      <c r="D305" s="97"/>
-      <c r="E305" s="97"/>
-    </row>
-    <row r="306" ht="15.75" customHeight="1">
-      <c r="C306" s="97"/>
-      <c r="D306" s="97"/>
-      <c r="E306" s="97"/>
-    </row>
-    <row r="307" ht="15.75" customHeight="1">
-      <c r="C307" s="97"/>
-      <c r="D307" s="97"/>
-      <c r="E307" s="97"/>
-    </row>
-    <row r="308" ht="15.75" customHeight="1">
-      <c r="C308" s="97"/>
-      <c r="D308" s="97"/>
-      <c r="E308" s="97"/>
-    </row>
-    <row r="309" ht="15.75" customHeight="1">
-      <c r="C309" s="97"/>
-      <c r="D309" s="97"/>
-      <c r="E309" s="97"/>
-    </row>
-    <row r="310" ht="15.75" customHeight="1">
-      <c r="C310" s="97"/>
-      <c r="D310" s="97"/>
-      <c r="E310" s="97"/>
-    </row>
-    <row r="311" ht="15.75" customHeight="1">
-      <c r="C311" s="97"/>
-      <c r="D311" s="97"/>
-      <c r="E311" s="97"/>
-    </row>
-    <row r="312" ht="15.75" customHeight="1">
-      <c r="C312" s="97"/>
-      <c r="D312" s="97"/>
-      <c r="E312" s="97"/>
-    </row>
-    <row r="313" ht="15.75" customHeight="1">
-      <c r="C313" s="97"/>
-      <c r="D313" s="97"/>
-      <c r="E313" s="97"/>
-    </row>
-    <row r="314" ht="15.75" customHeight="1">
-      <c r="C314" s="97"/>
-      <c r="D314" s="97"/>
-      <c r="E314" s="97"/>
-    </row>
-    <row r="315" ht="15.75" customHeight="1">
-      <c r="C315" s="97"/>
-      <c r="D315" s="97"/>
-      <c r="E315" s="97"/>
-    </row>
-    <row r="316" ht="15.75" customHeight="1">
-      <c r="C316" s="97"/>
-      <c r="D316" s="97"/>
-      <c r="E316" s="97"/>
-    </row>
-    <row r="317" ht="15.75" customHeight="1">
-      <c r="C317" s="97"/>
-      <c r="D317" s="97"/>
-      <c r="E317" s="97"/>
-    </row>
-    <row r="318" ht="15.75" customHeight="1">
-      <c r="C318" s="97"/>
-      <c r="D318" s="97"/>
-      <c r="E318" s="97"/>
-    </row>
-    <row r="319" ht="15.75" customHeight="1">
-      <c r="C319" s="97"/>
-      <c r="D319" s="97"/>
-      <c r="E319" s="97"/>
-    </row>
-    <row r="320" ht="15.75" customHeight="1">
-      <c r="C320" s="97"/>
-      <c r="D320" s="97"/>
-      <c r="E320" s="97"/>
-    </row>
-    <row r="321" ht="15.75" customHeight="1">
-      <c r="C321" s="97"/>
-      <c r="D321" s="97"/>
-      <c r="E321" s="97"/>
-    </row>
-    <row r="322" ht="15.75" customHeight="1">
-      <c r="C322" s="97"/>
-      <c r="D322" s="97"/>
-      <c r="E322" s="97"/>
-    </row>
-    <row r="323" ht="15.75" customHeight="1">
-      <c r="C323" s="97"/>
-      <c r="D323" s="97"/>
-      <c r="E323" s="97"/>
-    </row>
-    <row r="324" ht="15.75" customHeight="1">
-      <c r="C324" s="97"/>
-      <c r="D324" s="97"/>
-      <c r="E324" s="97"/>
-    </row>
-    <row r="325" ht="15.75" customHeight="1">
-      <c r="C325" s="97"/>
-      <c r="D325" s="97"/>
-      <c r="E325" s="97"/>
-    </row>
-    <row r="326" ht="15.75" customHeight="1">
-      <c r="C326" s="97"/>
-      <c r="D326" s="97"/>
-      <c r="E326" s="97"/>
-    </row>
-    <row r="327" ht="15.75" customHeight="1">
-      <c r="C327" s="97"/>
-      <c r="D327" s="97"/>
-      <c r="E327" s="97"/>
-    </row>
-    <row r="328" ht="15.75" customHeight="1">
-      <c r="C328" s="97"/>
-      <c r="D328" s="97"/>
-      <c r="E328" s="97"/>
-    </row>
-    <row r="329" ht="15.75" customHeight="1">
-      <c r="C329" s="97"/>
-      <c r="D329" s="97"/>
-      <c r="E329" s="97"/>
-    </row>
-    <row r="330" ht="15.75" customHeight="1">
-      <c r="C330" s="97"/>
-      <c r="D330" s="97"/>
-      <c r="E330" s="97"/>
-    </row>
-    <row r="331" ht="15.75" customHeight="1">
-      <c r="C331" s="97"/>
-      <c r="D331" s="97"/>
-      <c r="E331" s="97"/>
-    </row>
-    <row r="332" ht="15.75" customHeight="1">
-      <c r="C332" s="97"/>
-      <c r="D332" s="97"/>
-      <c r="E332" s="97"/>
-    </row>
-    <row r="333" ht="15.75" customHeight="1">
-      <c r="C333" s="97"/>
-      <c r="D333" s="97"/>
-      <c r="E333" s="97"/>
-    </row>
-    <row r="334" ht="15.75" customHeight="1">
-      <c r="C334" s="97"/>
-      <c r="D334" s="97"/>
-      <c r="E334" s="97"/>
-    </row>
-    <row r="335" ht="15.75" customHeight="1">
-      <c r="C335" s="97"/>
-      <c r="D335" s="97"/>
-      <c r="E335" s="97"/>
-    </row>
-    <row r="336" ht="15.75" customHeight="1">
-      <c r="C336" s="97"/>
-      <c r="D336" s="97"/>
-      <c r="E336" s="97"/>
-    </row>
-    <row r="337" ht="15.75" customHeight="1">
-      <c r="C337" s="97"/>
-      <c r="D337" s="97"/>
-      <c r="E337" s="97"/>
-    </row>
-    <row r="338" ht="15.75" customHeight="1">
-      <c r="C338" s="97"/>
-      <c r="D338" s="97"/>
-      <c r="E338" s="97"/>
-    </row>
-    <row r="339" ht="15.75" customHeight="1">
-      <c r="C339" s="97"/>
-      <c r="D339" s="97"/>
-      <c r="E339" s="97"/>
-    </row>
-    <row r="340" ht="15.75" customHeight="1">
-      <c r="C340" s="97"/>
-      <c r="D340" s="97"/>
-      <c r="E340" s="97"/>
-    </row>
-    <row r="341" ht="15.75" customHeight="1">
-      <c r="C341" s="97"/>
-      <c r="D341" s="97"/>
-      <c r="E341" s="97"/>
-    </row>
-    <row r="342" ht="15.75" customHeight="1">
-      <c r="C342" s="97"/>
-      <c r="D342" s="97"/>
-      <c r="E342" s="97"/>
-    </row>
-    <row r="343" ht="15.75" customHeight="1">
-      <c r="C343" s="97"/>
-      <c r="D343" s="97"/>
-      <c r="E343" s="97"/>
-    </row>
-    <row r="344" ht="15.75" customHeight="1">
-      <c r="C344" s="97"/>
-      <c r="D344" s="97"/>
-      <c r="E344" s="97"/>
-    </row>
-    <row r="345" ht="15.75" customHeight="1">
-      <c r="C345" s="97"/>
-      <c r="D345" s="97"/>
-      <c r="E345" s="97"/>
-    </row>
-    <row r="346" ht="15.75" customHeight="1">
-      <c r="C346" s="97"/>
-      <c r="D346" s="97"/>
-      <c r="E346" s="97"/>
-    </row>
-    <row r="347" ht="15.75" customHeight="1">
-      <c r="C347" s="97"/>
-      <c r="D347" s="97"/>
-      <c r="E347" s="97"/>
-    </row>
-    <row r="348" ht="15.75" customHeight="1">
-      <c r="C348" s="97"/>
-      <c r="D348" s="97"/>
-      <c r="E348" s="97"/>
-    </row>
-    <row r="349" ht="15.75" customHeight="1">
-      <c r="C349" s="97"/>
-      <c r="D349" s="97"/>
-      <c r="E349" s="97"/>
-    </row>
-    <row r="350" ht="15.75" customHeight="1">
-      <c r="C350" s="97"/>
-      <c r="D350" s="97"/>
-      <c r="E350" s="97"/>
-    </row>
-    <row r="351" ht="15.75" customHeight="1">
-      <c r="C351" s="97"/>
-      <c r="D351" s="97"/>
-      <c r="E351" s="97"/>
-    </row>
-    <row r="352" ht="15.75" customHeight="1">
-      <c r="C352" s="97"/>
-      <c r="D352" s="97"/>
-      <c r="E352" s="97"/>
-    </row>
-    <row r="353" ht="15.75" customHeight="1">
-      <c r="C353" s="97"/>
-      <c r="D353" s="97"/>
-      <c r="E353" s="97"/>
-    </row>
-    <row r="354" ht="15.75" customHeight="1">
-      <c r="C354" s="97"/>
-      <c r="D354" s="97"/>
-      <c r="E354" s="97"/>
-    </row>
-    <row r="355" ht="15.75" customHeight="1">
-      <c r="C355" s="97"/>
-      <c r="D355" s="97"/>
-      <c r="E355" s="97"/>
-    </row>
-    <row r="356" ht="15.75" customHeight="1">
-      <c r="C356" s="97"/>
-      <c r="D356" s="97"/>
-      <c r="E356" s="97"/>
-    </row>
-    <row r="357" ht="15.75" customHeight="1">
-      <c r="C357" s="97"/>
-      <c r="D357" s="97"/>
-      <c r="E357" s="97"/>
-    </row>
-    <row r="358" ht="15.75" customHeight="1">
-      <c r="C358" s="97"/>
-      <c r="D358" s="97"/>
-      <c r="E358" s="97"/>
-    </row>
-    <row r="359" ht="15.75" customHeight="1">
-      <c r="C359" s="97"/>
-      <c r="D359" s="97"/>
-      <c r="E359" s="97"/>
-    </row>
-    <row r="360" ht="15.75" customHeight="1">
-      <c r="C360" s="97"/>
-      <c r="D360" s="97"/>
-      <c r="E360" s="97"/>
-    </row>
-    <row r="361" ht="15.75" customHeight="1">
-      <c r="C361" s="97"/>
-      <c r="D361" s="97"/>
-      <c r="E361" s="97"/>
-    </row>
-    <row r="362" ht="15.75" customHeight="1">
-      <c r="C362" s="97"/>
-      <c r="D362" s="97"/>
-      <c r="E362" s="97"/>
-    </row>
-    <row r="363" ht="15.75" customHeight="1">
-      <c r="C363" s="97"/>
-      <c r="D363" s="97"/>
-      <c r="E363" s="97"/>
-    </row>
-    <row r="364" ht="15.75" customHeight="1">
-      <c r="C364" s="97"/>
-      <c r="D364" s="97"/>
-      <c r="E364" s="97"/>
-    </row>
-    <row r="365" ht="15.75" customHeight="1">
-      <c r="C365" s="97"/>
-      <c r="D365" s="97"/>
-      <c r="E365" s="97"/>
-    </row>
-    <row r="366" ht="15.75" customHeight="1">
-      <c r="C366" s="97"/>
-      <c r="D366" s="97"/>
-      <c r="E366" s="97"/>
-    </row>
-    <row r="367" ht="15.75" customHeight="1">
-      <c r="C367" s="97"/>
-      <c r="D367" s="97"/>
-      <c r="E367" s="97"/>
-    </row>
-    <row r="368" ht="15.75" customHeight="1">
-      <c r="C368" s="97"/>
-      <c r="D368" s="97"/>
-      <c r="E368" s="97"/>
-    </row>
-    <row r="369" ht="15.75" customHeight="1">
-      <c r="C369" s="97"/>
-      <c r="D369" s="97"/>
-      <c r="E369" s="97"/>
-    </row>
-    <row r="370" ht="15.75" customHeight="1">
-      <c r="C370" s="97"/>
-      <c r="D370" s="97"/>
-      <c r="E370" s="97"/>
-    </row>
-    <row r="371" ht="15.75" customHeight="1">
-      <c r="C371" s="97"/>
-      <c r="D371" s="97"/>
-      <c r="E371" s="97"/>
-    </row>
-    <row r="372" ht="15.75" customHeight="1">
-      <c r="C372" s="97"/>
-      <c r="D372" s="97"/>
-      <c r="E372" s="97"/>
-    </row>
-    <row r="373" ht="15.75" customHeight="1">
-      <c r="C373" s="97"/>
-      <c r="D373" s="97"/>
-      <c r="E373" s="97"/>
-    </row>
-    <row r="374" ht="15.75" customHeight="1">
-      <c r="C374" s="97"/>
-      <c r="D374" s="97"/>
-      <c r="E374" s="97"/>
-    </row>
-    <row r="375" ht="15.75" customHeight="1">
-      <c r="C375" s="97"/>
-      <c r="D375" s="97"/>
-      <c r="E375" s="97"/>
-    </row>
-    <row r="376" ht="15.75" customHeight="1">
-      <c r="C376" s="97"/>
-      <c r="D376" s="97"/>
-      <c r="E376" s="97"/>
-    </row>
-    <row r="377" ht="15.75" customHeight="1">
-      <c r="C377" s="97"/>
-      <c r="D377" s="97"/>
-      <c r="E377" s="97"/>
-    </row>
-    <row r="378" ht="15.75" customHeight="1">
-      <c r="C378" s="97"/>
-      <c r="D378" s="97"/>
-      <c r="E378" s="97"/>
-    </row>
-    <row r="379" ht="15.75" customHeight="1">
-      <c r="C379" s="97"/>
-      <c r="D379" s="97"/>
-      <c r="E379" s="97"/>
-    </row>
-    <row r="380" ht="15.75" customHeight="1">
-      <c r="C380" s="97"/>
-      <c r="D380" s="97"/>
-      <c r="E380" s="97"/>
-    </row>
-    <row r="381" ht="15.75" customHeight="1">
-      <c r="C381" s="97"/>
-      <c r="D381" s="97"/>
-      <c r="E381" s="97"/>
-    </row>
-    <row r="382" ht="15.75" customHeight="1">
-      <c r="C382" s="97"/>
-      <c r="D382" s="97"/>
-      <c r="E382" s="97"/>
-    </row>
-    <row r="383" ht="15.75" customHeight="1">
-      <c r="C383" s="97"/>
-      <c r="D383" s="97"/>
-      <c r="E383" s="97"/>
-    </row>
-    <row r="384" ht="15.75" customHeight="1">
-      <c r="C384" s="97"/>
-      <c r="D384" s="97"/>
-      <c r="E384" s="97"/>
-    </row>
-    <row r="385" ht="15.75" customHeight="1">
-      <c r="C385" s="97"/>
-      <c r="D385" s="97"/>
-      <c r="E385" s="97"/>
-    </row>
-    <row r="386" ht="15.75" customHeight="1">
-      <c r="C386" s="97"/>
-      <c r="D386" s="97"/>
-      <c r="E386" s="97"/>
-    </row>
-    <row r="387" ht="15.75" customHeight="1">
-      <c r="C387" s="97"/>
-      <c r="D387" s="97"/>
-      <c r="E387" s="97"/>
-    </row>
-    <row r="388" ht="15.75" customHeight="1">
-      <c r="C388" s="97"/>
-      <c r="D388" s="97"/>
-      <c r="E388" s="97"/>
-    </row>
-    <row r="389" ht="15.75" customHeight="1">
-      <c r="C389" s="97"/>
-      <c r="D389" s="97"/>
-      <c r="E389" s="97"/>
-    </row>
-    <row r="390" ht="15.75" customHeight="1">
-      <c r="C390" s="97"/>
-      <c r="D390" s="97"/>
-      <c r="E390" s="97"/>
-    </row>
-    <row r="391" ht="15.75" customHeight="1">
-      <c r="C391" s="97"/>
-      <c r="D391" s="97"/>
-      <c r="E391" s="97"/>
-    </row>
-    <row r="392" ht="15.75" customHeight="1">
-      <c r="C392" s="97"/>
-      <c r="D392" s="97"/>
-      <c r="E392" s="97"/>
-    </row>
-    <row r="393" ht="15.75" customHeight="1">
-      <c r="C393" s="97"/>
-      <c r="D393" s="97"/>
-      <c r="E393" s="97"/>
-    </row>
-    <row r="394" ht="15.75" customHeight="1">
-      <c r="C394" s="97"/>
-      <c r="D394" s="97"/>
-      <c r="E394" s="97"/>
-    </row>
-    <row r="395" ht="15.75" customHeight="1">
-      <c r="C395" s="97"/>
-      <c r="D395" s="97"/>
-      <c r="E395" s="97"/>
-    </row>
-    <row r="396" ht="15.75" customHeight="1">
-      <c r="C396" s="97"/>
-      <c r="D396" s="97"/>
-      <c r="E396" s="97"/>
-    </row>
-    <row r="397" ht="15.75" customHeight="1">
-      <c r="C397" s="97"/>
-      <c r="D397" s="97"/>
-      <c r="E397" s="97"/>
-    </row>
-    <row r="398" ht="15.75" customHeight="1">
-      <c r="C398" s="97"/>
-      <c r="D398" s="97"/>
-      <c r="E398" s="97"/>
-    </row>
-    <row r="399" ht="15.75" customHeight="1">
-      <c r="C399" s="97"/>
-      <c r="D399" s="97"/>
-      <c r="E399" s="97"/>
-    </row>
-    <row r="400" ht="15.75" customHeight="1">
-      <c r="C400" s="97"/>
-      <c r="D400" s="97"/>
-      <c r="E400" s="97"/>
-    </row>
-    <row r="401" ht="15.75" customHeight="1">
-      <c r="C401" s="97"/>
-      <c r="D401" s="97"/>
-      <c r="E401" s="97"/>
-    </row>
-    <row r="402" ht="15.75" customHeight="1">
-      <c r="C402" s="97"/>
-      <c r="D402" s="97"/>
-      <c r="E402" s="97"/>
-    </row>
-    <row r="403" ht="15.75" customHeight="1">
-      <c r="C403" s="97"/>
-      <c r="D403" s="97"/>
-      <c r="E403" s="97"/>
-    </row>
-    <row r="404" ht="15.75" customHeight="1">
-      <c r="C404" s="97"/>
-      <c r="D404" s="97"/>
-      <c r="E404" s="97"/>
-    </row>
-    <row r="405" ht="15.75" customHeight="1">
-      <c r="C405" s="97"/>
-      <c r="D405" s="97"/>
-      <c r="E405" s="97"/>
-    </row>
-    <row r="406" ht="15.75" customHeight="1">
-      <c r="C406" s="97"/>
-      <c r="D406" s="97"/>
-      <c r="E406" s="97"/>
-    </row>
-    <row r="407" ht="15.75" customHeight="1">
-      <c r="C407" s="97"/>
-      <c r="D407" s="97"/>
-      <c r="E407" s="97"/>
-    </row>
-    <row r="408" ht="15.75" customHeight="1">
-      <c r="C408" s="97"/>
-      <c r="D408" s="97"/>
-      <c r="E408" s="97"/>
-    </row>
-    <row r="409" ht="15.75" customHeight="1">
-      <c r="C409" s="97"/>
-      <c r="D409" s="97"/>
-      <c r="E409" s="97"/>
-    </row>
-    <row r="410" ht="15.75" customHeight="1">
-      <c r="C410" s="97"/>
-      <c r="D410" s="97"/>
-      <c r="E410" s="97"/>
-    </row>
-    <row r="411" ht="15.75" customHeight="1">
-      <c r="C411" s="97"/>
-      <c r="D411" s="97"/>
-      <c r="E411" s="97"/>
-    </row>
-    <row r="412" ht="15.75" customHeight="1">
-      <c r="C412" s="97"/>
-      <c r="D412" s="97"/>
-      <c r="E412" s="97"/>
-    </row>
-    <row r="413" ht="15.75" customHeight="1">
-      <c r="C413" s="97"/>
-      <c r="D413" s="97"/>
-      <c r="E413" s="97"/>
-    </row>
-    <row r="414" ht="15.75" customHeight="1">
-      <c r="C414" s="97"/>
-      <c r="D414" s="97"/>
-      <c r="E414" s="97"/>
-    </row>
-    <row r="415" ht="15.75" customHeight="1">
-      <c r="C415" s="97"/>
-      <c r="D415" s="97"/>
-      <c r="E415" s="97"/>
-    </row>
-    <row r="416" ht="15.75" customHeight="1">
-      <c r="C416" s="97"/>
-      <c r="D416" s="97"/>
-      <c r="E416" s="97"/>
-    </row>
-    <row r="417" ht="15.75" customHeight="1">
-      <c r="C417" s="97"/>
-      <c r="D417" s="97"/>
-      <c r="E417" s="97"/>
-    </row>
-    <row r="418" ht="15.75" customHeight="1">
-      <c r="C418" s="97"/>
-      <c r="D418" s="97"/>
-      <c r="E418" s="97"/>
-    </row>
-    <row r="419" ht="15.75" customHeight="1">
-      <c r="C419" s="97"/>
-      <c r="D419" s="97"/>
-      <c r="E419" s="97"/>
-    </row>
-    <row r="420" ht="15.75" customHeight="1">
-      <c r="C420" s="97"/>
-      <c r="D420" s="97"/>
-      <c r="E420" s="97"/>
-    </row>
-    <row r="421" ht="15.75" customHeight="1">
-      <c r="C421" s="97"/>
-      <c r="D421" s="97"/>
-      <c r="E421" s="97"/>
-    </row>
-    <row r="422" ht="15.75" customHeight="1">
-      <c r="C422" s="97"/>
-      <c r="D422" s="97"/>
-      <c r="E422" s="97"/>
-    </row>
-    <row r="423" ht="15.75" customHeight="1">
-      <c r="C423" s="97"/>
-      <c r="D423" s="97"/>
-      <c r="E423" s="97"/>
-    </row>
-    <row r="424" ht="15.75" customHeight="1">
-      <c r="C424" s="97"/>
-      <c r="D424" s="97"/>
-      <c r="E424" s="97"/>
-    </row>
-    <row r="425" ht="15.75" customHeight="1">
-      <c r="C425" s="97"/>
-      <c r="D425" s="97"/>
-      <c r="E425" s="97"/>
-    </row>
-    <row r="426" ht="15.75" customHeight="1">
-      <c r="C426" s="97"/>
-      <c r="D426" s="97"/>
-      <c r="E426" s="97"/>
-    </row>
-    <row r="427" ht="15.75" customHeight="1">
-      <c r="C427" s="97"/>
-      <c r="D427" s="97"/>
-      <c r="E427" s="97"/>
-    </row>
-    <row r="428" ht="15.75" customHeight="1">
-      <c r="C428" s="97"/>
-      <c r="D428" s="97"/>
-      <c r="E428" s="97"/>
-    </row>
-    <row r="429" ht="15.75" customHeight="1">
-      <c r="C429" s="97"/>
-      <c r="D429" s="97"/>
-      <c r="E429" s="97"/>
-    </row>
-    <row r="430" ht="15.75" customHeight="1">
-      <c r="C430" s="97"/>
-      <c r="D430" s="97"/>
-      <c r="E430" s="97"/>
-    </row>
-    <row r="431" ht="15.75" customHeight="1">
-      <c r="C431" s="97"/>
-      <c r="D431" s="97"/>
-      <c r="E431" s="97"/>
-    </row>
-    <row r="432" ht="15.75" customHeight="1">
-      <c r="C432" s="97"/>
-      <c r="D432" s="97"/>
-      <c r="E432" s="97"/>
-    </row>
-    <row r="433" ht="15.75" customHeight="1">
-      <c r="C433" s="97"/>
-      <c r="D433" s="97"/>
-      <c r="E433" s="97"/>
-    </row>
-    <row r="434" ht="15.75" customHeight="1">
-      <c r="C434" s="97"/>
-      <c r="D434" s="97"/>
-      <c r="E434" s="97"/>
-    </row>
-    <row r="435" ht="15.75" customHeight="1">
-      <c r="C435" s="97"/>
-      <c r="D435" s="97"/>
-      <c r="E435" s="97"/>
-    </row>
-    <row r="436" ht="15.75" customHeight="1">
-      <c r="C436" s="97"/>
-      <c r="D436" s="97"/>
-      <c r="E436" s="97"/>
-    </row>
-    <row r="437" ht="15.75" customHeight="1">
-      <c r="C437" s="97"/>
-      <c r="D437" s="97"/>
-      <c r="E437" s="97"/>
-    </row>
-    <row r="438" ht="15.75" customHeight="1">
-      <c r="C438" s="97"/>
-      <c r="D438" s="97"/>
-      <c r="E438" s="97"/>
-    </row>
-    <row r="439" ht="15.75" customHeight="1">
-      <c r="C439" s="97"/>
-      <c r="D439" s="97"/>
-      <c r="E439" s="97"/>
-    </row>
-    <row r="440" ht="15.75" customHeight="1">
-      <c r="C440" s="97"/>
-      <c r="D440" s="97"/>
-      <c r="E440" s="97"/>
-    </row>
-    <row r="441" ht="15.75" customHeight="1">
-      <c r="C441" s="97"/>
-      <c r="D441" s="97"/>
-      <c r="E441" s="97"/>
-    </row>
-    <row r="442" ht="15.75" customHeight="1">
-      <c r="C442" s="97"/>
-      <c r="D442" s="97"/>
-      <c r="E442" s="97"/>
-    </row>
-    <row r="443" ht="15.75" customHeight="1">
-      <c r="C443" s="97"/>
-      <c r="D443" s="97"/>
-      <c r="E443" s="97"/>
-    </row>
-    <row r="444" ht="15.75" customHeight="1">
-      <c r="C444" s="97"/>
-      <c r="D444" s="97"/>
-      <c r="E444" s="97"/>
-    </row>
-    <row r="445" ht="15.75" customHeight="1">
-      <c r="C445" s="97"/>
-      <c r="D445" s="97"/>
-      <c r="E445" s="97"/>
-    </row>
-    <row r="446" ht="15.75" customHeight="1">
-      <c r="C446" s="97"/>
-      <c r="D446" s="97"/>
-      <c r="E446" s="97"/>
-    </row>
-    <row r="447" ht="15.75" customHeight="1">
-      <c r="C447" s="97"/>
-      <c r="D447" s="97"/>
-      <c r="E447" s="97"/>
-    </row>
-    <row r="448" ht="15.75" customHeight="1">
-      <c r="C448" s="97"/>
-      <c r="D448" s="97"/>
-      <c r="E448" s="97"/>
-    </row>
-    <row r="449" ht="15.75" customHeight="1">
-      <c r="C449" s="97"/>
-      <c r="D449" s="97"/>
-      <c r="E449" s="97"/>
-    </row>
-    <row r="450" ht="15.75" customHeight="1">
-      <c r="C450" s="97"/>
-      <c r="D450" s="97"/>
-      <c r="E450" s="97"/>
-    </row>
-    <row r="451" ht="15.75" customHeight="1">
-      <c r="C451" s="97"/>
-      <c r="D451" s="97"/>
-      <c r="E451" s="97"/>
-    </row>
-    <row r="452" ht="15.75" customHeight="1">
-      <c r="C452" s="97"/>
-      <c r="D452" s="97"/>
-      <c r="E452" s="97"/>
-    </row>
-    <row r="453" ht="15.75" customHeight="1">
-      <c r="C453" s="97"/>
-      <c r="D453" s="97"/>
-      <c r="E453" s="97"/>
-    </row>
-    <row r="454" ht="15.75" customHeight="1">
-      <c r="C454" s="97"/>
-      <c r="D454" s="97"/>
-      <c r="E454" s="97"/>
-    </row>
-    <row r="455" ht="15.75" customHeight="1">
-      <c r="C455" s="97"/>
-      <c r="D455" s="97"/>
-      <c r="E455" s="97"/>
-    </row>
-    <row r="456" ht="15.75" customHeight="1">
-      <c r="C456" s="97"/>
-      <c r="D456" s="97"/>
-      <c r="E456" s="97"/>
-    </row>
-    <row r="457" ht="15.75" customHeight="1">
-      <c r="C457" s="97"/>
-      <c r="D457" s="97"/>
-      <c r="E457" s="97"/>
-    </row>
-    <row r="458" ht="15.75" customHeight="1">
-      <c r="C458" s="97"/>
-      <c r="D458" s="97"/>
-      <c r="E458" s="97"/>
-    </row>
-    <row r="459" ht="15.75" customHeight="1">
-      <c r="C459" s="97"/>
-      <c r="D459" s="97"/>
-      <c r="E459" s="97"/>
-    </row>
-    <row r="460" ht="15.75" customHeight="1">
-      <c r="C460" s="97"/>
-      <c r="D460" s="97"/>
-      <c r="E460" s="97"/>
-    </row>
-    <row r="461" ht="15.75" customHeight="1">
-      <c r="C461" s="97"/>
-      <c r="D461" s="97"/>
-      <c r="E461" s="97"/>
-    </row>
-    <row r="462" ht="15.75" customHeight="1">
-      <c r="C462" s="97"/>
-      <c r="D462" s="97"/>
-      <c r="E462" s="97"/>
-    </row>
-    <row r="463" ht="15.75" customHeight="1">
-      <c r="C463" s="97"/>
-      <c r="D463" s="97"/>
-      <c r="E463" s="97"/>
-    </row>
-    <row r="464" ht="15.75" customHeight="1">
-      <c r="C464" s="97"/>
-      <c r="D464" s="97"/>
-      <c r="E464" s="97"/>
-    </row>
-    <row r="465" ht="15.75" customHeight="1">
-      <c r="C465" s="97"/>
-      <c r="D465" s="97"/>
-      <c r="E465" s="97"/>
-    </row>
-    <row r="466" ht="15.75" customHeight="1">
-      <c r="C466" s="97"/>
-      <c r="D466" s="97"/>
-      <c r="E466" s="97"/>
-    </row>
-    <row r="467" ht="15.75" customHeight="1">
-      <c r="C467" s="97"/>
-      <c r="D467" s="97"/>
-      <c r="E467" s="97"/>
-    </row>
-    <row r="468" ht="15.75" customHeight="1">
-      <c r="C468" s="97"/>
-      <c r="D468" s="97"/>
-      <c r="E468" s="97"/>
-    </row>
-    <row r="469" ht="15.75" customHeight="1">
-      <c r="C469" s="97"/>
-      <c r="D469" s="97"/>
-      <c r="E469" s="97"/>
-    </row>
-    <row r="470" ht="15.75" customHeight="1">
-      <c r="C470" s="97"/>
-      <c r="D470" s="97"/>
-      <c r="E470" s="97"/>
-    </row>
-    <row r="471" ht="15.75" customHeight="1">
-      <c r="C471" s="97"/>
-      <c r="D471" s="97"/>
-      <c r="E471" s="97"/>
-    </row>
-    <row r="472" ht="15.75" customHeight="1">
-      <c r="C472" s="97"/>
-      <c r="D472" s="97"/>
-      <c r="E472" s="97"/>
-    </row>
-    <row r="473" ht="15.75" customHeight="1">
-      <c r="C473" s="97"/>
-      <c r="D473" s="97"/>
-      <c r="E473" s="97"/>
-    </row>
-    <row r="474" ht="15.75" customHeight="1">
-      <c r="C474" s="97"/>
-      <c r="D474" s="97"/>
-      <c r="E474" s="97"/>
-    </row>
-    <row r="475" ht="15.75" customHeight="1">
-      <c r="C475" s="97"/>
-      <c r="D475" s="97"/>
-      <c r="E475" s="97"/>
-    </row>
-    <row r="476" ht="15.75" customHeight="1">
-      <c r="C476" s="97"/>
-      <c r="D476" s="97"/>
-      <c r="E476" s="97"/>
-    </row>
-    <row r="477" ht="15.75" customHeight="1">
-      <c r="C477" s="97"/>
-      <c r="D477" s="97"/>
-      <c r="E477" s="97"/>
-    </row>
-    <row r="478" ht="15.75" customHeight="1">
-      <c r="C478" s="97"/>
-      <c r="D478" s="97"/>
-      <c r="E478" s="97"/>
-    </row>
-    <row r="479" ht="15.75" customHeight="1">
-      <c r="C479" s="97"/>
-      <c r="D479" s="97"/>
-      <c r="E479" s="97"/>
-    </row>
-    <row r="480" ht="15.75" customHeight="1">
-      <c r="C480" s="97"/>
-      <c r="D480" s="97"/>
-      <c r="E480" s="97"/>
-    </row>
-    <row r="481" ht="15.75" customHeight="1">
-      <c r="C481" s="97"/>
-      <c r="D481" s="97"/>
-      <c r="E481" s="97"/>
-    </row>
-    <row r="482" ht="15.75" customHeight="1">
-      <c r="C482" s="97"/>
-      <c r="D482" s="97"/>
-      <c r="E482" s="97"/>
-    </row>
-    <row r="483" ht="15.75" customHeight="1">
-      <c r="C483" s="97"/>
-      <c r="D483" s="97"/>
-      <c r="E483" s="97"/>
-    </row>
-    <row r="484" ht="15.75" customHeight="1">
-      <c r="C484" s="97"/>
-      <c r="D484" s="97"/>
-      <c r="E484" s="97"/>
-    </row>
-    <row r="485" ht="15.75" customHeight="1">
-      <c r="C485" s="97"/>
-      <c r="D485" s="97"/>
-      <c r="E485" s="97"/>
-    </row>
-    <row r="486" ht="15.75" customHeight="1">
-      <c r="C486" s="97"/>
-      <c r="D486" s="97"/>
-      <c r="E486" s="97"/>
-    </row>
-    <row r="487" ht="15.75" customHeight="1">
-      <c r="C487" s="97"/>
-      <c r="D487" s="97"/>
-      <c r="E487" s="97"/>
-    </row>
-    <row r="488" ht="15.75" customHeight="1">
-      <c r="C488" s="97"/>
-      <c r="D488" s="97"/>
-      <c r="E488" s="97"/>
-    </row>
-    <row r="489" ht="15.75" customHeight="1">
-      <c r="C489" s="97"/>
-      <c r="D489" s="97"/>
-      <c r="E489" s="97"/>
-    </row>
-    <row r="490" ht="15.75" customHeight="1">
-      <c r="C490" s="97"/>
-      <c r="D490" s="97"/>
-      <c r="E490" s="97"/>
-    </row>
-    <row r="491" ht="15.75" customHeight="1">
-      <c r="C491" s="97"/>
-      <c r="D491" s="97"/>
-      <c r="E491" s="97"/>
-    </row>
-    <row r="492" ht="15.75" customHeight="1">
-      <c r="C492" s="97"/>
-      <c r="D492" s="97"/>
-      <c r="E492" s="97"/>
-    </row>
-    <row r="493" ht="15.75" customHeight="1">
-      <c r="C493" s="97"/>
-      <c r="D493" s="97"/>
-      <c r="E493" s="97"/>
-    </row>
-    <row r="494" ht="15.75" customHeight="1">
-      <c r="C494" s="97"/>
-      <c r="D494" s="97"/>
-      <c r="E494" s="97"/>
-    </row>
-    <row r="495" ht="15.75" customHeight="1">
-      <c r="C495" s="97"/>
-      <c r="D495" s="97"/>
-      <c r="E495" s="97"/>
-    </row>
-    <row r="496" ht="15.75" customHeight="1">
-      <c r="C496" s="97"/>
-      <c r="D496" s="97"/>
-      <c r="E496" s="97"/>
-    </row>
-    <row r="497" ht="15.75" customHeight="1">
-      <c r="C497" s="97"/>
-      <c r="D497" s="97"/>
-      <c r="E497" s="97"/>
-    </row>
-    <row r="498" ht="15.75" customHeight="1">
-      <c r="C498" s="97"/>
-      <c r="D498" s="97"/>
-      <c r="E498" s="97"/>
-    </row>
-    <row r="499" ht="15.75" customHeight="1">
-      <c r="C499" s="97"/>
-      <c r="D499" s="97"/>
-      <c r="E499" s="97"/>
-    </row>
-    <row r="500" ht="15.75" customHeight="1">
-      <c r="C500" s="97"/>
-      <c r="D500" s="97"/>
-      <c r="E500" s="97"/>
-    </row>
-    <row r="501" ht="15.75" customHeight="1">
-      <c r="C501" s="97"/>
-      <c r="D501" s="97"/>
-      <c r="E501" s="97"/>
-    </row>
-    <row r="502" ht="15.75" customHeight="1">
-      <c r="C502" s="97"/>
-      <c r="D502" s="97"/>
-      <c r="E502" s="97"/>
-    </row>
-    <row r="503" ht="15.75" customHeight="1">
-      <c r="C503" s="97"/>
-      <c r="D503" s="97"/>
-      <c r="E503" s="97"/>
-    </row>
-    <row r="504" ht="15.75" customHeight="1">
-      <c r="C504" s="97"/>
-      <c r="D504" s="97"/>
-      <c r="E504" s="97"/>
-    </row>
-    <row r="505" ht="15.75" customHeight="1">
-      <c r="C505" s="97"/>
-      <c r="D505" s="97"/>
-      <c r="E505" s="97"/>
-    </row>
-    <row r="506" ht="15.75" customHeight="1">
-      <c r="C506" s="97"/>
-      <c r="D506" s="97"/>
-      <c r="E506" s="97"/>
-    </row>
-    <row r="507" ht="15.75" customHeight="1">
-      <c r="C507" s="97"/>
-      <c r="D507" s="97"/>
-      <c r="E507" s="97"/>
-    </row>
-    <row r="508" ht="15.75" customHeight="1">
-      <c r="C508" s="97"/>
-      <c r="D508" s="97"/>
-      <c r="E508" s="97"/>
-    </row>
-    <row r="509" ht="15.75" customHeight="1">
-      <c r="C509" s="97"/>
-      <c r="D509" s="97"/>
-      <c r="E509" s="97"/>
-    </row>
-    <row r="510" ht="15.75" customHeight="1">
-      <c r="C510" s="97"/>
-      <c r="D510" s="97"/>
-      <c r="E510" s="97"/>
-    </row>
-    <row r="511" ht="15.75" customHeight="1">
-      <c r="C511" s="97"/>
-      <c r="D511" s="97"/>
-      <c r="E511" s="97"/>
-    </row>
-    <row r="512" ht="15.75" customHeight="1">
-      <c r="C512" s="97"/>
-      <c r="D512" s="97"/>
-      <c r="E512" s="97"/>
-    </row>
-    <row r="513" ht="15.75" customHeight="1">
-      <c r="C513" s="97"/>
-      <c r="D513" s="97"/>
-      <c r="E513" s="97"/>
-    </row>
-    <row r="514" ht="15.75" customHeight="1">
-      <c r="C514" s="97"/>
-      <c r="D514" s="97"/>
-      <c r="E514" s="97"/>
-    </row>
-    <row r="515" ht="15.75" customHeight="1">
-      <c r="C515" s="97"/>
-      <c r="D515" s="97"/>
-      <c r="E515" s="97"/>
-    </row>
-    <row r="516" ht="15.75" customHeight="1">
-      <c r="C516" s="97"/>
-      <c r="D516" s="97"/>
-      <c r="E516" s="97"/>
-    </row>
-    <row r="517" ht="15.75" customHeight="1">
-      <c r="C517" s="97"/>
-      <c r="D517" s="97"/>
-      <c r="E517" s="97"/>
-    </row>
-    <row r="518" ht="15.75" customHeight="1">
-      <c r="C518" s="97"/>
-      <c r="D518" s="97"/>
-      <c r="E518" s="97"/>
-    </row>
-    <row r="519" ht="15.75" customHeight="1">
-      <c r="C519" s="97"/>
-      <c r="D519" s="97"/>
-      <c r="E519" s="97"/>
-    </row>
-    <row r="520" ht="15.75" customHeight="1">
-      <c r="C520" s="97"/>
-      <c r="D520" s="97"/>
-      <c r="E520" s="97"/>
-    </row>
-    <row r="521" ht="15.75" customHeight="1">
-      <c r="C521" s="97"/>
-      <c r="D521" s="97"/>
-      <c r="E521" s="97"/>
-    </row>
-    <row r="522" ht="15.75" customHeight="1">
-      <c r="C522" s="97"/>
-      <c r="D522" s="97"/>
-      <c r="E522" s="97"/>
-    </row>
-    <row r="523" ht="15.75" customHeight="1">
-      <c r="C523" s="97"/>
-      <c r="D523" s="97"/>
-      <c r="E523" s="97"/>
-    </row>
-    <row r="524" ht="15.75" customHeight="1">
-      <c r="C524" s="97"/>
-      <c r="D524" s="97"/>
-      <c r="E524" s="97"/>
-    </row>
-    <row r="525" ht="15.75" customHeight="1">
-      <c r="C525" s="97"/>
-      <c r="D525" s="97"/>
-      <c r="E525" s="97"/>
-    </row>
-    <row r="526" ht="15.75" customHeight="1">
-      <c r="C526" s="97"/>
-      <c r="D526" s="97"/>
-      <c r="E526" s="97"/>
-    </row>
-    <row r="527" ht="15.75" customHeight="1">
-      <c r="C527" s="97"/>
-      <c r="D527" s="97"/>
-      <c r="E527" s="97"/>
-    </row>
-    <row r="528" ht="15.75" customHeight="1">
-      <c r="C528" s="97"/>
-      <c r="D528" s="97"/>
-      <c r="E528" s="97"/>
-    </row>
-    <row r="529" ht="15.75" customHeight="1">
-      <c r="C529" s="97"/>
-      <c r="D529" s="97"/>
-      <c r="E529" s="97"/>
-    </row>
-    <row r="530" ht="15.75" customHeight="1">
-      <c r="C530" s="97"/>
-      <c r="D530" s="97"/>
-      <c r="E530" s="97"/>
-    </row>
-    <row r="531" ht="15.75" customHeight="1">
-      <c r="C531" s="97"/>
-      <c r="D531" s="97"/>
-      <c r="E531" s="97"/>
-    </row>
-    <row r="532" ht="15.75" customHeight="1">
-      <c r="C532" s="97"/>
-      <c r="D532" s="97"/>
-      <c r="E532" s="97"/>
-    </row>
-    <row r="533" ht="15.75" customHeight="1">
-      <c r="C533" s="97"/>
-      <c r="D533" s="97"/>
-      <c r="E533" s="97"/>
-    </row>
-    <row r="534" ht="15.75" customHeight="1">
-      <c r="C534" s="97"/>
-      <c r="D534" s="97"/>
-      <c r="E534" s="97"/>
-    </row>
-    <row r="535" ht="15.75" customHeight="1">
-      <c r="C535" s="97"/>
-      <c r="D535" s="97"/>
-      <c r="E535" s="97"/>
-    </row>
-    <row r="536" ht="15.75" customHeight="1">
-      <c r="C536" s="97"/>
-      <c r="D536" s="97"/>
-      <c r="E536" s="97"/>
-    </row>
-    <row r="537" ht="15.75" customHeight="1">
-      <c r="C537" s="97"/>
-      <c r="D537" s="97"/>
-      <c r="E537" s="97"/>
-    </row>
-    <row r="538" ht="15.75" customHeight="1">
-      <c r="C538" s="97"/>
-      <c r="D538" s="97"/>
-      <c r="E538" s="97"/>
-    </row>
-    <row r="539" ht="15.75" customHeight="1">
-      <c r="C539" s="97"/>
-      <c r="D539" s="97"/>
-      <c r="E539" s="97"/>
-    </row>
-    <row r="540" ht="15.75" customHeight="1">
-      <c r="C540" s="97"/>
-      <c r="D540" s="97"/>
-      <c r="E540" s="97"/>
-    </row>
-    <row r="541" ht="15.75" customHeight="1">
-      <c r="C541" s="97"/>
-      <c r="D541" s="97"/>
-      <c r="E541" s="97"/>
-    </row>
-    <row r="542" ht="15.75" customHeight="1">
-      <c r="C542" s="97"/>
-      <c r="D542" s="97"/>
-      <c r="E542" s="97"/>
-    </row>
-    <row r="543" ht="15.75" customHeight="1">
-      <c r="C543" s="97"/>
-      <c r="D543" s="97"/>
-      <c r="E543" s="97"/>
-    </row>
-    <row r="544" ht="15.75" customHeight="1">
-      <c r="C544" s="97"/>
-      <c r="D544" s="97"/>
-      <c r="E544" s="97"/>
-    </row>
-    <row r="545" ht="15.75" customHeight="1">
-      <c r="C545" s="97"/>
-      <c r="D545" s="97"/>
-      <c r="E545" s="97"/>
-    </row>
-    <row r="546" ht="15.75" customHeight="1">
-      <c r="C546" s="97"/>
-      <c r="D546" s="97"/>
-      <c r="E546" s="97"/>
-    </row>
-    <row r="547" ht="15.75" customHeight="1">
-      <c r="C547" s="97"/>
-      <c r="D547" s="97"/>
-      <c r="E547" s="97"/>
-    </row>
-    <row r="548" ht="15.75" customHeight="1">
-      <c r="C548" s="97"/>
-      <c r="D548" s="97"/>
-      <c r="E548" s="97"/>
-    </row>
-    <row r="549" ht="15.75" customHeight="1">
-      <c r="C549" s="97"/>
-      <c r="D549" s="97"/>
-      <c r="E549" s="97"/>
-    </row>
-    <row r="550" ht="15.75" customHeight="1">
-      <c r="C550" s="97"/>
-      <c r="D550" s="97"/>
-      <c r="E550" s="97"/>
-    </row>
-    <row r="551" ht="15.75" customHeight="1">
-      <c r="C551" s="97"/>
-      <c r="D551" s="97"/>
-      <c r="E551" s="97"/>
-    </row>
-    <row r="552" ht="15.75" customHeight="1">
-      <c r="C552" s="97"/>
-      <c r="D552" s="97"/>
-      <c r="E552" s="97"/>
-    </row>
-    <row r="553" ht="15.75" customHeight="1">
-      <c r="C553" s="97"/>
-      <c r="D553" s="97"/>
-      <c r="E553" s="97"/>
-    </row>
-    <row r="554" ht="15.75" customHeight="1">
-      <c r="C554" s="97"/>
-      <c r="D554" s="97"/>
-      <c r="E554" s="97"/>
-    </row>
-    <row r="555" ht="15.75" customHeight="1">
-      <c r="C555" s="97"/>
-      <c r="D555" s="97"/>
-      <c r="E555" s="97"/>
-    </row>
-    <row r="556" ht="15.75" customHeight="1">
-      <c r="C556" s="97"/>
-      <c r="D556" s="97"/>
-      <c r="E556" s="97"/>
-    </row>
-    <row r="557" ht="15.75" customHeight="1">
-      <c r="C557" s="97"/>
-      <c r="D557" s="97"/>
-      <c r="E557" s="97"/>
-    </row>
-    <row r="558" ht="15.75" customHeight="1">
-      <c r="C558" s="97"/>
-      <c r="D558" s="97"/>
-      <c r="E558" s="97"/>
-    </row>
-    <row r="559" ht="15.75" customHeight="1">
-      <c r="C559" s="97"/>
-      <c r="D559" s="97"/>
-      <c r="E559" s="97"/>
-    </row>
-    <row r="560" ht="15.75" customHeight="1">
-      <c r="C560" s="97"/>
-      <c r="D560" s="97"/>
-      <c r="E560" s="97"/>
-    </row>
-    <row r="561" ht="15.75" customHeight="1">
-      <c r="C561" s="97"/>
-      <c r="D561" s="97"/>
-      <c r="E561" s="97"/>
-    </row>
-    <row r="562" ht="15.75" customHeight="1">
-      <c r="C562" s="97"/>
-      <c r="D562" s="97"/>
-      <c r="E562" s="97"/>
-    </row>
-    <row r="563" ht="15.75" customHeight="1">
-      <c r="C563" s="97"/>
-      <c r="D563" s="97"/>
-      <c r="E563" s="97"/>
-    </row>
-    <row r="564" ht="15.75" customHeight="1">
-      <c r="C564" s="97"/>
-      <c r="D564" s="97"/>
-      <c r="E564" s="97"/>
-    </row>
-    <row r="565" ht="15.75" customHeight="1">
-      <c r="C565" s="97"/>
-      <c r="D565" s="97"/>
-      <c r="E565" s="97"/>
-    </row>
-    <row r="566" ht="15.75" customHeight="1">
-      <c r="C566" s="97"/>
-      <c r="D566" s="97"/>
-      <c r="E566" s="97"/>
-    </row>
-    <row r="567" ht="15.75" customHeight="1">
-      <c r="C567" s="97"/>
-      <c r="D567" s="97"/>
-      <c r="E567" s="97"/>
-    </row>
-    <row r="568" ht="15.75" customHeight="1">
-      <c r="C568" s="97"/>
-      <c r="D568" s="97"/>
-      <c r="E568" s="97"/>
-    </row>
-    <row r="569" ht="15.75" customHeight="1">
-      <c r="C569" s="97"/>
-      <c r="D569" s="97"/>
-      <c r="E569" s="97"/>
-    </row>
-    <row r="570" ht="15.75" customHeight="1">
-      <c r="C570" s="97"/>
-      <c r="D570" s="97"/>
-      <c r="E570" s="97"/>
-    </row>
-    <row r="571" ht="15.75" customHeight="1">
-      <c r="C571" s="97"/>
-      <c r="D571" s="97"/>
-      <c r="E571" s="97"/>
-    </row>
-    <row r="572" ht="15.75" customHeight="1">
-      <c r="C572" s="97"/>
-      <c r="D572" s="97"/>
-      <c r="E572" s="97"/>
-    </row>
-    <row r="573" ht="15.75" customHeight="1">
-      <c r="C573" s="97"/>
-      <c r="D573" s="97"/>
-      <c r="E573" s="97"/>
-    </row>
-    <row r="574" ht="15.75" customHeight="1">
-      <c r="C574" s="97"/>
-      <c r="D574" s="97"/>
-      <c r="E574" s="97"/>
-    </row>
-    <row r="575" ht="15.75" customHeight="1">
-      <c r="C575" s="97"/>
-      <c r="D575" s="97"/>
-      <c r="E575" s="97"/>
-    </row>
-    <row r="576" ht="15.75" customHeight="1">
-      <c r="C576" s="97"/>
-      <c r="D576" s="97"/>
-      <c r="E576" s="97"/>
-    </row>
-    <row r="577" ht="15.75" customHeight="1">
-      <c r="C577" s="97"/>
-      <c r="D577" s="97"/>
-      <c r="E577" s="97"/>
-    </row>
-    <row r="578" ht="15.75" customHeight="1">
-      <c r="C578" s="97"/>
-      <c r="D578" s="97"/>
-      <c r="E578" s="97"/>
-    </row>
-    <row r="579" ht="15.75" customHeight="1">
-      <c r="C579" s="97"/>
-      <c r="D579" s="97"/>
-      <c r="E579" s="97"/>
-    </row>
-    <row r="580" ht="15.75" customHeight="1">
-      <c r="C580" s="97"/>
-      <c r="D580" s="97"/>
-      <c r="E580" s="97"/>
-    </row>
-    <row r="581" ht="15.75" customHeight="1">
-      <c r="C581" s="97"/>
-      <c r="D581" s="97"/>
-      <c r="E581" s="97"/>
-    </row>
-    <row r="582" ht="15.75" customHeight="1">
-      <c r="C582" s="97"/>
-      <c r="D582" s="97"/>
-      <c r="E582" s="97"/>
-    </row>
-    <row r="583" ht="15.75" customHeight="1">
-      <c r="C583" s="97"/>
-      <c r="D583" s="97"/>
-      <c r="E583" s="97"/>
-    </row>
-    <row r="584" ht="15.75" customHeight="1">
-      <c r="C584" s="97"/>
-      <c r="D584" s="97"/>
-      <c r="E584" s="97"/>
-    </row>
-    <row r="585" ht="15.75" customHeight="1">
-      <c r="C585" s="97"/>
-      <c r="D585" s="97"/>
-      <c r="E585" s="97"/>
-    </row>
-    <row r="586" ht="15.75" customHeight="1">
-      <c r="C586" s="97"/>
-      <c r="D586" s="97"/>
-      <c r="E586" s="97"/>
-    </row>
-    <row r="587" ht="15.75" customHeight="1">
-      <c r="C587" s="97"/>
-      <c r="D587" s="97"/>
-      <c r="E587" s="97"/>
-    </row>
-    <row r="588" ht="15.75" customHeight="1">
-      <c r="C588" s="97"/>
-      <c r="D588" s="97"/>
-      <c r="E588" s="97"/>
-    </row>
-    <row r="589" ht="15.75" customHeight="1">
-      <c r="C589" s="97"/>
-      <c r="D589" s="97"/>
-      <c r="E589" s="97"/>
-    </row>
-    <row r="590" ht="15.75" customHeight="1">
-      <c r="C590" s="97"/>
-      <c r="D590" s="97"/>
-      <c r="E590" s="97"/>
-    </row>
-    <row r="591" ht="15.75" customHeight="1">
-      <c r="C591" s="97"/>
-      <c r="D591" s="97"/>
-      <c r="E591" s="97"/>
-    </row>
-    <row r="592" ht="15.75" customHeight="1">
-      <c r="C592" s="97"/>
-      <c r="D592" s="97"/>
-      <c r="E592" s="97"/>
-    </row>
-    <row r="593" ht="15.75" customHeight="1">
-      <c r="C593" s="97"/>
-      <c r="D593" s="97"/>
-      <c r="E593" s="97"/>
-    </row>
-    <row r="594" ht="15.75" customHeight="1">
-      <c r="C594" s="97"/>
-      <c r="D594" s="97"/>
-      <c r="E594" s="97"/>
-    </row>
-    <row r="595" ht="15.75" customHeight="1">
-      <c r="C595" s="97"/>
-      <c r="D595" s="97"/>
-      <c r="E595" s="97"/>
-    </row>
-    <row r="596" ht="15.75" customHeight="1">
-      <c r="C596" s="97"/>
-      <c r="D596" s="97"/>
-      <c r="E596" s="97"/>
-    </row>
-    <row r="597" ht="15.75" customHeight="1">
-      <c r="C597" s="97"/>
-      <c r="D597" s="97"/>
-      <c r="E597" s="97"/>
-    </row>
-    <row r="598" ht="15.75" customHeight="1">
-      <c r="C598" s="97"/>
-      <c r="D598" s="97"/>
-      <c r="E598" s="97"/>
-    </row>
-    <row r="599" ht="15.75" customHeight="1">
-      <c r="C599" s="97"/>
-      <c r="D599" s="97"/>
-      <c r="E599" s="97"/>
-    </row>
-    <row r="600" ht="15.75" customHeight="1">
-      <c r="C600" s="97"/>
-      <c r="D600" s="97"/>
-      <c r="E600" s="97"/>
-    </row>
-    <row r="601" ht="15.75" customHeight="1">
-      <c r="C601" s="97"/>
-      <c r="D601" s="97"/>
-      <c r="E601" s="97"/>
-    </row>
-    <row r="602" ht="15.75" customHeight="1">
-      <c r="C602" s="97"/>
-      <c r="D602" s="97"/>
-      <c r="E602" s="97"/>
-    </row>
-    <row r="603" ht="15.75" customHeight="1">
-      <c r="C603" s="97"/>
-      <c r="D603" s="97"/>
-      <c r="E603" s="97"/>
-    </row>
-    <row r="604" ht="15.75" customHeight="1">
-      <c r="C604" s="97"/>
-      <c r="D604" s="97"/>
-      <c r="E604" s="97"/>
-    </row>
-    <row r="605" ht="15.75" customHeight="1">
-      <c r="C605" s="97"/>
-      <c r="D605" s="97"/>
-      <c r="E605" s="97"/>
-    </row>
-    <row r="606" ht="15.75" customHeight="1">
-      <c r="C606" s="97"/>
-      <c r="D606" s="97"/>
-      <c r="E606" s="97"/>
-    </row>
-    <row r="607" ht="15.75" customHeight="1">
-      <c r="C607" s="97"/>
-      <c r="D607" s="97"/>
-      <c r="E607" s="97"/>
-    </row>
-    <row r="608" ht="15.75" customHeight="1">
-      <c r="C608" s="97"/>
-      <c r="D608" s="97"/>
-      <c r="E608" s="97"/>
-    </row>
-    <row r="609" ht="15.75" customHeight="1">
-      <c r="C609" s="97"/>
-      <c r="D609" s="97"/>
-      <c r="E609" s="97"/>
-    </row>
-    <row r="610" ht="15.75" customHeight="1">
-      <c r="C610" s="97"/>
-      <c r="D610" s="97"/>
-      <c r="E610" s="97"/>
-    </row>
-    <row r="611" ht="15.75" customHeight="1">
-      <c r="C611" s="97"/>
-      <c r="D611" s="97"/>
-      <c r="E611" s="97"/>
-    </row>
-    <row r="612" ht="15.75" customHeight="1">
-      <c r="C612" s="97"/>
-      <c r="D612" s="97"/>
-      <c r="E612" s="97"/>
-    </row>
-    <row r="613" ht="15.75" customHeight="1">
-      <c r="C613" s="97"/>
-      <c r="D613" s="97"/>
-      <c r="E613" s="97"/>
-    </row>
-    <row r="614" ht="15.75" customHeight="1">
-      <c r="C614" s="97"/>
-      <c r="D614" s="97"/>
-      <c r="E614" s="97"/>
-    </row>
-    <row r="615" ht="15.75" customHeight="1">
-      <c r="C615" s="97"/>
-      <c r="D615" s="97"/>
-      <c r="E615" s="97"/>
-    </row>
-    <row r="616" ht="15.75" customHeight="1">
-      <c r="C616" s="97"/>
-      <c r="D616" s="97"/>
-      <c r="E616" s="97"/>
-    </row>
-    <row r="617" ht="15.75" customHeight="1">
-      <c r="C617" s="97"/>
-      <c r="D617" s="97"/>
-      <c r="E617" s="97"/>
-    </row>
-    <row r="618" ht="15.75" customHeight="1">
-      <c r="C618" s="97"/>
-      <c r="D618" s="97"/>
-      <c r="E618" s="97"/>
-    </row>
-    <row r="619" ht="15.75" customHeight="1">
-      <c r="C619" s="97"/>
-      <c r="D619" s="97"/>
-      <c r="E619" s="97"/>
-    </row>
-    <row r="620" ht="15.75" customHeight="1">
-      <c r="C620" s="97"/>
-      <c r="D620" s="97"/>
-      <c r="E620" s="97"/>
-    </row>
-    <row r="621" ht="15.75" customHeight="1">
-      <c r="C621" s="97"/>
-      <c r="D621" s="97"/>
-      <c r="E621" s="97"/>
-    </row>
-    <row r="622" ht="15.75" customHeight="1">
-      <c r="C622" s="97"/>
-      <c r="D622" s="97"/>
-      <c r="E622" s="97"/>
-    </row>
-    <row r="623" ht="15.75" customHeight="1">
-      <c r="C623" s="97"/>
-      <c r="D623" s="97"/>
-      <c r="E623" s="97"/>
-    </row>
-    <row r="624" ht="15.75" customHeight="1">
-      <c r="C624" s="97"/>
-      <c r="D624" s="97"/>
-      <c r="E624" s="97"/>
-    </row>
-    <row r="625" ht="15.75" customHeight="1">
-      <c r="C625" s="97"/>
-      <c r="D625" s="97"/>
-      <c r="E625" s="97"/>
-    </row>
-    <row r="626" ht="15.75" customHeight="1">
-      <c r="C626" s="97"/>
-      <c r="D626" s="97"/>
-      <c r="E626" s="97"/>
-    </row>
-    <row r="627" ht="15.75" customHeight="1">
-      <c r="C627" s="97"/>
-      <c r="D627" s="97"/>
-      <c r="E627" s="97"/>
-    </row>
-    <row r="628" ht="15.75" customHeight="1">
-      <c r="C628" s="97"/>
-      <c r="D628" s="97"/>
-      <c r="E628" s="97"/>
-    </row>
-    <row r="629" ht="15.75" customHeight="1">
-      <c r="C629" s="97"/>
-      <c r="D629" s="97"/>
-      <c r="E629" s="97"/>
-    </row>
-    <row r="630" ht="15.75" customHeight="1">
-      <c r="C630" s="97"/>
-      <c r="D630" s="97"/>
-      <c r="E630" s="97"/>
-    </row>
-    <row r="631" ht="15.75" customHeight="1">
-      <c r="C631" s="97"/>
-      <c r="D631" s="97"/>
-      <c r="E631" s="97"/>
-    </row>
-    <row r="632" ht="15.75" customHeight="1">
-      <c r="C632" s="97"/>
-      <c r="D632" s="97"/>
-      <c r="E632" s="97"/>
-    </row>
-    <row r="633" ht="15.75" customHeight="1">
-      <c r="C633" s="97"/>
-      <c r="D633" s="97"/>
-      <c r="E633" s="97"/>
-    </row>
-    <row r="634" ht="15.75" customHeight="1">
-      <c r="C634" s="97"/>
-      <c r="D634" s="97"/>
-      <c r="E634" s="97"/>
-    </row>
-    <row r="635" ht="15.75" customHeight="1">
-      <c r="C635" s="97"/>
-      <c r="D635" s="97"/>
-      <c r="E635" s="97"/>
-    </row>
-    <row r="636" ht="15.75" customHeight="1">
-      <c r="C636" s="97"/>
-      <c r="D636" s="97"/>
-      <c r="E636" s="97"/>
-    </row>
-    <row r="637" ht="15.75" customHeight="1">
-      <c r="C637" s="97"/>
-      <c r="D637" s="97"/>
-      <c r="E637" s="97"/>
-    </row>
-    <row r="638" ht="15.75" customHeight="1">
-      <c r="C638" s="97"/>
-      <c r="D638" s="97"/>
-      <c r="E638" s="97"/>
-    </row>
-    <row r="639" ht="15.75" customHeight="1">
-      <c r="C639" s="97"/>
-      <c r="D639" s="97"/>
-      <c r="E639" s="97"/>
-    </row>
-    <row r="640" ht="15.75" customHeight="1">
-      <c r="C640" s="97"/>
-      <c r="D640" s="97"/>
-      <c r="E640" s="97"/>
-    </row>
-    <row r="641" ht="15.75" customHeight="1">
-      <c r="C641" s="97"/>
-      <c r="D641" s="97"/>
-      <c r="E641" s="97"/>
-    </row>
-    <row r="642" ht="15.75" customHeight="1">
-      <c r="C642" s="97"/>
-      <c r="D642" s="97"/>
-      <c r="E642" s="97"/>
-    </row>
-    <row r="643" ht="15.75" customHeight="1">
-      <c r="C643" s="97"/>
-      <c r="D643" s="97"/>
-      <c r="E643" s="97"/>
-    </row>
-    <row r="644" ht="15.75" customHeight="1">
-      <c r="C644" s="97"/>
-      <c r="D644" s="97"/>
-      <c r="E644" s="97"/>
-    </row>
-    <row r="645" ht="15.75" customHeight="1">
-      <c r="C645" s="97"/>
-      <c r="D645" s="97"/>
-      <c r="E645" s="97"/>
-    </row>
-    <row r="646" ht="15.75" customHeight="1">
-      <c r="C646" s="97"/>
-      <c r="D646" s="97"/>
-      <c r="E646" s="97"/>
-    </row>
-    <row r="647" ht="15.75" customHeight="1">
-      <c r="C647" s="97"/>
-      <c r="D647" s="97"/>
-      <c r="E647" s="97"/>
-    </row>
-    <row r="648" ht="15.75" customHeight="1">
-      <c r="C648" s="97"/>
-      <c r="D648" s="97"/>
-      <c r="E648" s="97"/>
-    </row>
-    <row r="649" ht="15.75" customHeight="1">
-      <c r="C649" s="97"/>
-      <c r="D649" s="97"/>
-      <c r="E649" s="97"/>
-    </row>
-    <row r="650" ht="15.75" customHeight="1">
-      <c r="C650" s="97"/>
-      <c r="D650" s="97"/>
-      <c r="E650" s="97"/>
-    </row>
-    <row r="651" ht="15.75" customHeight="1">
-      <c r="C651" s="97"/>
-      <c r="D651" s="97"/>
-      <c r="E651" s="97"/>
-    </row>
-    <row r="652" ht="15.75" customHeight="1">
-      <c r="C652" s="97"/>
-      <c r="D652" s="97"/>
-      <c r="E652" s="97"/>
-    </row>
-    <row r="653" ht="15.75" customHeight="1">
-      <c r="C653" s="97"/>
-      <c r="D653" s="97"/>
-      <c r="E653" s="97"/>
-    </row>
-    <row r="654" ht="15.75" customHeight="1">
-      <c r="C654" s="97"/>
-      <c r="D654" s="97"/>
-      <c r="E654" s="97"/>
-    </row>
-    <row r="655" ht="15.75" customHeight="1">
-      <c r="C655" s="97"/>
-      <c r="D655" s="97"/>
-      <c r="E655" s="97"/>
-    </row>
-    <row r="656" ht="15.75" customHeight="1">
-      <c r="C656" s="97"/>
-      <c r="D656" s="97"/>
-      <c r="E656" s="97"/>
-    </row>
-    <row r="657" ht="15.75" customHeight="1">
-      <c r="C657" s="97"/>
-      <c r="D657" s="97"/>
-      <c r="E657" s="97"/>
-    </row>
-    <row r="658" ht="15.75" customHeight="1">
-      <c r="C658" s="97"/>
-      <c r="D658" s="97"/>
-      <c r="E658" s="97"/>
-    </row>
-    <row r="659" ht="15.75" customHeight="1">
-      <c r="C659" s="97"/>
-      <c r="D659" s="97"/>
-      <c r="E659" s="97"/>
-    </row>
-    <row r="660" ht="15.75" customHeight="1">
-      <c r="C660" s="97"/>
-      <c r="D660" s="97"/>
-      <c r="E660" s="97"/>
-    </row>
-    <row r="661" ht="15.75" customHeight="1">
-      <c r="C661" s="97"/>
-      <c r="D661" s="97"/>
-      <c r="E661" s="97"/>
-    </row>
-    <row r="662" ht="15.75" customHeight="1">
-      <c r="C662" s="97"/>
-      <c r="D662" s="97"/>
-      <c r="E662" s="97"/>
-    </row>
-    <row r="663" ht="15.75" customHeight="1">
-      <c r="C663" s="97"/>
-      <c r="D663" s="97"/>
-      <c r="E663" s="97"/>
-    </row>
-    <row r="664" ht="15.75" customHeight="1">
-      <c r="C664" s="97"/>
-      <c r="D664" s="97"/>
-      <c r="E664" s="97"/>
-    </row>
-    <row r="665" ht="15.75" customHeight="1">
-      <c r="C665" s="97"/>
-      <c r="D665" s="97"/>
-      <c r="E665" s="97"/>
-    </row>
-    <row r="666" ht="15.75" customHeight="1">
-      <c r="C666" s="97"/>
-      <c r="D666" s="97"/>
-      <c r="E666" s="97"/>
-    </row>
-    <row r="667" ht="15.75" customHeight="1">
-      <c r="C667" s="97"/>
-      <c r="D667" s="97"/>
-      <c r="E667" s="97"/>
-    </row>
-    <row r="668" ht="15.75" customHeight="1">
-      <c r="C668" s="97"/>
-      <c r="D668" s="97"/>
-      <c r="E668" s="97"/>
-    </row>
-    <row r="669" ht="15.75" customHeight="1">
-      <c r="C669" s="97"/>
-      <c r="D669" s="97"/>
-      <c r="E669" s="97"/>
-    </row>
-    <row r="670" ht="15.75" customHeight="1">
-      <c r="C670" s="97"/>
-      <c r="D670" s="97"/>
-      <c r="E670" s="97"/>
-    </row>
-    <row r="671" ht="15.75" customHeight="1">
-      <c r="C671" s="97"/>
-      <c r="D671" s="97"/>
-      <c r="E671" s="97"/>
-    </row>
-    <row r="672" ht="15.75" customHeight="1">
-      <c r="C672" s="97"/>
-      <c r="D672" s="97"/>
-      <c r="E672" s="97"/>
-    </row>
-    <row r="673" ht="15.75" customHeight="1">
-      <c r="C673" s="97"/>
-      <c r="D673" s="97"/>
-      <c r="E673" s="97"/>
-    </row>
-    <row r="674" ht="15.75" customHeight="1">
-      <c r="C674" s="97"/>
-      <c r="D674" s="97"/>
-      <c r="E674" s="97"/>
-    </row>
-    <row r="675" ht="15.75" customHeight="1">
-      <c r="C675" s="97"/>
-      <c r="D675" s="97"/>
-      <c r="E675" s="97"/>
-    </row>
-    <row r="676" ht="15.75" customHeight="1">
-      <c r="C676" s="97"/>
-      <c r="D676" s="97"/>
-      <c r="E676" s="97"/>
-    </row>
-    <row r="677" ht="15.75" customHeight="1">
-      <c r="C677" s="97"/>
-      <c r="D677" s="97"/>
-      <c r="E677" s="97"/>
-    </row>
-    <row r="678" ht="15.75" customHeight="1">
-      <c r="C678" s="97"/>
-      <c r="D678" s="97"/>
-      <c r="E678" s="97"/>
-    </row>
-    <row r="679" ht="15.75" customHeight="1">
-      <c r="C679" s="97"/>
-      <c r="D679" s="97"/>
-      <c r="E679" s="97"/>
-    </row>
-    <row r="680" ht="15.75" customHeight="1">
-      <c r="C680" s="97"/>
-      <c r="D680" s="97"/>
-      <c r="E680" s="97"/>
-    </row>
-    <row r="681" ht="15.75" customHeight="1">
-      <c r="C681" s="97"/>
-      <c r="D681" s="97"/>
-      <c r="E681" s="97"/>
-    </row>
-    <row r="682" ht="15.75" customHeight="1">
-      <c r="C682" s="97"/>
-      <c r="D682" s="97"/>
-      <c r="E682" s="97"/>
-    </row>
-    <row r="683" ht="15.75" customHeight="1">
-      <c r="C683" s="97"/>
-      <c r="D683" s="97"/>
-      <c r="E683" s="97"/>
-    </row>
-    <row r="684" ht="15.75" customHeight="1">
-      <c r="C684" s="97"/>
-      <c r="D684" s="97"/>
-      <c r="E684" s="97"/>
-    </row>
-    <row r="685" ht="15.75" customHeight="1">
-      <c r="C685" s="97"/>
-      <c r="D685" s="97"/>
-      <c r="E685" s="97"/>
-    </row>
-    <row r="686" ht="15.75" customHeight="1">
-      <c r="C686" s="97"/>
-      <c r="D686" s="97"/>
-      <c r="E686" s="97"/>
-    </row>
-    <row r="687" ht="15.75" customHeight="1">
-      <c r="C687" s="97"/>
-      <c r="D687" s="97"/>
-      <c r="E687" s="97"/>
-    </row>
-    <row r="688" ht="15.75" customHeight="1">
-      <c r="C688" s="97"/>
-      <c r="D688" s="97"/>
-      <c r="E688" s="97"/>
-    </row>
-    <row r="689" ht="15.75" customHeight="1">
-      <c r="C689" s="97"/>
-      <c r="D689" s="97"/>
-      <c r="E689" s="97"/>
-    </row>
-    <row r="690" ht="15.75" customHeight="1">
-      <c r="C690" s="97"/>
-      <c r="D690" s="97"/>
-      <c r="E690" s="97"/>
-    </row>
-    <row r="691" ht="15.75" customHeight="1">
-      <c r="C691" s="97"/>
-      <c r="D691" s="97"/>
-      <c r="E691" s="97"/>
-    </row>
-    <row r="692" ht="15.75" customHeight="1">
-      <c r="C692" s="97"/>
-      <c r="D692" s="97"/>
-      <c r="E692" s="97"/>
-    </row>
-    <row r="693" ht="15.75" customHeight="1">
-      <c r="C693" s="97"/>
-      <c r="D693" s="97"/>
-      <c r="E693" s="97"/>
-    </row>
-    <row r="694" ht="15.75" customHeight="1">
-      <c r="C694" s="97"/>
-      <c r="D694" s="97"/>
-      <c r="E694" s="97"/>
-    </row>
-    <row r="695" ht="15.75" customHeight="1">
-      <c r="C695" s="97"/>
-      <c r="D695" s="97"/>
-      <c r="E695" s="97"/>
-    </row>
-    <row r="696" ht="15.75" customHeight="1">
-      <c r="C696" s="97"/>
-      <c r="D696" s="97"/>
-      <c r="E696" s="97"/>
-    </row>
-    <row r="697" ht="15.75" customHeight="1">
-      <c r="C697" s="97"/>
-      <c r="D697" s="97"/>
-      <c r="E697" s="97"/>
-    </row>
-    <row r="698" ht="15.75" customHeight="1">
-      <c r="C698" s="97"/>
-      <c r="D698" s="97"/>
-      <c r="E698" s="97"/>
-    </row>
-    <row r="699" ht="15.75" customHeight="1">
-      <c r="C699" s="97"/>
-      <c r="D699" s="97"/>
-      <c r="E699" s="97"/>
-    </row>
-    <row r="700" ht="15.75" customHeight="1">
-      <c r="C700" s="97"/>
-      <c r="D700" s="97"/>
-      <c r="E700" s="97"/>
-    </row>
-    <row r="701" ht="15.75" customHeight="1">
-      <c r="C701" s="97"/>
-      <c r="D701" s="97"/>
-      <c r="E701" s="97"/>
-    </row>
-    <row r="702" ht="15.75" customHeight="1">
-      <c r="C702" s="97"/>
-      <c r="D702" s="97"/>
-      <c r="E702" s="97"/>
-    </row>
-    <row r="703" ht="15.75" customHeight="1">
-      <c r="C703" s="97"/>
-      <c r="D703" s="97"/>
-      <c r="E703" s="97"/>
-    </row>
-    <row r="704" ht="15.75" customHeight="1">
-      <c r="C704" s="97"/>
-      <c r="D704" s="97"/>
-      <c r="E704" s="97"/>
-    </row>
-    <row r="705" ht="15.75" customHeight="1">
-      <c r="C705" s="97"/>
-      <c r="D705" s="97"/>
-      <c r="E705" s="97"/>
-    </row>
-    <row r="706" ht="15.75" customHeight="1">
-      <c r="C706" s="97"/>
-      <c r="D706" s="97"/>
-      <c r="E706" s="97"/>
-    </row>
-    <row r="707" ht="15.75" customHeight="1">
-      <c r="C707" s="97"/>
-      <c r="D707" s="97"/>
-      <c r="E707" s="97"/>
-    </row>
-    <row r="708" ht="15.75" customHeight="1">
-      <c r="C708" s="97"/>
-      <c r="D708" s="97"/>
-      <c r="E708" s="97"/>
-    </row>
-    <row r="709" ht="15.75" customHeight="1">
-      <c r="C709" s="97"/>
-      <c r="D709" s="97"/>
-      <c r="E709" s="97"/>
-    </row>
-    <row r="710" ht="15.75" customHeight="1">
-      <c r="C710" s="97"/>
-      <c r="D710" s="97"/>
-      <c r="E710" s="97"/>
-    </row>
-    <row r="711" ht="15.75" customHeight="1">
-      <c r="C711" s="97"/>
-      <c r="D711" s="97"/>
-      <c r="E711" s="97"/>
-    </row>
-    <row r="712" ht="15.75" customHeight="1">
-      <c r="C712" s="97"/>
-      <c r="D712" s="97"/>
-      <c r="E712" s="97"/>
-    </row>
-    <row r="713" ht="15.75" customHeight="1">
-      <c r="C713" s="97"/>
-      <c r="D713" s="97"/>
-      <c r="E713" s="97"/>
-    </row>
-    <row r="714" ht="15.75" customHeight="1">
-      <c r="C714" s="97"/>
-      <c r="D714" s="97"/>
-      <c r="E714" s="97"/>
-    </row>
-    <row r="715" ht="15.75" customHeight="1">
-      <c r="C715" s="97"/>
-      <c r="D715" s="97"/>
-      <c r="E715" s="97"/>
-    </row>
-    <row r="716" ht="15.75" customHeight="1">
-      <c r="C716" s="97"/>
-      <c r="D716" s="97"/>
-      <c r="E716" s="97"/>
-    </row>
-    <row r="717" ht="15.75" customHeight="1">
-      <c r="C717" s="97"/>
-      <c r="D717" s="97"/>
-      <c r="E717" s="97"/>
-    </row>
-    <row r="718" ht="15.75" customHeight="1">
-      <c r="C718" s="97"/>
-      <c r="D718" s="97"/>
-      <c r="E718" s="97"/>
-    </row>
-    <row r="719" ht="15.75" customHeight="1">
-      <c r="C719" s="97"/>
-      <c r="D719" s="97"/>
-      <c r="E719" s="97"/>
-    </row>
-    <row r="720" ht="15.75" customHeight="1">
-      <c r="C720" s="97"/>
-      <c r="D720" s="97"/>
-      <c r="E720" s="97"/>
-    </row>
-    <row r="721" ht="15.75" customHeight="1">
-      <c r="C721" s="97"/>
-      <c r="D721" s="97"/>
-      <c r="E721" s="97"/>
-    </row>
-    <row r="722" ht="15.75" customHeight="1">
-      <c r="C722" s="97"/>
-      <c r="D722" s="97"/>
-      <c r="E722" s="97"/>
-    </row>
-    <row r="723" ht="15.75" customHeight="1">
-      <c r="C723" s="97"/>
-      <c r="D723" s="97"/>
-      <c r="E723" s="97"/>
-    </row>
-    <row r="724" ht="15.75" customHeight="1">
-      <c r="C724" s="97"/>
-      <c r="D724" s="97"/>
-      <c r="E724" s="97"/>
-    </row>
-    <row r="725" ht="15.75" customHeight="1">
-      <c r="C725" s="97"/>
-      <c r="D725" s="97"/>
-      <c r="E725" s="97"/>
-    </row>
-    <row r="726" ht="15.75" customHeight="1">
-      <c r="C726" s="97"/>
-      <c r="D726" s="97"/>
-      <c r="E726" s="97"/>
-    </row>
-    <row r="727" ht="15.75" customHeight="1">
-      <c r="C727" s="97"/>
-      <c r="D727" s="97"/>
-      <c r="E727" s="97"/>
-    </row>
-    <row r="728" ht="15.75" customHeight="1">
-      <c r="C728" s="97"/>
-      <c r="D728" s="97"/>
-      <c r="E728" s="97"/>
-    </row>
-    <row r="729" ht="15.75" customHeight="1">
-      <c r="C729" s="97"/>
-      <c r="D729" s="97"/>
-      <c r="E729" s="97"/>
-    </row>
-    <row r="730" ht="15.75" customHeight="1">
-      <c r="C730" s="97"/>
-      <c r="D730" s="97"/>
-      <c r="E730" s="97"/>
-    </row>
-    <row r="731" ht="15.75" customHeight="1">
-      <c r="C731" s="97"/>
-      <c r="D731" s="97"/>
-      <c r="E731" s="97"/>
-    </row>
-    <row r="732" ht="15.75" customHeight="1">
-      <c r="C732" s="97"/>
-      <c r="D732" s="97"/>
-      <c r="E732" s="97"/>
-    </row>
-    <row r="733" ht="15.75" customHeight="1">
-      <c r="C733" s="97"/>
-      <c r="D733" s="97"/>
-      <c r="E733" s="97"/>
-    </row>
-    <row r="734" ht="15.75" customHeight="1">
-      <c r="C734" s="97"/>
-      <c r="D734" s="97"/>
-      <c r="E734" s="97"/>
-    </row>
-    <row r="735" ht="15.75" customHeight="1">
-      <c r="C735" s="97"/>
-      <c r="D735" s="97"/>
-      <c r="E735" s="97"/>
-    </row>
-    <row r="736" ht="15.75" customHeight="1">
-      <c r="C736" s="97"/>
-      <c r="D736" s="97"/>
-      <c r="E736" s="97"/>
-    </row>
-    <row r="737" ht="15.75" customHeight="1">
-      <c r="C737" s="97"/>
-      <c r="D737" s="97"/>
-      <c r="E737" s="97"/>
-    </row>
-    <row r="738" ht="15.75" customHeight="1">
-      <c r="C738" s="97"/>
-      <c r="D738" s="97"/>
-      <c r="E738" s="97"/>
-    </row>
-    <row r="739" ht="15.75" customHeight="1">
-      <c r="C739" s="97"/>
-      <c r="D739" s="97"/>
-      <c r="E739" s="97"/>
-    </row>
-    <row r="740" ht="15.75" customHeight="1">
-      <c r="C740" s="97"/>
-      <c r="D740" s="97"/>
-      <c r="E740" s="97"/>
-    </row>
-    <row r="741" ht="15.75" customHeight="1">
-      <c r="C741" s="97"/>
-      <c r="D741" s="97"/>
-      <c r="E741" s="97"/>
-    </row>
-    <row r="742" ht="15.75" customHeight="1">
-      <c r="C742" s="97"/>
-      <c r="D742" s="97"/>
-      <c r="E742" s="97"/>
-    </row>
-    <row r="743" ht="15.75" customHeight="1">
-      <c r="C743" s="97"/>
-      <c r="D743" s="97"/>
-      <c r="E743" s="97"/>
-    </row>
-    <row r="744" ht="15.75" customHeight="1">
-      <c r="C744" s="97"/>
-      <c r="D744" s="97"/>
-      <c r="E744" s="97"/>
-    </row>
-    <row r="745" ht="15.75" customHeight="1">
-      <c r="C745" s="97"/>
-      <c r="D745" s="97"/>
-      <c r="E745" s="97"/>
-    </row>
-    <row r="746" ht="15.75" customHeight="1">
-      <c r="C746" s="97"/>
-      <c r="D746" s="97"/>
-      <c r="E746" s="97"/>
-    </row>
-    <row r="747" ht="15.75" customHeight="1">
-      <c r="C747" s="97"/>
-      <c r="D747" s="97"/>
-      <c r="E747" s="97"/>
-    </row>
-    <row r="748" ht="15.75" customHeight="1">
-      <c r="C748" s="97"/>
-      <c r="D748" s="97"/>
-      <c r="E748" s="97"/>
-    </row>
-    <row r="749" ht="15.75" customHeight="1">
-      <c r="C749" s="97"/>
-      <c r="D749" s="97"/>
-      <c r="E749" s="97"/>
-    </row>
-    <row r="750" ht="15.75" customHeight="1">
-      <c r="C750" s="97"/>
-      <c r="D750" s="97"/>
-      <c r="E750" s="97"/>
-    </row>
-    <row r="751" ht="15.75" customHeight="1">
-      <c r="C751" s="97"/>
-      <c r="D751" s="97"/>
-      <c r="E751" s="97"/>
-    </row>
-    <row r="752" ht="15.75" customHeight="1">
-      <c r="C752" s="97"/>
-      <c r="D752" s="97"/>
-      <c r="E752" s="97"/>
-    </row>
-    <row r="753" ht="15.75" customHeight="1">
-      <c r="C753" s="97"/>
-      <c r="D753" s="97"/>
-      <c r="E753" s="97"/>
-    </row>
-    <row r="754" ht="15.75" customHeight="1">
-      <c r="C754" s="97"/>
-      <c r="D754" s="97"/>
-      <c r="E754" s="97"/>
-    </row>
-    <row r="755" ht="15.75" customHeight="1">
-      <c r="C755" s="97"/>
-      <c r="D755" s="97"/>
-      <c r="E755" s="97"/>
-    </row>
-    <row r="756" ht="15.75" customHeight="1">
-      <c r="C756" s="97"/>
-      <c r="D756" s="97"/>
-      <c r="E756" s="97"/>
-    </row>
-    <row r="757" ht="15.75" customHeight="1">
-      <c r="C757" s="97"/>
-      <c r="D757" s="97"/>
-      <c r="E757" s="97"/>
-    </row>
-    <row r="758" ht="15.75" customHeight="1">
-      <c r="C758" s="97"/>
-      <c r="D758" s="97"/>
-      <c r="E758" s="97"/>
-    </row>
-    <row r="759" ht="15.75" customHeight="1">
-      <c r="C759" s="97"/>
-      <c r="D759" s="97"/>
-      <c r="E759" s="97"/>
-    </row>
-    <row r="760" ht="15.75" customHeight="1">
-      <c r="C760" s="97"/>
-      <c r="D760" s="97"/>
-      <c r="E760" s="97"/>
-    </row>
-    <row r="761" ht="15.75" customHeight="1">
-      <c r="C761" s="97"/>
-      <c r="D761" s="97"/>
-      <c r="E761" s="97"/>
-    </row>
-    <row r="762" ht="15.75" customHeight="1">
-      <c r="C762" s="97"/>
-      <c r="D762" s="97"/>
-      <c r="E762" s="97"/>
-    </row>
-    <row r="763" ht="15.75" customHeight="1">
-      <c r="C763" s="97"/>
-      <c r="D763" s="97"/>
-      <c r="E763" s="97"/>
-    </row>
-    <row r="764" ht="15.75" customHeight="1">
-      <c r="C764" s="97"/>
-      <c r="D764" s="97"/>
-      <c r="E764" s="97"/>
-    </row>
-    <row r="765" ht="15.75" customHeight="1">
-      <c r="C765" s="97"/>
-      <c r="D765" s="97"/>
-      <c r="E765" s="97"/>
-    </row>
-    <row r="766" ht="15.75" customHeight="1">
-      <c r="C766" s="97"/>
-      <c r="D766" s="97"/>
-      <c r="E766" s="97"/>
-    </row>
-    <row r="767" ht="15.75" customHeight="1">
-      <c r="C767" s="97"/>
-      <c r="D767" s="97"/>
-      <c r="E767" s="97"/>
-    </row>
-    <row r="768" ht="15.75" customHeight="1">
-      <c r="C768" s="97"/>
-      <c r="D768" s="97"/>
-      <c r="E768" s="97"/>
-    </row>
-    <row r="769" ht="15.75" customHeight="1">
-      <c r="C769" s="97"/>
-      <c r="D769" s="97"/>
-      <c r="E769" s="97"/>
-    </row>
-    <row r="770" ht="15.75" customHeight="1">
-      <c r="C770" s="97"/>
-      <c r="D770" s="97"/>
-      <c r="E770" s="97"/>
-    </row>
-    <row r="771" ht="15.75" customHeight="1">
-      <c r="C771" s="97"/>
-      <c r="D771" s="97"/>
-      <c r="E771" s="97"/>
-    </row>
-    <row r="772" ht="15.75" customHeight="1">
-      <c r="C772" s="97"/>
-      <c r="D772" s="97"/>
-      <c r="E772" s="97"/>
-    </row>
-    <row r="773" ht="15.75" customHeight="1">
-      <c r="C773" s="97"/>
-      <c r="D773" s="97"/>
-      <c r="E773" s="97"/>
-    </row>
-    <row r="774" ht="15.75" customHeight="1">
-      <c r="C774" s="97"/>
-      <c r="D774" s="97"/>
-      <c r="E774" s="97"/>
-    </row>
-    <row r="775" ht="15.75" customHeight="1">
-      <c r="C775" s="97"/>
-      <c r="D775" s="97"/>
-      <c r="E775" s="97"/>
-    </row>
-    <row r="776" ht="15.75" customHeight="1">
-      <c r="C776" s="97"/>
-      <c r="D776" s="97"/>
-      <c r="E776" s="97"/>
-    </row>
-    <row r="777" ht="15.75" customHeight="1">
-      <c r="C777" s="97"/>
-      <c r="D777" s="97"/>
-      <c r="E777" s="97"/>
-    </row>
-    <row r="778" ht="15.75" customHeight="1">
-      <c r="C778" s="97"/>
-      <c r="D778" s="97"/>
-      <c r="E778" s="97"/>
-    </row>
-    <row r="779" ht="15.75" customHeight="1">
-      <c r="C779" s="97"/>
-      <c r="D779" s="97"/>
-      <c r="E779" s="97"/>
-    </row>
-    <row r="780" ht="15.75" customHeight="1">
-      <c r="C780" s="97"/>
-      <c r="D780" s="97"/>
-      <c r="E780" s="97"/>
-    </row>
-    <row r="781" ht="15.75" customHeight="1">
-      <c r="C781" s="97"/>
-      <c r="D781" s="97"/>
-      <c r="E781" s="97"/>
-    </row>
-    <row r="782" ht="15.75" customHeight="1">
-      <c r="C782" s="97"/>
-      <c r="D782" s="97"/>
-      <c r="E782" s="97"/>
-    </row>
-    <row r="783" ht="15.75" customHeight="1">
-      <c r="C783" s="97"/>
-      <c r="D783" s="97"/>
-      <c r="E783" s="97"/>
-    </row>
-    <row r="784" ht="15.75" customHeight="1">
-      <c r="C784" s="97"/>
-      <c r="D784" s="97"/>
-      <c r="E784" s="97"/>
-    </row>
-    <row r="785" ht="15.75" customHeight="1">
-      <c r="C785" s="97"/>
-      <c r="D785" s="97"/>
-      <c r="E785" s="97"/>
-    </row>
-    <row r="786" ht="15.75" customHeight="1">
-      <c r="C786" s="97"/>
-      <c r="D786" s="97"/>
-      <c r="E786" s="97"/>
-    </row>
-    <row r="787" ht="15.75" customHeight="1">
-      <c r="C787" s="97"/>
-      <c r="D787" s="97"/>
-      <c r="E787" s="97"/>
-    </row>
-    <row r="788" ht="15.75" customHeight="1">
-      <c r="C788" s="97"/>
-      <c r="D788" s="97"/>
-      <c r="E788" s="97"/>
-    </row>
-    <row r="789" ht="15.75" customHeight="1">
-      <c r="C789" s="97"/>
-      <c r="D789" s="97"/>
-      <c r="E789" s="97"/>
-    </row>
-    <row r="790" ht="15.75" customHeight="1">
-      <c r="C790" s="97"/>
-      <c r="D790" s="97"/>
-      <c r="E790" s="97"/>
-    </row>
-    <row r="791" ht="15.75" customHeight="1">
-      <c r="C791" s="97"/>
-      <c r="D791" s="97"/>
-      <c r="E791" s="97"/>
-    </row>
-    <row r="792" ht="15.75" customHeight="1">
-      <c r="C792" s="97"/>
-      <c r="D792" s="97"/>
-      <c r="E792" s="97"/>
-    </row>
-    <row r="793" ht="15.75" customHeight="1">
-      <c r="C793" s="97"/>
-      <c r="D793" s="97"/>
-      <c r="E793" s="97"/>
-    </row>
-    <row r="794" ht="15.75" customHeight="1">
-      <c r="C794" s="97"/>
-      <c r="D794" s="97"/>
-      <c r="E794" s="97"/>
-    </row>
-    <row r="795" ht="15.75" customHeight="1">
-      <c r="C795" s="97"/>
-      <c r="D795" s="97"/>
-      <c r="E795" s="97"/>
-    </row>
-    <row r="796" ht="15.75" customHeight="1">
-      <c r="C796" s="97"/>
-      <c r="D796" s="97"/>
-      <c r="E796" s="97"/>
-    </row>
-    <row r="797" ht="15.75" customHeight="1">
-      <c r="C797" s="97"/>
-      <c r="D797" s="97"/>
-      <c r="E797" s="97"/>
-    </row>
-    <row r="798" ht="15.75" customHeight="1">
-      <c r="C798" s="97"/>
-      <c r="D798" s="97"/>
-      <c r="E798" s="97"/>
-    </row>
-    <row r="799" ht="15.75" customHeight="1">
-      <c r="C799" s="97"/>
-      <c r="D799" s="97"/>
-      <c r="E799" s="97"/>
-    </row>
-    <row r="800" ht="15.75" customHeight="1">
-      <c r="C800" s="97"/>
-      <c r="D800" s="97"/>
-      <c r="E800" s="97"/>
-    </row>
-    <row r="801" ht="15.75" customHeight="1">
-      <c r="C801" s="97"/>
-      <c r="D801" s="97"/>
-      <c r="E801" s="97"/>
-    </row>
-    <row r="802" ht="15.75" customHeight="1">
-      <c r="C802" s="97"/>
-      <c r="D802" s="97"/>
-      <c r="E802" s="97"/>
-    </row>
-    <row r="803" ht="15.75" customHeight="1">
-      <c r="C803" s="97"/>
-      <c r="D803" s="97"/>
-      <c r="E803" s="97"/>
-    </row>
-    <row r="804" ht="15.75" customHeight="1">
-      <c r="C804" s="97"/>
-      <c r="D804" s="97"/>
-      <c r="E804" s="97"/>
-    </row>
-    <row r="805" ht="15.75" customHeight="1">
-      <c r="C805" s="97"/>
-      <c r="D805" s="97"/>
-      <c r="E805" s="97"/>
-    </row>
-    <row r="806" ht="15.75" customHeight="1">
-      <c r="C806" s="97"/>
-      <c r="D806" s="97"/>
-      <c r="E806" s="97"/>
-    </row>
-    <row r="807" ht="15.75" customHeight="1">
-      <c r="C807" s="97"/>
-      <c r="D807" s="97"/>
-      <c r="E807" s="97"/>
-    </row>
-    <row r="808" ht="15.75" customHeight="1">
-      <c r="C808" s="97"/>
-      <c r="D808" s="97"/>
-      <c r="E808" s="97"/>
-    </row>
-    <row r="809" ht="15.75" customHeight="1">
-      <c r="C809" s="97"/>
-      <c r="D809" s="97"/>
-      <c r="E809" s="97"/>
-    </row>
-    <row r="810" ht="15.75" customHeight="1">
-      <c r="C810" s="97"/>
-      <c r="D810" s="97"/>
-      <c r="E810" s="97"/>
-    </row>
-    <row r="811" ht="15.75" customHeight="1">
-      <c r="C811" s="97"/>
-      <c r="D811" s="97"/>
-      <c r="E811" s="97"/>
-    </row>
-    <row r="812" ht="15.75" customHeight="1">
-      <c r="C812" s="97"/>
-      <c r="D812" s="97"/>
-      <c r="E812" s="97"/>
-    </row>
-    <row r="813" ht="15.75" customHeight="1">
-      <c r="C813" s="97"/>
-      <c r="D813" s="97"/>
-      <c r="E813" s="97"/>
-    </row>
-    <row r="814" ht="15.75" customHeight="1">
-      <c r="C814" s="97"/>
-      <c r="D814" s="97"/>
-      <c r="E814" s="97"/>
-    </row>
-    <row r="815" ht="15.75" customHeight="1">
-      <c r="C815" s="97"/>
-      <c r="D815" s="97"/>
-      <c r="E815" s="97"/>
-    </row>
-    <row r="816" ht="15.75" customHeight="1">
-      <c r="C816" s="97"/>
-      <c r="D816" s="97"/>
-      <c r="E816" s="97"/>
-    </row>
-    <row r="817" ht="15.75" customHeight="1">
-      <c r="C817" s="97"/>
-      <c r="D817" s="97"/>
-      <c r="E817" s="97"/>
-    </row>
-    <row r="818" ht="15.75" customHeight="1">
-      <c r="C818" s="97"/>
-      <c r="D818" s="97"/>
-      <c r="E818" s="97"/>
-    </row>
-    <row r="819" ht="15.75" customHeight="1">
-      <c r="C819" s="97"/>
-      <c r="D819" s="97"/>
-      <c r="E819" s="97"/>
-    </row>
-    <row r="820" ht="15.75" customHeight="1">
-      <c r="C820" s="97"/>
-      <c r="D820" s="97"/>
-      <c r="E820" s="97"/>
-    </row>
-    <row r="821" ht="15.75" customHeight="1">
-      <c r="C821" s="97"/>
-      <c r="D821" s="97"/>
-      <c r="E821" s="97"/>
-    </row>
-    <row r="822" ht="15.75" customHeight="1">
-      <c r="C822" s="97"/>
-      <c r="D822" s="97"/>
-      <c r="E822" s="97"/>
-    </row>
-    <row r="823" ht="15.75" customHeight="1">
-      <c r="C823" s="97"/>
-      <c r="D823" s="97"/>
-      <c r="E823" s="97"/>
-    </row>
-    <row r="824" ht="15.75" customHeight="1">
-      <c r="C824" s="97"/>
-      <c r="D824" s="97"/>
-      <c r="E824" s="97"/>
-    </row>
-    <row r="825" ht="15.75" customHeight="1">
-      <c r="C825" s="97"/>
-      <c r="D825" s="97"/>
-      <c r="E825" s="97"/>
-    </row>
-    <row r="826" ht="15.75" customHeight="1">
-      <c r="C826" s="97"/>
-      <c r="D826" s="97"/>
-      <c r="E826" s="97"/>
-    </row>
-    <row r="827" ht="15.75" customHeight="1">
-      <c r="C827" s="97"/>
-      <c r="D827" s="97"/>
-      <c r="E827" s="97"/>
-    </row>
-    <row r="828" ht="15.75" customHeight="1">
-      <c r="C828" s="97"/>
-      <c r="D828" s="97"/>
-      <c r="E828" s="97"/>
-    </row>
-    <row r="829" ht="15.75" customHeight="1">
-      <c r="C829" s="97"/>
-      <c r="D829" s="97"/>
-      <c r="E829" s="97"/>
-    </row>
-    <row r="830" ht="15.75" customHeight="1">
-      <c r="C830" s="97"/>
-      <c r="D830" s="97"/>
-      <c r="E830" s="97"/>
-    </row>
-    <row r="831" ht="15.75" customHeight="1">
-      <c r="C831" s="97"/>
-      <c r="D831" s="97"/>
-      <c r="E831" s="97"/>
-    </row>
-    <row r="832" ht="15.75" customHeight="1">
-      <c r="C832" s="97"/>
-      <c r="D832" s="97"/>
-      <c r="E832" s="97"/>
-    </row>
-    <row r="833" ht="15.75" customHeight="1">
-      <c r="C833" s="97"/>
-      <c r="D833" s="97"/>
-      <c r="E833" s="97"/>
-    </row>
-    <row r="834" ht="15.75" customHeight="1">
-      <c r="C834" s="97"/>
-      <c r="D834" s="97"/>
-      <c r="E834" s="97"/>
-    </row>
-    <row r="835" ht="15.75" customHeight="1">
-      <c r="C835" s="97"/>
-      <c r="D835" s="97"/>
-      <c r="E835" s="97"/>
-    </row>
-    <row r="836" ht="15.75" customHeight="1">
-      <c r="C836" s="97"/>
-      <c r="D836" s="97"/>
-      <c r="E836" s="97"/>
-    </row>
-    <row r="837" ht="15.75" customHeight="1">
-      <c r="C837" s="97"/>
-      <c r="D837" s="97"/>
-      <c r="E837" s="97"/>
-    </row>
-    <row r="838" ht="15.75" customHeight="1">
-      <c r="C838" s="97"/>
-      <c r="D838" s="97"/>
-      <c r="E838" s="97"/>
-    </row>
-    <row r="839" ht="15.75" customHeight="1">
-      <c r="C839" s="97"/>
-      <c r="D839" s="97"/>
-      <c r="E839" s="97"/>
-    </row>
-    <row r="840" ht="15.75" customHeight="1">
-      <c r="C840" s="97"/>
-      <c r="D840" s="97"/>
-      <c r="E840" s="97"/>
-    </row>
-    <row r="841" ht="15.75" customHeight="1">
-      <c r="C841" s="97"/>
-      <c r="D841" s="97"/>
-      <c r="E841" s="97"/>
-    </row>
-    <row r="842" ht="15.75" customHeight="1">
-      <c r="C842" s="97"/>
-      <c r="D842" s="97"/>
-      <c r="E842" s="97"/>
-    </row>
-    <row r="843" ht="15.75" customHeight="1">
-      <c r="C843" s="97"/>
-      <c r="D843" s="97"/>
-      <c r="E843" s="97"/>
-    </row>
-    <row r="844" ht="15.75" customHeight="1">
-      <c r="C844" s="97"/>
-      <c r="D844" s="97"/>
-      <c r="E844" s="97"/>
-    </row>
-    <row r="845" ht="15.75" customHeight="1">
-      <c r="C845" s="97"/>
-      <c r="D845" s="97"/>
-      <c r="E845" s="97"/>
-    </row>
-    <row r="846" ht="15.75" customHeight="1">
-      <c r="C846" s="97"/>
-      <c r="D846" s="97"/>
-      <c r="E846" s="97"/>
-    </row>
-    <row r="847" ht="15.75" customHeight="1">
-      <c r="C847" s="97"/>
-      <c r="D847" s="97"/>
-      <c r="E847" s="97"/>
-    </row>
-    <row r="848" ht="15.75" customHeight="1">
-      <c r="C848" s="97"/>
-      <c r="D848" s="97"/>
-      <c r="E848" s="97"/>
-    </row>
-    <row r="849" ht="15.75" customHeight="1">
-      <c r="C849" s="97"/>
-      <c r="D849" s="97"/>
-      <c r="E849" s="97"/>
-    </row>
-    <row r="850" ht="15.75" customHeight="1">
-      <c r="C850" s="97"/>
-      <c r="D850" s="97"/>
-      <c r="E850" s="97"/>
-    </row>
-    <row r="851" ht="15.75" customHeight="1">
-      <c r="C851" s="97"/>
-      <c r="D851" s="97"/>
-      <c r="E851" s="97"/>
-    </row>
-    <row r="852" ht="15.75" customHeight="1">
-      <c r="C852" s="97"/>
-      <c r="D852" s="97"/>
-      <c r="E852" s="97"/>
-    </row>
-    <row r="853" ht="15.75" customHeight="1">
-      <c r="C853" s="97"/>
-      <c r="D853" s="97"/>
-      <c r="E853" s="97"/>
-    </row>
-    <row r="854" ht="15.75" customHeight="1">
-      <c r="C854" s="97"/>
-      <c r="D854" s="97"/>
-      <c r="E854" s="97"/>
-    </row>
-    <row r="855" ht="15.75" customHeight="1">
-      <c r="C855" s="97"/>
-      <c r="D855" s="97"/>
-      <c r="E855" s="97"/>
-    </row>
-    <row r="856" ht="15.75" customHeight="1">
-      <c r="C856" s="97"/>
-      <c r="D856" s="97"/>
-      <c r="E856" s="97"/>
-    </row>
-    <row r="857" ht="15.75" customHeight="1">
-      <c r="C857" s="97"/>
-      <c r="D857" s="97"/>
-      <c r="E857" s="97"/>
-    </row>
-    <row r="858" ht="15.75" customHeight="1">
-      <c r="C858" s="97"/>
-      <c r="D858" s="97"/>
-      <c r="E858" s="97"/>
-    </row>
-    <row r="859" ht="15.75" customHeight="1">
-      <c r="C859" s="97"/>
-      <c r="D859" s="97"/>
-      <c r="E859" s="97"/>
-    </row>
-    <row r="860" ht="15.75" customHeight="1">
-      <c r="C860" s="97"/>
-      <c r="D860" s="97"/>
-      <c r="E860" s="97"/>
-    </row>
-    <row r="861" ht="15.75" customHeight="1">
-      <c r="C861" s="97"/>
-      <c r="D861" s="97"/>
-      <c r="E861" s="97"/>
-    </row>
-    <row r="862" ht="15.75" customHeight="1">
-      <c r="C862" s="97"/>
-      <c r="D862" s="97"/>
-      <c r="E862" s="97"/>
-    </row>
-    <row r="863" ht="15.75" customHeight="1">
-      <c r="C863" s="97"/>
-      <c r="D863" s="97"/>
-      <c r="E863" s="97"/>
-    </row>
-    <row r="864" ht="15.75" customHeight="1">
-      <c r="C864" s="97"/>
-      <c r="D864" s="97"/>
-      <c r="E864" s="97"/>
-    </row>
-    <row r="865" ht="15.75" customHeight="1">
-      <c r="C865" s="97"/>
-      <c r="D865" s="97"/>
-      <c r="E865" s="97"/>
-    </row>
-    <row r="866" ht="15.75" customHeight="1">
-      <c r="C866" s="97"/>
-      <c r="D866" s="97"/>
-      <c r="E866" s="97"/>
-    </row>
-    <row r="867" ht="15.75" customHeight="1">
-      <c r="C867" s="97"/>
-      <c r="D867" s="97"/>
-      <c r="E867" s="97"/>
-    </row>
-    <row r="868" ht="15.75" customHeight="1">
-      <c r="C868" s="97"/>
-      <c r="D868" s="97"/>
-      <c r="E868" s="97"/>
-    </row>
-    <row r="869" ht="15.75" customHeight="1">
-      <c r="C869" s="97"/>
-      <c r="D869" s="97"/>
-      <c r="E869" s="97"/>
-    </row>
-    <row r="870" ht="15.75" customHeight="1">
-      <c r="C870" s="97"/>
-      <c r="D870" s="97"/>
-      <c r="E870" s="97"/>
-    </row>
-    <row r="871" ht="15.75" customHeight="1">
-      <c r="C871" s="97"/>
-      <c r="D871" s="97"/>
-      <c r="E871" s="97"/>
-    </row>
-    <row r="872" ht="15.75" customHeight="1">
-      <c r="C872" s="97"/>
-      <c r="D872" s="97"/>
-      <c r="E872" s="97"/>
-    </row>
-    <row r="873" ht="15.75" customHeight="1">
-      <c r="C873" s="97"/>
-      <c r="D873" s="97"/>
-      <c r="E873" s="97"/>
-    </row>
-    <row r="874" ht="15.75" customHeight="1">
-      <c r="C874" s="97"/>
-      <c r="D874" s="97"/>
-      <c r="E874" s="97"/>
-    </row>
-    <row r="875" ht="15.75" customHeight="1">
-      <c r="C875" s="97"/>
-      <c r="D875" s="97"/>
-      <c r="E875" s="97"/>
-    </row>
-    <row r="876" ht="15.75" customHeight="1">
-      <c r="C876" s="97"/>
-      <c r="D876" s="97"/>
-      <c r="E876" s="97"/>
-    </row>
-    <row r="877" ht="15.75" customHeight="1">
-      <c r="C877" s="97"/>
-      <c r="D877" s="97"/>
-      <c r="E877" s="97"/>
-    </row>
-    <row r="878" ht="15.75" customHeight="1">
-      <c r="C878" s="97"/>
-      <c r="D878" s="97"/>
-      <c r="E878" s="97"/>
-    </row>
-    <row r="879" ht="15.75" customHeight="1">
-      <c r="C879" s="97"/>
-      <c r="D879" s="97"/>
-      <c r="E879" s="97"/>
-    </row>
-    <row r="880" ht="15.75" customHeight="1">
-      <c r="C880" s="97"/>
-      <c r="D880" s="97"/>
-      <c r="E880" s="97"/>
-    </row>
-    <row r="881" ht="15.75" customHeight="1">
-      <c r="C881" s="97"/>
-      <c r="D881" s="97"/>
-      <c r="E881" s="97"/>
-    </row>
-    <row r="882" ht="15.75" customHeight="1">
-      <c r="C882" s="97"/>
-      <c r="D882" s="97"/>
-      <c r="E882" s="97"/>
-    </row>
-    <row r="883" ht="15.75" customHeight="1">
-      <c r="C883" s="97"/>
-      <c r="D883" s="97"/>
-      <c r="E883" s="97"/>
-    </row>
-    <row r="884" ht="15.75" customHeight="1">
-      <c r="C884" s="97"/>
-      <c r="D884" s="97"/>
-      <c r="E884" s="97"/>
-    </row>
-    <row r="885" ht="15.75" customHeight="1">
-      <c r="C885" s="97"/>
-      <c r="D885" s="97"/>
-      <c r="E885" s="97"/>
-    </row>
-    <row r="886" ht="15.75" customHeight="1">
-      <c r="C886" s="97"/>
-      <c r="D886" s="97"/>
-      <c r="E886" s="97"/>
-    </row>
-    <row r="887" ht="15.75" customHeight="1">
-      <c r="C887" s="97"/>
-      <c r="D887" s="97"/>
-      <c r="E887" s="97"/>
-    </row>
-    <row r="888" ht="15.75" customHeight="1">
-      <c r="C888" s="97"/>
-      <c r="D888" s="97"/>
-      <c r="E888" s="97"/>
-    </row>
-    <row r="889" ht="15.75" customHeight="1">
-      <c r="C889" s="97"/>
-      <c r="D889" s="97"/>
-      <c r="E889" s="97"/>
-    </row>
-    <row r="890" ht="15.75" customHeight="1">
-      <c r="C890" s="97"/>
-      <c r="D890" s="97"/>
-      <c r="E890" s="97"/>
-    </row>
-    <row r="891" ht="15.75" customHeight="1">
-      <c r="C891" s="97"/>
-      <c r="D891" s="97"/>
-      <c r="E891" s="97"/>
-    </row>
-    <row r="892" ht="15.75" customHeight="1">
-      <c r="C892" s="97"/>
-      <c r="D892" s="97"/>
-      <c r="E892" s="97"/>
-    </row>
-    <row r="893" ht="15.75" customHeight="1">
-      <c r="C893" s="97"/>
-      <c r="D893" s="97"/>
-      <c r="E893" s="97"/>
-    </row>
-    <row r="894" ht="15.75" customHeight="1">
-      <c r="C894" s="97"/>
-      <c r="D894" s="97"/>
-      <c r="E894" s="97"/>
-    </row>
-    <row r="895" ht="15.75" customHeight="1">
-      <c r="C895" s="97"/>
-      <c r="D895" s="97"/>
-      <c r="E895" s="97"/>
-    </row>
-    <row r="896" ht="15.75" customHeight="1">
-      <c r="C896" s="97"/>
-      <c r="D896" s="97"/>
-      <c r="E896" s="97"/>
-    </row>
-    <row r="897" ht="15.75" customHeight="1">
-      <c r="C897" s="97"/>
-      <c r="D897" s="97"/>
-      <c r="E897" s="97"/>
-    </row>
-    <row r="898" ht="15.75" customHeight="1">
-      <c r="C898" s="97"/>
-      <c r="D898" s="97"/>
-      <c r="E898" s="97"/>
-    </row>
-    <row r="899" ht="15.75" customHeight="1">
-      <c r="C899" s="97"/>
-      <c r="D899" s="97"/>
-      <c r="E899" s="97"/>
-    </row>
-    <row r="900" ht="15.75" customHeight="1">
-      <c r="C900" s="97"/>
-      <c r="D900" s="97"/>
-      <c r="E900" s="97"/>
-    </row>
-    <row r="901" ht="15.75" customHeight="1">
-      <c r="C901" s="97"/>
-      <c r="D901" s="97"/>
-      <c r="E901" s="97"/>
-    </row>
-    <row r="902" ht="15.75" customHeight="1">
-      <c r="C902" s="97"/>
-      <c r="D902" s="97"/>
-      <c r="E902" s="97"/>
-    </row>
-    <row r="903" ht="15.75" customHeight="1">
-      <c r="C903" s="97"/>
-      <c r="D903" s="97"/>
-      <c r="E903" s="97"/>
-    </row>
-    <row r="904" ht="15.75" customHeight="1">
-      <c r="C904" s="97"/>
-      <c r="D904" s="97"/>
-      <c r="E904" s="97"/>
-    </row>
-    <row r="905" ht="15.75" customHeight="1">
-      <c r="C905" s="97"/>
-      <c r="D905" s="97"/>
-      <c r="E905" s="97"/>
-    </row>
-    <row r="906" ht="15.75" customHeight="1">
-      <c r="C906" s="97"/>
-      <c r="D906" s="97"/>
-      <c r="E906" s="97"/>
-    </row>
-    <row r="907" ht="15.75" customHeight="1">
-      <c r="C907" s="97"/>
-      <c r="D907" s="97"/>
-      <c r="E907" s="97"/>
-    </row>
-    <row r="908" ht="15.75" customHeight="1">
-      <c r="C908" s="97"/>
-      <c r="D908" s="97"/>
-      <c r="E908" s="97"/>
-    </row>
-    <row r="909" ht="15.75" customHeight="1">
-      <c r="C909" s="97"/>
-      <c r="D909" s="97"/>
-      <c r="E909" s="97"/>
-    </row>
-    <row r="910" ht="15.75" customHeight="1">
-      <c r="C910" s="97"/>
-      <c r="D910" s="97"/>
-      <c r="E910" s="97"/>
-    </row>
-    <row r="911" ht="15.75" customHeight="1">
-      <c r="C911" s="97"/>
-      <c r="D911" s="97"/>
-      <c r="E911" s="97"/>
-    </row>
-    <row r="912" ht="15.75" customHeight="1">
-      <c r="C912" s="97"/>
-      <c r="D912" s="97"/>
-      <c r="E912" s="97"/>
-    </row>
-    <row r="913" ht="15.75" customHeight="1">
-      <c r="C913" s="97"/>
-      <c r="D913" s="97"/>
-      <c r="E913" s="97"/>
-    </row>
-    <row r="914" ht="15.75" customHeight="1">
-      <c r="C914" s="97"/>
-      <c r="D914" s="97"/>
-      <c r="E914" s="97"/>
-    </row>
-    <row r="915" ht="15.75" customHeight="1">
-      <c r="C915" s="97"/>
-      <c r="D915" s="97"/>
-      <c r="E915" s="97"/>
-    </row>
-    <row r="916" ht="15.75" customHeight="1">
-      <c r="C916" s="97"/>
-      <c r="D916" s="97"/>
-      <c r="E916" s="97"/>
-    </row>
-    <row r="917" ht="15.75" customHeight="1">
-      <c r="C917" s="97"/>
-      <c r="D917" s="97"/>
-      <c r="E917" s="97"/>
-    </row>
-    <row r="918" ht="15.75" customHeight="1">
-      <c r="C918" s="97"/>
-      <c r="D918" s="97"/>
-      <c r="E918" s="97"/>
-    </row>
-    <row r="919" ht="15.75" customHeight="1">
-      <c r="C919" s="97"/>
-      <c r="D919" s="97"/>
-      <c r="E919" s="97"/>
-    </row>
-    <row r="920" ht="15.75" customHeight="1">
-      <c r="C920" s="97"/>
-      <c r="D920" s="97"/>
-      <c r="E920" s="97"/>
-    </row>
-    <row r="921" ht="15.75" customHeight="1">
-      <c r="C921" s="97"/>
-      <c r="D921" s="97"/>
-      <c r="E921" s="97"/>
-    </row>
-    <row r="922" ht="15.75" customHeight="1">
-      <c r="C922" s="97"/>
-      <c r="D922" s="97"/>
-      <c r="E922" s="97"/>
-    </row>
-    <row r="923" ht="15.75" customHeight="1">
-      <c r="C923" s="97"/>
-      <c r="D923" s="97"/>
-      <c r="E923" s="97"/>
-    </row>
-    <row r="924" ht="15.75" customHeight="1">
-      <c r="C924" s="97"/>
-      <c r="D924" s="97"/>
-      <c r="E924" s="97"/>
-    </row>
-    <row r="925" ht="15.75" customHeight="1">
-      <c r="C925" s="97"/>
-      <c r="D925" s="97"/>
-      <c r="E925" s="97"/>
-    </row>
-    <row r="926" ht="15.75" customHeight="1">
-      <c r="C926" s="97"/>
-      <c r="D926" s="97"/>
-      <c r="E926" s="97"/>
-    </row>
-    <row r="927" ht="15.75" customHeight="1">
-      <c r="C927" s="97"/>
-      <c r="D927" s="97"/>
-      <c r="E927" s="97"/>
-    </row>
-    <row r="928" ht="15.75" customHeight="1">
-      <c r="C928" s="97"/>
-      <c r="D928" s="97"/>
-      <c r="E928" s="97"/>
-    </row>
-    <row r="929" ht="15.75" customHeight="1">
-      <c r="C929" s="97"/>
-      <c r="D929" s="97"/>
-      <c r="E929" s="97"/>
-    </row>
-    <row r="930" ht="15.75" customHeight="1">
-      <c r="C930" s="97"/>
-      <c r="D930" s="97"/>
-      <c r="E930" s="97"/>
-    </row>
-    <row r="931" ht="15.75" customHeight="1">
-      <c r="C931" s="97"/>
-      <c r="D931" s="97"/>
-      <c r="E931" s="97"/>
-    </row>
-    <row r="932" ht="15.75" customHeight="1">
-      <c r="C932" s="97"/>
-      <c r="D932" s="97"/>
-      <c r="E932" s="97"/>
-    </row>
-    <row r="933" ht="15.75" customHeight="1">
-      <c r="C933" s="97"/>
-      <c r="D933" s="97"/>
-      <c r="E933" s="97"/>
-    </row>
-    <row r="934" ht="15.75" customHeight="1">
-      <c r="C934" s="97"/>
-      <c r="D934" s="97"/>
-      <c r="E934" s="97"/>
-    </row>
-    <row r="935" ht="15.75" customHeight="1">
-      <c r="C935" s="97"/>
-      <c r="D935" s="97"/>
-      <c r="E935" s="97"/>
-    </row>
-    <row r="936" ht="15.75" customHeight="1">
-      <c r="C936" s="97"/>
-      <c r="D936" s="97"/>
-      <c r="E936" s="97"/>
-    </row>
-    <row r="937" ht="15.75" customHeight="1">
-      <c r="C937" s="97"/>
-      <c r="D937" s="97"/>
-      <c r="E937" s="97"/>
-    </row>
-    <row r="938" ht="15.75" customHeight="1">
-      <c r="C938" s="97"/>
-      <c r="D938" s="97"/>
-      <c r="E938" s="97"/>
-    </row>
-    <row r="939" ht="15.75" customHeight="1">
-      <c r="C939" s="97"/>
-      <c r="D939" s="97"/>
-      <c r="E939" s="97"/>
-    </row>
-    <row r="940" ht="15.75" customHeight="1">
-      <c r="C940" s="97"/>
-      <c r="D940" s="97"/>
-      <c r="E940" s="97"/>
-    </row>
-    <row r="941" ht="15.75" customHeight="1">
-      <c r="C941" s="97"/>
-      <c r="D941" s="97"/>
-      <c r="E941" s="97"/>
-    </row>
-    <row r="942" ht="15.75" customHeight="1">
-      <c r="C942" s="97"/>
-      <c r="D942" s="97"/>
-      <c r="E942" s="97"/>
-    </row>
-    <row r="943" ht="15.75" customHeight="1">
-      <c r="C943" s="97"/>
-      <c r="D943" s="97"/>
-      <c r="E943" s="97"/>
-    </row>
-    <row r="944" ht="15.75" customHeight="1">
-      <c r="C944" s="97"/>
-      <c r="D944" s="97"/>
-      <c r="E944" s="97"/>
-    </row>
-    <row r="945" ht="15.75" customHeight="1">
-      <c r="C945" s="97"/>
-      <c r="D945" s="97"/>
-      <c r="E945" s="97"/>
-    </row>
-    <row r="946" ht="15.75" customHeight="1">
-      <c r="C946" s="97"/>
-      <c r="D946" s="97"/>
-      <c r="E946" s="97"/>
-    </row>
-    <row r="947" ht="15.75" customHeight="1">
-      <c r="C947" s="97"/>
-      <c r="D947" s="97"/>
-      <c r="E947" s="97"/>
-    </row>
-    <row r="948" ht="15.75" customHeight="1">
-      <c r="C948" s="97"/>
-      <c r="D948" s="97"/>
-      <c r="E948" s="97"/>
-    </row>
-    <row r="949" ht="15.75" customHeight="1">
-      <c r="C949" s="97"/>
-      <c r="D949" s="97"/>
-      <c r="E949" s="97"/>
-    </row>
-    <row r="950" ht="15.75" customHeight="1">
-      <c r="C950" s="97"/>
-      <c r="D950" s="97"/>
-      <c r="E950" s="97"/>
-    </row>
-    <row r="951" ht="15.75" customHeight="1">
-      <c r="C951" s="97"/>
-      <c r="D951" s="97"/>
-      <c r="E951" s="97"/>
-    </row>
-    <row r="952" ht="15.75" customHeight="1">
-      <c r="C952" s="97"/>
-      <c r="D952" s="97"/>
-      <c r="E952" s="97"/>
-    </row>
-    <row r="953" ht="15.75" customHeight="1">
-      <c r="C953" s="97"/>
-      <c r="D953" s="97"/>
-      <c r="E953" s="97"/>
-    </row>
-    <row r="954" ht="15.75" customHeight="1">
-      <c r="C954" s="97"/>
-      <c r="D954" s="97"/>
-      <c r="E954" s="97"/>
-    </row>
-    <row r="955" ht="15.75" customHeight="1">
-      <c r="C955" s="97"/>
-      <c r="D955" s="97"/>
-      <c r="E955" s="97"/>
-    </row>
-    <row r="956" ht="15.75" customHeight="1">
-      <c r="C956" s="97"/>
-      <c r="D956" s="97"/>
-      <c r="E956" s="97"/>
-    </row>
-    <row r="957" ht="15.75" customHeight="1">
-      <c r="C957" s="97"/>
-      <c r="D957" s="97"/>
-      <c r="E957" s="97"/>
-    </row>
-    <row r="958" ht="15.75" customHeight="1">
-      <c r="C958" s="97"/>
-      <c r="D958" s="97"/>
-      <c r="E958" s="97"/>
-    </row>
-    <row r="959" ht="15.75" customHeight="1">
-      <c r="C959" s="97"/>
-      <c r="D959" s="97"/>
-      <c r="E959" s="97"/>
-    </row>
-    <row r="960" ht="15.75" customHeight="1">
-      <c r="C960" s="97"/>
-      <c r="D960" s="97"/>
-      <c r="E960" s="97"/>
-    </row>
-    <row r="961" ht="15.75" customHeight="1">
-      <c r="C961" s="97"/>
-      <c r="D961" s="97"/>
-      <c r="E961" s="97"/>
-    </row>
-    <row r="962" ht="15.75" customHeight="1">
-      <c r="C962" s="97"/>
-      <c r="D962" s="97"/>
-      <c r="E962" s="97"/>
-    </row>
-    <row r="963" ht="15.75" customHeight="1">
-      <c r="C963" s="97"/>
-      <c r="D963" s="97"/>
-      <c r="E963" s="97"/>
-    </row>
-    <row r="964" ht="15.75" customHeight="1">
-      <c r="C964" s="97"/>
-      <c r="D964" s="97"/>
-      <c r="E964" s="97"/>
-    </row>
-    <row r="965" ht="15.75" customHeight="1">
-      <c r="C965" s="97"/>
-      <c r="D965" s="97"/>
-      <c r="E965" s="97"/>
-    </row>
-    <row r="966" ht="15.75" customHeight="1">
-      <c r="C966" s="97"/>
-      <c r="D966" s="97"/>
-      <c r="E966" s="97"/>
-    </row>
-    <row r="967" ht="15.75" customHeight="1">
-      <c r="C967" s="97"/>
-      <c r="D967" s="97"/>
-      <c r="E967" s="97"/>
-    </row>
-    <row r="968" ht="15.75" customHeight="1">
-      <c r="C968" s="97"/>
-      <c r="D968" s="97"/>
-      <c r="E968" s="97"/>
-    </row>
-    <row r="969" ht="15.75" customHeight="1">
-      <c r="C969" s="97"/>
-      <c r="D969" s="97"/>
-      <c r="E969" s="97"/>
-    </row>
-    <row r="970" ht="15.75" customHeight="1">
-      <c r="C970" s="97"/>
-      <c r="D970" s="97"/>
-      <c r="E970" s="97"/>
-    </row>
-    <row r="971" ht="15.75" customHeight="1">
-      <c r="C971" s="97"/>
-      <c r="D971" s="97"/>
-      <c r="E971" s="97"/>
-    </row>
-    <row r="972" ht="15.75" customHeight="1">
-      <c r="C972" s="97"/>
-      <c r="D972" s="97"/>
-      <c r="E972" s="97"/>
-    </row>
-    <row r="973" ht="15.75" customHeight="1">
-      <c r="C973" s="97"/>
-      <c r="D973" s="97"/>
-      <c r="E973" s="97"/>
-    </row>
-    <row r="974" ht="15.75" customHeight="1">
-      <c r="C974" s="97"/>
-      <c r="D974" s="97"/>
-      <c r="E974" s="97"/>
-    </row>
-    <row r="975" ht="15.75" customHeight="1">
-      <c r="C975" s="97"/>
-      <c r="D975" s="97"/>
-      <c r="E975" s="97"/>
-    </row>
-    <row r="976" ht="15.75" customHeight="1">
-      <c r="C976" s="97"/>
-      <c r="D976" s="97"/>
-      <c r="E976" s="97"/>
-    </row>
-    <row r="977" ht="15.75" customHeight="1">
-      <c r="C977" s="97"/>
-      <c r="D977" s="97"/>
-      <c r="E977" s="97"/>
-    </row>
-    <row r="978" ht="15.75" customHeight="1">
-      <c r="C978" s="97"/>
-      <c r="D978" s="97"/>
-      <c r="E978" s="97"/>
-    </row>
-    <row r="979" ht="15.75" customHeight="1">
-      <c r="C979" s="97"/>
-      <c r="D979" s="97"/>
-      <c r="E979" s="97"/>
-    </row>
-    <row r="980" ht="15.75" customHeight="1">
-      <c r="C980" s="97"/>
-      <c r="D980" s="97"/>
-      <c r="E980" s="97"/>
-    </row>
-    <row r="981" ht="15.75" customHeight="1">
-      <c r="C981" s="97"/>
-      <c r="D981" s="97"/>
-      <c r="E981" s="97"/>
-    </row>
-    <row r="982" ht="15.75" customHeight="1">
-      <c r="C982" s="97"/>
-      <c r="D982" s="97"/>
-      <c r="E982" s="97"/>
-    </row>
-    <row r="983" ht="15.75" customHeight="1">
-      <c r="C983" s="97"/>
-      <c r="D983" s="97"/>
-      <c r="E983" s="97"/>
-    </row>
-    <row r="984" ht="15.75" customHeight="1">
-      <c r="C984" s="97"/>
-      <c r="D984" s="97"/>
-      <c r="E984" s="97"/>
-    </row>
-    <row r="985" ht="15.75" customHeight="1">
-      <c r="C985" s="97"/>
-      <c r="D985" s="97"/>
-      <c r="E985" s="97"/>
-    </row>
-    <row r="986" ht="15.75" customHeight="1">
-      <c r="C986" s="97"/>
-      <c r="D986" s="97"/>
-      <c r="E986" s="97"/>
-    </row>
-    <row r="987" ht="15.75" customHeight="1">
-      <c r="C987" s="97"/>
-      <c r="D987" s="97"/>
-      <c r="E987" s="97"/>
-    </row>
-    <row r="988" ht="15.75" customHeight="1">
-      <c r="C988" s="97"/>
-      <c r="D988" s="97"/>
-      <c r="E988" s="97"/>
-    </row>
-    <row r="989" ht="15.75" customHeight="1">
-      <c r="C989" s="97"/>
-      <c r="D989" s="97"/>
-      <c r="E989" s="97"/>
-    </row>
-    <row r="990" ht="15.75" customHeight="1">
-      <c r="C990" s="97"/>
-      <c r="D990" s="97"/>
-      <c r="E990" s="97"/>
-    </row>
-    <row r="991" ht="15.75" customHeight="1">
-      <c r="C991" s="97"/>
-      <c r="D991" s="97"/>
-      <c r="E991" s="97"/>
-    </row>
-    <row r="992" ht="15.75" customHeight="1">
-      <c r="C992" s="97"/>
-      <c r="D992" s="97"/>
-      <c r="E992" s="97"/>
-    </row>
-    <row r="993" ht="15.75" customHeight="1">
-      <c r="C993" s="97"/>
-      <c r="D993" s="97"/>
-      <c r="E993" s="97"/>
-    </row>
-    <row r="994" ht="15.75" customHeight="1">
-      <c r="C994" s="97"/>
-      <c r="D994" s="97"/>
-      <c r="E994" s="97"/>
-    </row>
-    <row r="995" ht="15.75" customHeight="1">
-      <c r="C995" s="97"/>
-      <c r="D995" s="97"/>
-      <c r="E995" s="97"/>
-    </row>
-    <row r="996" ht="15.75" customHeight="1">
-      <c r="C996" s="97"/>
-      <c r="D996" s="97"/>
-      <c r="E996" s="97"/>
-    </row>
-    <row r="997" ht="15.75" customHeight="1">
-      <c r="C997" s="97"/>
-      <c r="D997" s="97"/>
-      <c r="E997" s="97"/>
-    </row>
-    <row r="998" ht="15.75" customHeight="1">
-      <c r="C998" s="97"/>
-      <c r="D998" s="97"/>
-      <c r="E998" s="97"/>
-    </row>
-    <row r="999" ht="15.75" customHeight="1">
-      <c r="C999" s="97"/>
-      <c r="D999" s="97"/>
-      <c r="E999" s="97"/>
-    </row>
-    <row r="1000" ht="15.75" customHeight="1">
-      <c r="C1000" s="97"/>
-      <c r="D1000" s="97"/>
-      <c r="E1000" s="97"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:E1"/>
-  </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>